--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
   <si>
     <t xml:space="preserve">case_id</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">['living']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedroom_close_bed</t>
   </si>
 </sst>
 </file>
@@ -375,8 +381,8 @@
   </sheetPr>
   <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D156" activeCellId="0" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3936,10 +3942,14 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18" t="n">
+        <v>61</v>
+      </c>
       <c r="B62" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="28" t="b">
+      <c r="C62" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -3948,17 +3958,20 @@
       <c r="E62" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="28" t="b">
+      <c r="F62" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="28"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="28" t="b">
+      <c r="J62" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K62" s="18"/>
-      <c r="M62" s="21" t="b">
+      <c r="M62" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N62" s="29"/>
@@ -3972,12 +3985,19 @@
       <c r="U62" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="V62" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18" t="n">
+        <v>62</v>
+      </c>
       <c r="B63" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="28" t="b">
+      <c r="C63" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D63" s="19" t="s">
@@ -3986,17 +4006,20 @@
       <c r="E63" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="28" t="b">
+      <c r="F63" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="28"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="28" t="b">
+      <c r="J63" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K63" s="18"/>
-      <c r="M63" s="21" t="b">
+      <c r="M63" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N63" s="29"/>
@@ -4010,29 +4033,39 @@
       <c r="U63" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V63" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="n">
+        <v>63</v>
+      </c>
       <c r="B64" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="28" t="b">
+      <c r="C64" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="28" t="b">
+      <c r="F64" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="28"/>
       <c r="I64" s="18"/>
-      <c r="J64" s="28" t="b">
+      <c r="J64" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K64" s="18"/>
-      <c r="M64" s="21" t="b">
+      <c r="M64" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N64" s="29"/>
@@ -4046,30 +4079,40 @@
       <c r="U64" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V64" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18" t="n">
+        <v>64</v>
+      </c>
       <c r="B65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="28" t="b">
+      <c r="C65" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="19"/>
-      <c r="F65" s="28" t="b">
+      <c r="F65" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="28"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="28" t="b">
+      <c r="J65" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K65" s="18"/>
       <c r="L65" s="21"/>
-      <c r="M65" s="21" t="b">
+      <c r="M65" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N65" s="29"/>
@@ -4083,12 +4126,19 @@
       <c r="U65" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V65" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="18" t="n">
+        <v>65</v>
+      </c>
       <c r="B66" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="28" t="b">
+      <c r="C66" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -4097,18 +4147,21 @@
       <c r="E66" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="28" t="b">
+      <c r="F66" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="28"/>
       <c r="I66" s="18"/>
-      <c r="J66" s="28" t="b">
+      <c r="J66" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K66" s="18"/>
       <c r="L66" s="21"/>
-      <c r="M66" s="21" t="b">
+      <c r="M66" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N66" s="29"/>
@@ -4122,12 +4175,19 @@
       <c r="U66" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="V66" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18" t="n">
+        <v>66</v>
+      </c>
       <c r="B67" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="28" t="b">
+      <c r="C67" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -4136,18 +4196,21 @@
       <c r="E67" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="28" t="b">
+      <c r="F67" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="28"/>
       <c r="I67" s="18"/>
-      <c r="J67" s="28" t="b">
+      <c r="J67" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="21" t="b">
+      <c r="M67" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N67" s="29"/>
@@ -4161,29 +4224,39 @@
       <c r="U67" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V67" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="18" t="n">
+        <v>67</v>
+      </c>
       <c r="B68" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="28" t="b">
+      <c r="C68" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="28" t="b">
+      <c r="F68" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="28"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="28" t="b">
+      <c r="J68" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K68" s="18"/>
-      <c r="M68" s="21" t="b">
+      <c r="M68" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N68" s="29"/>
@@ -4197,30 +4270,40 @@
       <c r="U68" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V68" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="18" t="n">
+        <v>68</v>
+      </c>
       <c r="B69" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="28" t="b">
+      <c r="C69" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="19"/>
-      <c r="F69" s="28" t="b">
+      <c r="F69" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="28"/>
       <c r="I69" s="18"/>
-      <c r="J69" s="28" t="b">
+      <c r="J69" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K69" s="18"/>
       <c r="L69" s="21"/>
-      <c r="M69" s="21" t="b">
+      <c r="M69" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N69" s="29"/>
@@ -4234,12 +4317,19 @@
       <c r="U69" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V69" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="n">
+        <v>69</v>
+      </c>
       <c r="B70" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="28" t="b">
+      <c r="C70" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -4248,17 +4338,20 @@
       <c r="E70" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="28" t="b">
+      <c r="F70" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="28"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="28" t="b">
+      <c r="J70" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K70" s="18"/>
-      <c r="M70" s="21" t="b">
+      <c r="M70" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N70" s="29"/>
@@ -4272,12 +4365,19 @@
       <c r="U70" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="V70" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18" t="n">
+        <v>70</v>
+      </c>
       <c r="B71" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="28" t="b">
+      <c r="C71" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D71" s="19" t="s">
@@ -4286,17 +4386,20 @@
       <c r="E71" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="28" t="b">
+      <c r="F71" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="28"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="28" t="b">
+      <c r="J71" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K71" s="18"/>
-      <c r="M71" s="21" t="b">
+      <c r="M71" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N71" s="29"/>
@@ -4310,29 +4413,39 @@
       <c r="U71" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V71" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="18" t="n">
+        <v>71</v>
+      </c>
       <c r="B72" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="28" t="b">
+      <c r="C72" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="28" t="b">
+      <c r="F72" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="28"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="28" t="b">
+      <c r="J72" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K72" s="18"/>
-      <c r="M72" s="21" t="b">
+      <c r="M72" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N72" s="29"/>
@@ -4346,30 +4459,40 @@
       <c r="U72" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V72" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="n">
+        <v>72</v>
+      </c>
       <c r="B73" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="28" t="b">
+      <c r="C73" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="28" t="b">
+      <c r="F73" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="28"/>
       <c r="I73" s="18"/>
-      <c r="J73" s="28" t="b">
+      <c r="J73" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K73" s="18"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="21" t="b">
+      <c r="M73" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N73" s="29"/>
@@ -4383,12 +4506,19 @@
       <c r="U73" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V73" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="18" t="n">
+        <v>73</v>
+      </c>
       <c r="B74" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="28" t="b">
+      <c r="C74" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -4397,18 +4527,21 @@
       <c r="E74" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="28" t="b">
+      <c r="F74" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="28"/>
       <c r="I74" s="18"/>
-      <c r="J74" s="28" t="b">
+      <c r="J74" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K74" s="18"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="21" t="b">
+      <c r="M74" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N74" s="29"/>
@@ -4422,12 +4555,19 @@
       <c r="U74" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="V74" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="18" t="n">
+        <v>74</v>
+      </c>
       <c r="B75" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="28" t="b">
+      <c r="C75" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D75" s="19" t="s">
@@ -4436,18 +4576,21 @@
       <c r="E75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="28" t="b">
+      <c r="F75" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="28"/>
       <c r="I75" s="18"/>
-      <c r="J75" s="28" t="b">
+      <c r="J75" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K75" s="18"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="21" t="b">
+      <c r="M75" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N75" s="29"/>
@@ -4461,29 +4604,39 @@
       <c r="U75" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V75" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="18" t="n">
+        <v>75</v>
+      </c>
       <c r="B76" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="28" t="b">
+      <c r="C76" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="19"/>
-      <c r="F76" s="28" t="b">
+      <c r="F76" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="28"/>
       <c r="I76" s="18"/>
-      <c r="J76" s="28" t="b">
+      <c r="J76" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K76" s="18"/>
-      <c r="M76" s="21" t="b">
+      <c r="M76" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N76" s="29"/>
@@ -4497,24 +4650,34 @@
       <c r="U76" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V76" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="18" t="n">
+        <v>76</v>
+      </c>
       <c r="B77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="28" t="b">
+      <c r="C77" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" s="21" t="b">
+      <c r="F77" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N77" s="29"/>
@@ -4528,12 +4691,19 @@
       <c r="U77" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V77" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="18" t="n">
+        <v>77</v>
+      </c>
       <c r="B78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="28" t="b">
+      <c r="C78" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -4542,18 +4712,21 @@
       <c r="E78" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="28" t="b">
+      <c r="F78" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="28"/>
       <c r="I78" s="18"/>
-      <c r="J78" s="28" t="b">
+      <c r="J78" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K78" s="18"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="21" t="b">
+      <c r="M78" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N78" s="29"/>
@@ -4567,12 +4740,19 @@
       <c r="U78" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="V78" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="18" t="n">
+        <v>78</v>
+      </c>
       <c r="B79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="28" t="b">
+      <c r="C79" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -4581,13 +4761,16 @@
       <c r="E79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79" s="21" t="b">
+      <c r="F79" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N79" s="29"/>
@@ -4601,36 +4784,47 @@
       <c r="U79" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V79" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="18" t="n">
+        <v>79</v>
+      </c>
       <c r="B80" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="28" t="b">
+      <c r="C80" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="19"/>
-      <c r="F80" s="28" t="b">
+      <c r="F80" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="28" t="b">
+      <c r="H80" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="28" t="b">
+      <c r="J80" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="21"/>
-      <c r="M80" s="21" t="b">
+      <c r="M80" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N80" s="29"/>
@@ -4648,35 +4842,46 @@
       <c r="U80" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V80" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="18" t="n">
+        <v>80</v>
+      </c>
       <c r="B81" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="28" t="b">
+      <c r="C81" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E81" s="19"/>
-      <c r="F81" s="28" t="b">
+      <c r="F81" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="28" t="b">
+      <c r="H81" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J81" s="28" t="b">
+      <c r="J81" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K81" s="18"/>
-      <c r="M81" s="21" t="b">
+      <c r="M81" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N81" s="29"/>
@@ -4694,12 +4899,19 @@
       <c r="U81" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V81" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="18" t="n">
+        <v>81</v>
+      </c>
       <c r="B82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="28" t="b">
+      <c r="C82" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -4708,24 +4920,28 @@
       <c r="E82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="28" t="b">
+      <c r="F82" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H82" s="28" t="b">
+      <c r="H82" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="28" t="b">
+      <c r="J82" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K82" s="18"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="21" t="b">
+      <c r="M82" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N82" s="29"/>
@@ -4743,12 +4959,19 @@
       <c r="U82" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="V82" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="18" t="n">
+        <v>82</v>
+      </c>
       <c r="B83" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="28" t="b">
+      <c r="C83" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -4757,23 +4980,27 @@
       <c r="E83" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="28" t="b">
+      <c r="F83" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H83" s="28" t="b">
+      <c r="H83" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J83" s="28" t="b">
+      <c r="J83" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K83" s="18"/>
-      <c r="M83" s="21" t="b">
+      <c r="M83" s="21" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N83" s="29"/>
@@ -4791,35 +5018,46 @@
       <c r="U83" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V83" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="n">
+        <v>83</v>
+      </c>
       <c r="B84" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="28" t="b">
+      <c r="C84" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E84" s="19"/>
-      <c r="F84" s="28" t="b">
+      <c r="F84" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H84" s="28" t="b">
+      <c r="H84" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="28" t="b">
+      <c r="J84" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K84" s="18"/>
-      <c r="M84" s="21" t="b">
+      <c r="M84" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N84" s="29" t="s">
@@ -4844,35 +5082,46 @@
       <c r="U84" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V84" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="18" t="n">
+        <v>84</v>
+      </c>
       <c r="B85" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="28" t="b">
+      <c r="C85" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="19"/>
-      <c r="F85" s="28" t="b">
+      <c r="F85" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="28" t="b">
+      <c r="H85" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="28" t="b">
+      <c r="J85" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K85" s="18"/>
-      <c r="M85" s="21" t="b">
+      <c r="M85" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N85" s="29" t="s">
@@ -4897,12 +5146,19 @@
       <c r="U85" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V85" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="18" t="n">
+        <v>85</v>
+      </c>
       <c r="B86" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="28" t="b">
+      <c r="C86" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D86" s="19" t="s">
@@ -4911,24 +5167,28 @@
       <c r="E86" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="28" t="b">
+      <c r="F86" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="28" t="b">
+      <c r="H86" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="28" t="b">
+      <c r="J86" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="21" t="b">
+      <c r="M86" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N86" s="29" t="s">
@@ -4953,12 +5213,19 @@
       <c r="U86" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="V86" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="18" t="n">
+        <v>86</v>
+      </c>
       <c r="B87" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="28" t="b">
+      <c r="C87" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -4967,23 +5234,27 @@
       <c r="E87" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="28" t="b">
+      <c r="F87" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="28" t="b">
+      <c r="H87" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J87" s="28" t="b">
+      <c r="J87" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K87" s="18"/>
-      <c r="M87" s="21" t="b">
+      <c r="M87" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N87" s="29" t="s">
@@ -5008,36 +5279,47 @@
       <c r="U87" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V87" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="18" t="n">
+        <v>87</v>
+      </c>
       <c r="B88" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="28" t="b">
+      <c r="C88" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="28" t="b">
+      <c r="F88" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="28" t="b">
+      <c r="H88" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J88" s="28" t="b">
+      <c r="J88" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K88" s="18"/>
       <c r="L88" s="21"/>
-      <c r="M88" s="21" t="b">
+      <c r="M88" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N88" s="29" t="s">
@@ -5062,35 +5344,46 @@
       <c r="U88" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="V88" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="18" t="n">
+        <v>88</v>
+      </c>
       <c r="B89" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="28" t="b">
+      <c r="C89" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E89" s="19"/>
-      <c r="F89" s="28" t="b">
+      <c r="F89" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H89" s="28" t="b">
+      <c r="H89" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I89" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J89" s="28" t="b">
+      <c r="J89" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K89" s="18"/>
-      <c r="M89" s="21" t="b">
+      <c r="M89" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N89" s="29" t="s">
@@ -5115,12 +5408,19 @@
       <c r="U89" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="V89" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="18" t="n">
+        <v>89</v>
+      </c>
       <c r="B90" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="28" t="b">
+      <c r="C90" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -5129,23 +5429,27 @@
       <c r="E90" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="28" t="b">
+      <c r="F90" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="28" t="b">
+      <c r="H90" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I90" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J90" s="28" t="b">
+      <c r="J90" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K90" s="18"/>
-      <c r="M90" s="21" t="b">
+      <c r="M90" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N90" s="29" t="s">
@@ -5170,12 +5474,19 @@
       <c r="U90" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="V90" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="18" t="n">
+        <v>90</v>
+      </c>
       <c r="B91" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="28" t="b">
+      <c r="C91" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -5184,23 +5495,27 @@
       <c r="E91" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="28" t="b">
+      <c r="F91" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H91" s="28" t="b">
+      <c r="H91" s="28" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I91" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J91" s="28" t="b">
+      <c r="J91" s="28" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K91" s="18"/>
-      <c r="M91" s="21" t="b">
+      <c r="M91" s="21" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N91" s="29" t="s">
@@ -5225,1158 +5540,3133 @@
       <c r="U91" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="V91" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="18"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="28"/>
+      <c r="A92" s="18" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G92" s="18"/>
       <c r="H92" s="28"/>
       <c r="I92" s="18"/>
-      <c r="J92" s="28"/>
+      <c r="J92" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K92" s="18"/>
       <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
+      <c r="M92" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N92" s="29"/>
       <c r="O92" s="26"/>
-      <c r="P92" s="24"/>
+      <c r="P92" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="18"/>
       <c r="S92" s="19"/>
+      <c r="U92" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="18"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="28"/>
+      <c r="A93" s="18" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G93" s="18"/>
       <c r="H93" s="28"/>
       <c r="I93" s="18"/>
-      <c r="J93" s="28"/>
+      <c r="J93" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K93" s="18"/>
       <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
+      <c r="M93" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N93" s="29"/>
       <c r="O93" s="26"/>
-      <c r="P93" s="24"/>
+      <c r="P93" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q93" s="25"/>
       <c r="R93" s="18"/>
       <c r="S93" s="19"/>
+      <c r="U93" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="18"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="19"/>
+      <c r="A94" s="18" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="28"/>
+      <c r="F94" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G94" s="18"/>
       <c r="H94" s="28"/>
       <c r="I94" s="18"/>
-      <c r="J94" s="28"/>
+      <c r="J94" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K94" s="18"/>
       <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
+      <c r="M94" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N94" s="29"/>
       <c r="O94" s="26"/>
-      <c r="P94" s="24"/>
+      <c r="P94" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q94" s="25"/>
       <c r="R94" s="18"/>
       <c r="S94" s="19"/>
+      <c r="U94" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="18"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="19"/>
+      <c r="A95" s="18" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="28"/>
+      <c r="F95" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G95" s="18"/>
       <c r="H95" s="28"/>
       <c r="I95" s="18"/>
-      <c r="J95" s="28"/>
+      <c r="J95" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K95" s="18"/>
-      <c r="M95" s="21"/>
+      <c r="M95" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N95" s="29"/>
       <c r="O95" s="26"/>
-      <c r="P95" s="24"/>
+      <c r="P95" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q95" s="25"/>
       <c r="R95" s="18"/>
       <c r="S95" s="19"/>
+      <c r="U95" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="18"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="28"/>
+      <c r="A96" s="18" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G96" s="18"/>
       <c r="H96" s="28"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="28"/>
+      <c r="J96" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K96" s="18"/>
       <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
+      <c r="M96" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N96" s="29"/>
       <c r="O96" s="18"/>
-      <c r="P96" s="24"/>
+      <c r="P96" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q96" s="25"/>
       <c r="R96" s="18"/>
       <c r="S96" s="19"/>
+      <c r="U96" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V96" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="18"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="28"/>
+      <c r="A97" s="18" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G97" s="18"/>
       <c r="H97" s="28"/>
       <c r="I97" s="18"/>
-      <c r="J97" s="28"/>
+      <c r="J97" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K97" s="18"/>
-      <c r="M97" s="21"/>
+      <c r="M97" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N97" s="29"/>
       <c r="O97" s="26"/>
-      <c r="P97" s="24"/>
+      <c r="P97" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="18"/>
       <c r="S97" s="19"/>
+      <c r="U97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V97" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="18"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="19"/>
+      <c r="A98" s="18" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="28"/>
+      <c r="F98" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G98" s="18"/>
       <c r="H98" s="28"/>
       <c r="I98" s="18"/>
-      <c r="J98" s="28"/>
+      <c r="J98" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K98" s="18"/>
-      <c r="M98" s="21"/>
+      <c r="M98" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N98" s="29"/>
       <c r="O98" s="26"/>
-      <c r="P98" s="24"/>
+      <c r="P98" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="18"/>
       <c r="S98" s="19"/>
+      <c r="U98" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V98" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="18"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="19"/>
+      <c r="A99" s="18" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="28"/>
+      <c r="F99" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G99" s="18"/>
       <c r="H99" s="28"/>
       <c r="I99" s="18"/>
-      <c r="J99" s="28"/>
+      <c r="J99" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K99" s="18"/>
-      <c r="M99" s="21"/>
+      <c r="M99" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N99" s="29"/>
       <c r="O99" s="26"/>
-      <c r="P99" s="24"/>
+      <c r="P99" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q99" s="25"/>
       <c r="R99" s="18"/>
       <c r="S99" s="19"/>
+      <c r="U99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V99" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="18"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="28"/>
+      <c r="A100" s="18" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G100" s="18"/>
       <c r="H100" s="28"/>
       <c r="I100" s="18"/>
-      <c r="J100" s="28"/>
+      <c r="J100" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K100" s="18"/>
       <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
+      <c r="M100" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N100" s="29"/>
       <c r="O100" s="26"/>
-      <c r="P100" s="24"/>
+      <c r="P100" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q100" s="25"/>
       <c r="R100" s="18"/>
       <c r="S100" s="19"/>
+      <c r="U100" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V100" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="18"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="28"/>
+      <c r="A101" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G101" s="18"/>
       <c r="H101" s="28"/>
       <c r="I101" s="18"/>
-      <c r="J101" s="28"/>
+      <c r="J101" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K101" s="18"/>
       <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
+      <c r="M101" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N101" s="29"/>
       <c r="O101" s="26"/>
-      <c r="P101" s="24"/>
+      <c r="P101" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q101" s="25"/>
       <c r="R101" s="18"/>
       <c r="S101" s="19"/>
+      <c r="U101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V101" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="18"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="19"/>
+      <c r="A102" s="18" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E102" s="19"/>
-      <c r="F102" s="28"/>
+      <c r="F102" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G102" s="18"/>
       <c r="H102" s="28"/>
       <c r="I102" s="18"/>
-      <c r="J102" s="28"/>
+      <c r="J102" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K102" s="18"/>
       <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
+      <c r="M102" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N102" s="29"/>
       <c r="O102" s="26"/>
-      <c r="P102" s="24"/>
+      <c r="P102" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q102" s="25"/>
       <c r="R102" s="18"/>
       <c r="S102" s="19"/>
+      <c r="U102" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="18"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="19"/>
+      <c r="A103" s="18" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E103" s="19"/>
-      <c r="F103" s="28"/>
+      <c r="F103" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G103" s="18"/>
       <c r="H103" s="28"/>
       <c r="I103" s="18"/>
-      <c r="J103" s="28"/>
+      <c r="J103" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K103" s="18"/>
-      <c r="M103" s="21"/>
+      <c r="M103" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N103" s="29"/>
       <c r="O103" s="26"/>
-      <c r="P103" s="24"/>
+      <c r="P103" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="18"/>
       <c r="S103" s="19"/>
+      <c r="U103" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="18"/>
-      <c r="C104" s="28"/>
-      <c r="M104" s="21"/>
+      <c r="A104" s="18" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N104" s="29"/>
       <c r="O104" s="26"/>
-      <c r="P104" s="24"/>
+      <c r="P104" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q104" s="25"/>
       <c r="R104" s="18"/>
       <c r="S104" s="19"/>
+      <c r="U104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="18"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="28"/>
+      <c r="A105" s="18" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G105" s="18"/>
       <c r="H105" s="28"/>
       <c r="I105" s="18"/>
-      <c r="J105" s="28"/>
+      <c r="J105" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K105" s="18"/>
       <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
+      <c r="M105" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N105" s="29"/>
       <c r="O105" s="26"/>
-      <c r="P105" s="24"/>
+      <c r="P105" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q105" s="25"/>
       <c r="R105" s="18"/>
       <c r="S105" s="19"/>
+      <c r="U105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="18"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="19"/>
+      <c r="A106" s="18" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="18"/>
-      <c r="M106" s="21"/>
+      <c r="F106" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J106" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N106" s="29"/>
       <c r="O106" s="26"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="25"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="19"/>
+      <c r="P106" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R106" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V106" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="18"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="19"/>
+      <c r="A107" s="18" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E107" s="19"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
+      <c r="F107" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H107" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L107" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N107" s="29"/>
       <c r="O107" s="18"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="25"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="19"/>
+      <c r="P107" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q107" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R107" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V107" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="18"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="18"/>
-      <c r="M108" s="21"/>
+      <c r="A108" s="18" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J108" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N108" s="29"/>
       <c r="O108" s="26"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="19"/>
+      <c r="P108" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R108" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="18"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="18"/>
-      <c r="M109" s="21"/>
+      <c r="A109" s="18" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J109" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N109" s="29"/>
       <c r="O109" s="26"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="19"/>
+      <c r="P109" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R109" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V109" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="18"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="19"/>
+      <c r="A110" s="18" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E110" s="19"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="18"/>
-      <c r="M110" s="21"/>
+      <c r="F110" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J110" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N110" s="29"/>
       <c r="O110" s="26"/>
-      <c r="P110" s="24"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="19"/>
+      <c r="P110" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R110" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V110" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="18"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="19"/>
+      <c r="A111" s="18" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E111" s="19"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
+      <c r="F111" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J111" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L111" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N111" s="29"/>
       <c r="O111" s="26"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="19"/>
+      <c r="P111" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q111" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R111" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V111" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="18"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="18"/>
-      <c r="M112" s="21"/>
+      <c r="A112" s="18" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J112" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N112" s="29"/>
       <c r="O112" s="26"/>
-      <c r="P112" s="24"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="19"/>
+      <c r="P112" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R112" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V112" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="18"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
+      <c r="A113" s="18" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H113" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J113" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L113" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N113" s="29"/>
       <c r="O113" s="18"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="19"/>
+      <c r="P113" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R113" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V113" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="18"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="19"/>
+      <c r="A114" s="18" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="18"/>
-      <c r="M114" s="21"/>
+      <c r="F114" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J114" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N114" s="29"/>
       <c r="O114" s="26"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="19"/>
+      <c r="P114" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R114" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V114" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="18"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="19"/>
+      <c r="A115" s="18" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E115" s="19"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="18"/>
-      <c r="M115" s="21"/>
+      <c r="F115" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N115" s="29"/>
       <c r="O115" s="26"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="19"/>
+      <c r="P115" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q115" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R115" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V115" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="18"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="18"/>
-      <c r="M116" s="21"/>
+      <c r="A116" s="18" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J116" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N116" s="29"/>
       <c r="O116" s="26"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="19"/>
+      <c r="P116" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R116" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V116" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="18"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
+      <c r="A117" s="18" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J117" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L117" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N117" s="29"/>
       <c r="O117" s="26"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="19"/>
+      <c r="P117" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R117" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V117" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="18"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="19"/>
+      <c r="A118" s="18" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E118" s="19"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
+      <c r="F118" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J118" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L118" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N118" s="29"/>
       <c r="O118" s="26"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="19"/>
+      <c r="P118" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R118" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V118" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="18"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="19"/>
+      <c r="A119" s="18" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E119" s="19"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
+      <c r="F119" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L119" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N119" s="29"/>
       <c r="O119" s="26"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="19"/>
+      <c r="P119" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q119" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R119" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V119" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="18"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="19"/>
+      <c r="A120" s="18" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E120" s="19"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="18"/>
-      <c r="M120" s="21"/>
+      <c r="F120" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H120" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N120" s="29"/>
       <c r="O120" s="26"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="19"/>
+      <c r="P120" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V120" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="18"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="19"/>
+      <c r="A121" s="18" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E121" s="19"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
+      <c r="F121" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L121" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N121" s="29"/>
       <c r="O121" s="18"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="25"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="19"/>
+      <c r="P121" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q121" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R121" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V121" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="18"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="28"/>
+      <c r="A122" s="18" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G122" s="18"/>
       <c r="H122" s="28"/>
       <c r="I122" s="18"/>
-      <c r="J122" s="28"/>
+      <c r="J122" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K122" s="18"/>
-      <c r="M122" s="21"/>
+      <c r="M122" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N122" s="29"/>
       <c r="O122" s="26"/>
-      <c r="P122" s="24"/>
+      <c r="P122" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q122" s="25"/>
       <c r="R122" s="18"/>
       <c r="S122" s="19"/>
+      <c r="U122" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V122" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="18"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="28"/>
+      <c r="A123" s="18" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G123" s="18"/>
       <c r="H123" s="28"/>
       <c r="I123" s="18"/>
-      <c r="J123" s="28"/>
+      <c r="J123" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K123" s="18"/>
-      <c r="M123" s="21"/>
+      <c r="M123" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N123" s="29"/>
       <c r="O123" s="26"/>
-      <c r="P123" s="24"/>
+      <c r="P123" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q123" s="25"/>
       <c r="R123" s="18"/>
       <c r="S123" s="19"/>
+      <c r="U123" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V123" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="18"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="19"/>
+      <c r="A124" s="18" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E124" s="19"/>
-      <c r="F124" s="28"/>
+      <c r="F124" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G124" s="18"/>
       <c r="H124" s="28"/>
       <c r="I124" s="18"/>
-      <c r="J124" s="28"/>
+      <c r="J124" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K124" s="18"/>
-      <c r="M124" s="21"/>
+      <c r="M124" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N124" s="29"/>
       <c r="O124" s="26"/>
-      <c r="P124" s="24"/>
+      <c r="P124" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q124" s="25"/>
       <c r="R124" s="18"/>
       <c r="S124" s="19"/>
+      <c r="U124" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V124" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="18"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="19"/>
+      <c r="A125" s="18" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E125" s="19"/>
-      <c r="F125" s="28"/>
+      <c r="F125" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G125" s="18"/>
       <c r="H125" s="28"/>
       <c r="I125" s="18"/>
-      <c r="J125" s="28"/>
+      <c r="J125" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K125" s="18"/>
       <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
+      <c r="M125" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N125" s="29"/>
       <c r="O125" s="26"/>
-      <c r="P125" s="24"/>
+      <c r="P125" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q125" s="25"/>
       <c r="R125" s="18"/>
       <c r="S125" s="19"/>
+      <c r="U125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V125" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="18"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="28"/>
+      <c r="A126" s="18" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G126" s="18"/>
       <c r="H126" s="28"/>
       <c r="I126" s="18"/>
-      <c r="J126" s="28"/>
+      <c r="J126" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K126" s="18"/>
       <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
+      <c r="M126" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N126" s="29"/>
       <c r="O126" s="26"/>
-      <c r="P126" s="24"/>
+      <c r="P126" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q126" s="25"/>
       <c r="R126" s="18"/>
       <c r="S126" s="19"/>
+      <c r="U126" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V126" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="18"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="28"/>
+      <c r="A127" s="18" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G127" s="18"/>
       <c r="H127" s="28"/>
       <c r="I127" s="18"/>
-      <c r="J127" s="28"/>
+      <c r="J127" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K127" s="18"/>
       <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
+      <c r="M127" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N127" s="29"/>
       <c r="O127" s="26"/>
-      <c r="P127" s="24"/>
+      <c r="P127" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q127" s="25"/>
       <c r="R127" s="18"/>
       <c r="S127" s="19"/>
+      <c r="U127" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V127" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="18"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="19"/>
+      <c r="A128" s="18" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E128" s="19"/>
-      <c r="F128" s="28"/>
+      <c r="F128" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G128" s="18"/>
       <c r="H128" s="28"/>
       <c r="I128" s="18"/>
-      <c r="J128" s="28"/>
+      <c r="J128" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K128" s="18"/>
-      <c r="M128" s="21"/>
+      <c r="M128" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N128" s="29"/>
       <c r="O128" s="26"/>
-      <c r="P128" s="24"/>
+      <c r="P128" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q128" s="25"/>
       <c r="R128" s="18"/>
       <c r="S128" s="19"/>
+      <c r="U128" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V128" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="18"/>
-      <c r="C129" s="28"/>
-      <c r="M129" s="21"/>
+      <c r="A129" s="18" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N129" s="29"/>
       <c r="O129" s="26"/>
-      <c r="P129" s="24"/>
+      <c r="P129" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q129" s="25"/>
       <c r="R129" s="18"/>
       <c r="S129" s="19"/>
+      <c r="U129" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V129" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="18"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="28"/>
+      <c r="A130" s="18" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G130" s="18"/>
       <c r="H130" s="28"/>
       <c r="I130" s="18"/>
-      <c r="J130" s="28"/>
+      <c r="J130" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K130" s="18"/>
       <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
+      <c r="M130" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N130" s="29"/>
       <c r="O130" s="26"/>
-      <c r="P130" s="24"/>
+      <c r="P130" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q130" s="25"/>
       <c r="R130" s="18"/>
       <c r="S130" s="19"/>
+      <c r="U130" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V130" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="18"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="28"/>
+      <c r="A131" s="18" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G131" s="18"/>
       <c r="H131" s="28"/>
       <c r="I131" s="18"/>
-      <c r="J131" s="28"/>
+      <c r="J131" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K131" s="18"/>
-      <c r="M131" s="21"/>
+      <c r="M131" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N131" s="29"/>
       <c r="O131" s="26"/>
-      <c r="P131" s="24"/>
+      <c r="P131" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q131" s="25"/>
       <c r="R131" s="18"/>
       <c r="S131" s="19"/>
+      <c r="U131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V131" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="18"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="19"/>
+      <c r="A132" s="18" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E132" s="19"/>
-      <c r="F132" s="28"/>
+      <c r="F132" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G132" s="18"/>
       <c r="H132" s="28"/>
       <c r="I132" s="18"/>
-      <c r="J132" s="28"/>
+      <c r="J132" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K132" s="18"/>
       <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
+      <c r="M132" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N132" s="29"/>
       <c r="O132" s="18"/>
-      <c r="P132" s="24"/>
+      <c r="P132" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="18"/>
       <c r="S132" s="19"/>
+      <c r="U132" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V132" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="18"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="19"/>
+      <c r="A133" s="18" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E133" s="19"/>
-      <c r="F133" s="28"/>
+      <c r="F133" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G133" s="18"/>
       <c r="H133" s="28"/>
       <c r="I133" s="18"/>
-      <c r="J133" s="28"/>
+      <c r="J133" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K133" s="18"/>
-      <c r="M133" s="21"/>
+      <c r="M133" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N133" s="29"/>
       <c r="O133" s="26"/>
-      <c r="P133" s="24"/>
+      <c r="P133" s="24" t="n">
+        <v>-1</v>
+      </c>
       <c r="Q133" s="25"/>
       <c r="R133" s="18"/>
       <c r="S133" s="19"/>
+      <c r="U133" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V133" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="18"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="28"/>
+      <c r="A134" s="18" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G134" s="18"/>
       <c r="H134" s="28"/>
       <c r="I134" s="18"/>
-      <c r="J134" s="28"/>
+      <c r="J134" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K134" s="18"/>
-      <c r="M134" s="21"/>
+      <c r="M134" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N134" s="29"/>
       <c r="O134" s="26"/>
-      <c r="P134" s="24"/>
+      <c r="P134" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q134" s="25"/>
       <c r="R134" s="18"/>
       <c r="S134" s="19"/>
+      <c r="U134" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V134" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="18"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="28"/>
+      <c r="A135" s="18" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="G135" s="18"/>
       <c r="H135" s="28"/>
       <c r="I135" s="18"/>
-      <c r="J135" s="28"/>
+      <c r="J135" s="28" t="b">
+        <v>0</v>
+      </c>
       <c r="K135" s="18"/>
-      <c r="M135" s="21"/>
+      <c r="M135" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N135" s="29"/>
       <c r="O135" s="26"/>
-      <c r="P135" s="24"/>
+      <c r="P135" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q135" s="25"/>
       <c r="R135" s="18"/>
       <c r="S135" s="19"/>
+      <c r="U135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V135" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="18"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="19"/>
+      <c r="A136" s="18" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E136" s="19"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
+      <c r="F136" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J136" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L136" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N136" s="29"/>
       <c r="O136" s="26"/>
-      <c r="P136" s="24"/>
-      <c r="Q136" s="25"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="19"/>
+      <c r="P136" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R136" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V136" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="18"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="19"/>
+      <c r="A137" s="18" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E137" s="19"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="18"/>
-      <c r="M137" s="21"/>
+      <c r="F137" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J137" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N137" s="29"/>
       <c r="O137" s="26"/>
-      <c r="P137" s="24"/>
-      <c r="Q137" s="25"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="19"/>
+      <c r="P137" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q137" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R137" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U137" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V137" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="18"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
+      <c r="A138" s="18" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J138" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L138" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N138" s="29"/>
       <c r="O138" s="18"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="25"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="19"/>
+      <c r="P138" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R138" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U138" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V138" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="18"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="18"/>
-      <c r="M139" s="21"/>
+      <c r="A139" s="18" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J139" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N139" s="29"/>
       <c r="O139" s="26"/>
-      <c r="P139" s="24"/>
-      <c r="Q139" s="25"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="19"/>
+      <c r="P139" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R139" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U139" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V139" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="18"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="19"/>
+      <c r="A140" s="18" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E140" s="19"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="18"/>
-      <c r="M140" s="21"/>
+      <c r="F140" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N140" s="29"/>
       <c r="O140" s="26"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="25"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="19"/>
+      <c r="P140" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R140" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U140" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V140" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="18"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="19"/>
+      <c r="A141" s="18" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E141" s="19"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="18"/>
-      <c r="M141" s="21"/>
+      <c r="F141" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J141" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N141" s="29"/>
       <c r="O141" s="26"/>
-      <c r="P141" s="24"/>
-      <c r="Q141" s="25"/>
-      <c r="R141" s="18"/>
-      <c r="S141" s="19"/>
+      <c r="P141" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q141" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R141" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U141" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V141" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="18"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
+      <c r="A142" s="18" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J142" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L142" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N142" s="29"/>
       <c r="O142" s="26"/>
-      <c r="P142" s="24"/>
-      <c r="Q142" s="25"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="19"/>
+      <c r="P142" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R142" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U142" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V142" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="18"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="21"/>
+      <c r="A143" s="18" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J143" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L143" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N143" s="29"/>
       <c r="O143" s="26"/>
-      <c r="P143" s="24"/>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="19"/>
+      <c r="P143" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R143" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U143" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V143" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="18"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="19"/>
+      <c r="A144" s="18" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E144" s="19"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
+      <c r="F144" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L144" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N144" s="29"/>
       <c r="O144" s="26"/>
-      <c r="P144" s="24"/>
-      <c r="Q144" s="25"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="19"/>
+      <c r="P144" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R144" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U144" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V144" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="18"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="19"/>
+      <c r="A145" s="18" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E145" s="19"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="18"/>
-      <c r="M145" s="21"/>
+      <c r="F145" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H145" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J145" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N145" s="29"/>
       <c r="O145" s="26"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="25"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="19"/>
+      <c r="P145" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q145" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R145" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U145" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V145" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="18"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
+      <c r="A146" s="18" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J146" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L146" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N146" s="29"/>
       <c r="O146" s="18"/>
-      <c r="P146" s="24"/>
-      <c r="Q146" s="25"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="19"/>
+      <c r="P146" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R146" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U146" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V146" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="18"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="18"/>
-      <c r="M147" s="21"/>
+      <c r="A147" s="18" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J147" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N147" s="29"/>
       <c r="O147" s="26"/>
-      <c r="P147" s="24"/>
-      <c r="Q147" s="25"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="19"/>
+      <c r="P147" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R147" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V147" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="18"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="19"/>
+      <c r="A148" s="18" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E148" s="19"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="18"/>
-      <c r="M148" s="21"/>
+      <c r="F148" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H148" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J148" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N148" s="29"/>
       <c r="O148" s="26"/>
-      <c r="P148" s="24"/>
-      <c r="Q148" s="25"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="19"/>
+      <c r="P148" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R148" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V148" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="18"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="19"/>
+      <c r="A149" s="18" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="18"/>
-      <c r="M149" s="21"/>
+      <c r="F149" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J149" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L149" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N149" s="29"/>
       <c r="O149" s="26"/>
-      <c r="P149" s="24"/>
-      <c r="Q149" s="25"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="19"/>
+      <c r="P149" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q149" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R149" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U149" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V149" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="18"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="19"/>
+      <c r="A150" s="18" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E150" s="19"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
+      <c r="F150" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J150" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L150" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N150" s="29"/>
       <c r="O150" s="26"/>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="25"/>
-      <c r="R150" s="18"/>
-      <c r="S150" s="19"/>
+      <c r="P150" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R150" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" s="19" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U150" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V150" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="18"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="19"/>
+      <c r="A151" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E151" s="19"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
+      <c r="F151" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J151" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L151" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N151" s="29"/>
       <c r="O151" s="26"/>
-      <c r="P151" s="24"/>
-      <c r="Q151" s="25"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="19"/>
+      <c r="P151" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q151" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R151" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U151" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V151" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="18"/>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="43">
   <si>
     <t xml:space="preserve">case_id</t>
   </si>
@@ -147,6 +147,9 @@
   <si>
     <t xml:space="preserve">bedroom_close_bed</t>
   </si>
+  <si>
+    <t xml:space="preserve">decline_instruction_end_call             </t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +365,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W153"/>
+  <dimension ref="A1:W211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D156" activeCellId="0" sqref="D156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5548,264 +5555,368 @@
       <c r="A92" s="18" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="19" t="s">
+      <c r="B92" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" s="29"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="19"/>
-      <c r="U92" s="11" t="s">
+      <c r="F92" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="U92" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="V92" s="1" t="n">
-        <v>1</v>
+      <c r="V92" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="18" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="19" t="s">
+      <c r="B93" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" s="18"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93" s="29"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="24" t="n">
+      <c r="F93" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="19"/>
-      <c r="U93" s="11" t="s">
+      <c r="Q93" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S93" s="0"/>
+      <c r="T93" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U93" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="V93" s="1" t="n">
-        <v>0</v>
+      <c r="V93" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="18" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" s="18"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" s="29"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="19"/>
-      <c r="U94" s="11" t="s">
+      <c r="B94" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="0"/>
+      <c r="F94" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="S94" s="0"/>
+      <c r="T94" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="U94" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="V94" s="1" t="n">
-        <v>1</v>
+      <c r="V94" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="18" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="18"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" s="18"/>
-      <c r="M95" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" s="29"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="24" t="n">
+      <c r="B95" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="0"/>
+      <c r="F95" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="Q95" s="25"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="19"/>
-      <c r="U95" s="11" t="s">
+      <c r="Q95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S95" s="0"/>
+      <c r="T95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U95" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="V95" s="1" t="n">
-        <v>0</v>
+      <c r="V95" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="19" t="s">
+      <c r="B96" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" s="18"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N96" s="29"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="19"/>
-      <c r="U96" s="11" t="s">
+      <c r="F96" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J96" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="U96" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="V96" s="1" t="n">
-        <v>1</v>
+      <c r="V96" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="18" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="19" t="s">
+      <c r="B97" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="18"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" s="18"/>
-      <c r="M97" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" s="29"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="25"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="19"/>
-      <c r="U97" s="11" t="s">
+      <c r="F97" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J97" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U97" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="V97" s="1" t="n">
-        <v>0</v>
+      <c r="V97" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5816,12 +5927,14 @@
         <v>23</v>
       </c>
       <c r="C98" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F98" s="28" t="b">
         <v>0</v>
       </c>
@@ -5832,19 +5945,20 @@
         <v>0</v>
       </c>
       <c r="K98" s="18"/>
+      <c r="L98" s="21"/>
       <c r="M98" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N98" s="29"/>
       <c r="O98" s="26"/>
       <c r="P98" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="18"/>
       <c r="S98" s="19"/>
       <c r="U98" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V98" s="1" t="n">
         <v>1</v>
@@ -5858,12 +5972,14 @@
         <v>23</v>
       </c>
       <c r="C99" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="19"/>
+      <c r="E99" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F99" s="28" t="b">
         <v>0</v>
       </c>
@@ -5874,6 +5990,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="18"/>
+      <c r="L99" s="21"/>
       <c r="M99" s="21" t="b">
         <v>0</v>
       </c>
@@ -5905,9 +6022,7 @@
       <c r="D100" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E100" s="19"/>
       <c r="F100" s="28" t="b">
         <v>0</v>
       </c>
@@ -5931,7 +6046,7 @@
       <c r="R100" s="18"/>
       <c r="S100" s="19"/>
       <c r="U100" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V100" s="1" t="n">
         <v>1</v>
@@ -5950,9 +6065,7 @@
       <c r="D101" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E101" s="19"/>
       <c r="F101" s="28" t="b">
         <v>0</v>
       </c>
@@ -5963,20 +6076,19 @@
         <v>0</v>
       </c>
       <c r="K101" s="18"/>
-      <c r="L101" s="21"/>
       <c r="M101" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N101" s="29"/>
       <c r="O101" s="26"/>
       <c r="P101" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q101" s="25"/>
       <c r="R101" s="18"/>
       <c r="S101" s="19"/>
       <c r="U101" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V101" s="1" t="n">
         <v>0</v>
@@ -5987,7 +6099,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C102" s="28" t="b">
         <v>1</v>
@@ -5995,7 +6107,9 @@
       <c r="D102" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="19"/>
+      <c r="E102" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F102" s="28" t="b">
         <v>0</v>
       </c>
@@ -6011,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="29"/>
-      <c r="O102" s="26"/>
+      <c r="O102" s="18"/>
       <c r="P102" s="24" t="n">
         <v>0</v>
       </c>
@@ -6019,7 +6133,7 @@
       <c r="R102" s="18"/>
       <c r="S102" s="19"/>
       <c r="U102" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V102" s="1" t="n">
         <v>1</v>
@@ -6030,7 +6144,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C103" s="28" t="b">
         <v>1</v>
@@ -6038,7 +6152,9 @@
       <c r="D103" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="19"/>
+      <c r="E103" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F103" s="28" t="b">
         <v>0</v>
       </c>
@@ -6055,13 +6171,13 @@
       <c r="N103" s="29"/>
       <c r="O103" s="26"/>
       <c r="P103" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="25"/>
       <c r="R103" s="18"/>
       <c r="S103" s="19"/>
       <c r="U103" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V103" s="1" t="n">
         <v>0</v>
@@ -6072,23 +6188,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C104" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="D104" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" s="18"/>
       <c r="M104" s="21" t="b">
         <v>0</v>
       </c>
@@ -6101,7 +6219,7 @@
       <c r="R104" s="18"/>
       <c r="S104" s="19"/>
       <c r="U104" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V104" s="1" t="n">
         <v>1</v>
@@ -6112,7 +6230,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C105" s="28" t="b">
         <v>1</v>
@@ -6120,9 +6238,7 @@
       <c r="D105" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E105" s="19"/>
       <c r="F105" s="28" t="b">
         <v>0</v>
       </c>
@@ -6133,20 +6249,19 @@
         <v>0</v>
       </c>
       <c r="K105" s="18"/>
-      <c r="L105" s="21"/>
       <c r="M105" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N105" s="29"/>
       <c r="O105" s="26"/>
       <c r="P105" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q105" s="25"/>
       <c r="R105" s="18"/>
       <c r="S105" s="19"/>
       <c r="U105" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V105" s="1" t="n">
         <v>0</v>
@@ -6157,7 +6272,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C106" s="28" t="b">
         <v>1</v>
@@ -6165,28 +6280,20 @@
       <c r="D106" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="19"/>
+      <c r="E106" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F106" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H106" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="18"/>
       <c r="J106" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K106" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L106" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K106" s="18"/>
+      <c r="L106" s="21"/>
       <c r="M106" s="21" t="b">
         <v>0</v>
       </c>
@@ -6195,17 +6302,11 @@
       <c r="P106" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q106" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R106" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S106" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="19"/>
       <c r="U106" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V106" s="1" t="n">
         <v>1</v>
@@ -6216,7 +6317,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C107" s="28" t="b">
         <v>1</v>
@@ -6224,47 +6325,33 @@
       <c r="D107" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="19"/>
+      <c r="E107" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F107" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H107" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="18"/>
       <c r="J107" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L107" s="21" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K107" s="18"/>
+      <c r="L107" s="21"/>
       <c r="M107" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N107" s="29"/>
-      <c r="O107" s="18"/>
+      <c r="O107" s="26"/>
       <c r="P107" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q107" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R107" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S107" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="19"/>
       <c r="U107" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V107" s="1" t="n">
         <v>0</v>
@@ -6283,30 +6370,18 @@
       <c r="D108" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E108" s="19"/>
       <c r="F108" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H108" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G108" s="18"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="18"/>
       <c r="J108" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K108" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L108" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K108" s="18"/>
+      <c r="L108" s="21"/>
       <c r="M108" s="21" t="b">
         <v>0</v>
       </c>
@@ -6315,17 +6390,11 @@
       <c r="P108" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q108" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R108" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="19"/>
       <c r="U108" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V108" s="1" t="n">
         <v>1</v>
@@ -6344,49 +6413,30 @@
       <c r="D109" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E109" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E109" s="19"/>
       <c r="F109" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H109" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="18"/>
       <c r="J109" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K109" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L109" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K109" s="18"/>
       <c r="M109" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N109" s="29"/>
       <c r="O109" s="26"/>
       <c r="P109" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R109" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S109" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="19"/>
       <c r="U109" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V109" s="1" t="n">
         <v>0</v>
@@ -6402,30 +6452,17 @@
       <c r="C110" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D110" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H110" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J110" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K110" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L110" s="5" t="b">
-        <v>1</v>
+      <c r="D110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="M110" s="21" t="b">
         <v>0</v>
@@ -6435,17 +6472,11 @@
       <c r="P110" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q110" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R110" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S110" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="19"/>
       <c r="U110" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V110" s="1" t="n">
         <v>1</v>
@@ -6464,47 +6495,33 @@
       <c r="D111" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="19"/>
+      <c r="E111" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F111" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H111" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="18"/>
       <c r="J111" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K111" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L111" s="21" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K111" s="18"/>
+      <c r="L111" s="21"/>
       <c r="M111" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N111" s="29"/>
       <c r="O111" s="26"/>
       <c r="P111" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q111" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R111" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S111" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="19"/>
       <c r="U111" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V111" s="1" t="n">
         <v>0</v>
@@ -6523,9 +6540,7 @@
       <c r="D112" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E112" s="19"/>
       <c r="F112" s="28" t="b">
         <v>1</v>
       </c>
@@ -6565,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V112" s="1" t="n">
         <v>1</v>
@@ -6584,9 +6599,7 @@
       <c r="D113" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E113" s="19"/>
       <c r="F113" s="28" t="b">
         <v>1</v>
       </c>
@@ -6614,7 +6627,7 @@
       <c r="N113" s="29"/>
       <c r="O113" s="18"/>
       <c r="P113" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q113" s="25" t="n">
         <v>-0.5</v>
@@ -6626,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V113" s="1" t="n">
         <v>0</v>
@@ -6645,7 +6658,9 @@
       <c r="D114" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="19"/>
+      <c r="E114" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F114" s="28" t="b">
         <v>1</v>
       </c>
@@ -6685,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V114" s="1" t="n">
         <v>1</v>
@@ -6704,7 +6719,9 @@
       <c r="D115" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="19"/>
+      <c r="E115" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F115" s="28" t="b">
         <v>1</v>
       </c>
@@ -6732,7 +6749,7 @@
       <c r="N115" s="29"/>
       <c r="O115" s="26"/>
       <c r="P115" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="25" t="n">
         <v>-0.5</v>
@@ -6744,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V115" s="1" t="n">
         <v>0</v>
@@ -6763,9 +6780,7 @@
       <c r="D116" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E116" s="19"/>
       <c r="F116" s="28" t="b">
         <v>1</v>
       </c>
@@ -6805,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V116" s="1" t="n">
         <v>1</v>
@@ -6824,9 +6839,7 @@
       <c r="D117" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E117" s="19"/>
       <c r="F117" s="28" t="b">
         <v>1</v>
       </c>
@@ -6854,7 +6867,7 @@
       <c r="N117" s="29"/>
       <c r="O117" s="26"/>
       <c r="P117" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q117" s="25" t="n">
         <v>-0.5</v>
@@ -6866,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V117" s="1" t="n">
         <v>0</v>
@@ -6885,7 +6898,9 @@
       <c r="D118" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E118" s="19"/>
+      <c r="E118" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F118" s="28" t="b">
         <v>1</v>
       </c>
@@ -6904,7 +6919,7 @@
       <c r="K118" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L118" s="21" t="b">
+      <c r="L118" s="5" t="b">
         <v>1</v>
       </c>
       <c r="M118" s="21" t="b">
@@ -6925,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V118" s="1" t="n">
         <v>1</v>
@@ -6944,7 +6959,9 @@
       <c r="D119" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F119" s="28" t="b">
         <v>1</v>
       </c>
@@ -6970,9 +6987,9 @@
         <v>0</v>
       </c>
       <c r="N119" s="29"/>
-      <c r="O119" s="26"/>
+      <c r="O119" s="18"/>
       <c r="P119" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="25" t="n">
         <v>-0.5</v>
@@ -6984,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V119" s="1" t="n">
         <v>0</v>
@@ -7081,14 +7098,14 @@
       <c r="K121" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L121" s="21" t="b">
+      <c r="L121" s="5" t="b">
         <v>1</v>
       </c>
       <c r="M121" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N121" s="29"/>
-      <c r="O121" s="18"/>
+      <c r="O121" s="26"/>
       <c r="P121" s="24" t="n">
         <v>-1</v>
       </c>
@@ -7113,40 +7130,57 @@
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C122" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F122" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" s="18"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H122" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J122" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K122" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L122" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="M122" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N122" s="29"/>
       <c r="O122" s="26"/>
       <c r="P122" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R122" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U122" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="V122" s="1" t="n">
         <v>1</v>
@@ -7157,40 +7191,57 @@
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C123" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F123" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J123" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L123" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="M123" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N123" s="29"/>
       <c r="O123" s="26"/>
       <c r="P123" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R123" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U123" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V123" s="1" t="n">
         <v>0</v>
@@ -7201,7 +7252,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C124" s="28" t="b">
         <v>1</v>
@@ -7211,15 +7262,26 @@
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="18"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H124" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J124" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="K124" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L124" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="M124" s="21" t="b">
         <v>0</v>
       </c>
@@ -7228,9 +7290,15 @@
       <c r="P124" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" s="25"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="19"/>
+      <c r="Q124" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R124" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U124" s="11" t="s">
         <v>28</v>
       </c>
@@ -7243,7 +7311,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C125" s="28" t="b">
         <v>1</v>
@@ -7253,16 +7321,26 @@
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" s="18"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J125" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" s="18"/>
-      <c r="L125" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="K125" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L125" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="M125" s="21" t="b">
         <v>0</v>
       </c>
@@ -7271,9 +7349,15 @@
       <c r="P125" s="24" t="n">
         <v>-1</v>
       </c>
-      <c r="Q125" s="25"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="19"/>
+      <c r="Q125" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R125" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U125" s="11" t="s">
         <v>27</v>
       </c>
@@ -7286,7 +7370,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C126" s="28" t="b">
         <v>1</v>
@@ -7294,20 +7378,28 @@
       <c r="D126" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E126" s="19"/>
       <c r="F126" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J126" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" s="18"/>
-      <c r="L126" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L126" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="M126" s="21" t="b">
         <v>0</v>
       </c>
@@ -7316,11 +7408,17 @@
       <c r="P126" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="19"/>
+      <c r="Q126" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R126" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U126" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V126" s="1" t="n">
         <v>1</v>
@@ -7331,7 +7429,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C127" s="28" t="b">
         <v>1</v>
@@ -7339,33 +7437,47 @@
       <c r="D127" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E127" s="19"/>
       <c r="F127" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="J127" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" s="18"/>
-      <c r="L127" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L127" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="M127" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N127" s="29"/>
-      <c r="O127" s="26"/>
+      <c r="O127" s="18"/>
       <c r="P127" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="25"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="19"/>
+        <v>-1</v>
+      </c>
+      <c r="Q127" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R127" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="U127" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V127" s="1" t="n">
         <v>0</v>
@@ -7379,12 +7491,14 @@
         <v>23</v>
       </c>
       <c r="C128" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="19"/>
+      <c r="E128" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F128" s="28" t="b">
         <v>0</v>
       </c>
@@ -7401,13 +7515,13 @@
       <c r="N128" s="29"/>
       <c r="O128" s="26"/>
       <c r="P128" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" s="25"/>
       <c r="R128" s="18"/>
       <c r="S128" s="19"/>
       <c r="U128" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V128" s="1" t="n">
         <v>1</v>
@@ -7421,17 +7535,24 @@
         <v>23</v>
       </c>
       <c r="C129" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" s="18"/>
       <c r="M129" s="21" t="b">
         <v>0</v>
       </c>
@@ -7463,9 +7584,7 @@
       <c r="D130" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E130" s="19"/>
       <c r="F130" s="28" t="b">
         <v>0</v>
       </c>
@@ -7476,7 +7595,6 @@
         <v>0</v>
       </c>
       <c r="K130" s="18"/>
-      <c r="L130" s="21"/>
       <c r="M130" s="21" t="b">
         <v>0</v>
       </c>
@@ -7489,7 +7607,7 @@
       <c r="R130" s="18"/>
       <c r="S130" s="19"/>
       <c r="U130" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V130" s="1" t="n">
         <v>1</v>
@@ -7508,9 +7626,7 @@
       <c r="D131" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E131" s="19"/>
       <c r="F131" s="28" t="b">
         <v>0</v>
       </c>
@@ -7521,19 +7637,20 @@
         <v>0</v>
       </c>
       <c r="K131" s="18"/>
+      <c r="L131" s="21"/>
       <c r="M131" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N131" s="29"/>
       <c r="O131" s="26"/>
       <c r="P131" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q131" s="25"/>
       <c r="R131" s="18"/>
       <c r="S131" s="19"/>
       <c r="U131" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V131" s="1" t="n">
         <v>0</v>
@@ -7544,7 +7661,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C132" s="28" t="b">
         <v>1</v>
@@ -7552,7 +7669,9 @@
       <c r="D132" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="19"/>
+      <c r="E132" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F132" s="28" t="b">
         <v>0</v>
       </c>
@@ -7568,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="N132" s="29"/>
-      <c r="O132" s="18"/>
+      <c r="O132" s="26"/>
       <c r="P132" s="24" t="n">
         <v>0</v>
       </c>
@@ -7576,7 +7695,7 @@
       <c r="R132" s="18"/>
       <c r="S132" s="19"/>
       <c r="U132" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V132" s="1" t="n">
         <v>1</v>
@@ -7587,7 +7706,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C133" s="28" t="b">
         <v>1</v>
@@ -7595,7 +7714,9 @@
       <c r="D133" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E133" s="19"/>
+      <c r="E133" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F133" s="28" t="b">
         <v>0</v>
       </c>
@@ -7606,19 +7727,20 @@
         <v>0</v>
       </c>
       <c r="K133" s="18"/>
+      <c r="L133" s="21"/>
       <c r="M133" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N133" s="29"/>
       <c r="O133" s="26"/>
       <c r="P133" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="25"/>
       <c r="R133" s="18"/>
       <c r="S133" s="19"/>
       <c r="U133" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V133" s="1" t="n">
         <v>0</v>
@@ -7629,7 +7751,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C134" s="28" t="b">
         <v>1</v>
@@ -7637,9 +7759,7 @@
       <c r="D134" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E134" s="19"/>
       <c r="F134" s="28" t="b">
         <v>0</v>
       </c>
@@ -7662,7 +7782,7 @@
       <c r="R134" s="18"/>
       <c r="S134" s="19"/>
       <c r="U134" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V134" s="1" t="n">
         <v>1</v>
@@ -7673,40 +7793,33 @@
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C135" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="D135" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F135" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" s="18"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" s="18"/>
+      <c r="D135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="M135" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N135" s="29"/>
       <c r="O135" s="26"/>
       <c r="P135" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q135" s="25"/>
       <c r="R135" s="18"/>
       <c r="S135" s="19"/>
       <c r="U135" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V135" s="1" t="n">
         <v>0</v>
@@ -7717,7 +7830,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C136" s="28" t="b">
         <v>1</v>
@@ -7725,28 +7838,20 @@
       <c r="D136" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F136" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H136" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I136" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G136" s="18"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="18"/>
       <c r="J136" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L136" s="21" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K136" s="18"/>
+      <c r="L136" s="21"/>
       <c r="M136" s="21" t="b">
         <v>0</v>
       </c>
@@ -7755,20 +7860,14 @@
       <c r="P136" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R136" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S136" s="19" t="n">
-        <v>-0.8</v>
-      </c>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="19"/>
       <c r="U136" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V136" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7776,7 +7875,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C137" s="28" t="b">
         <v>1</v>
@@ -7784,50 +7883,35 @@
       <c r="D137" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F137" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H137" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G137" s="18"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="18"/>
       <c r="J137" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L137" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K137" s="18"/>
       <c r="M137" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N137" s="29"/>
       <c r="O137" s="26"/>
       <c r="P137" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q137" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R137" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S137" s="19" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="19"/>
       <c r="U137" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V137" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7843,30 +7927,18 @@
       <c r="D138" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E138" s="19"/>
       <c r="F138" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H138" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I138" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G138" s="18"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="18"/>
       <c r="J138" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L138" s="21" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K138" s="18"/>
+      <c r="L138" s="21"/>
       <c r="M138" s="21" t="b">
         <v>0</v>
       </c>
@@ -7875,20 +7947,14 @@
       <c r="P138" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R138" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S138" s="19" t="n">
-        <v>-0.8</v>
-      </c>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="19"/>
       <c r="U138" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V138" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7904,52 +7970,33 @@
       <c r="D139" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E139" s="19"/>
       <c r="F139" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H139" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I139" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="18"/>
       <c r="J139" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K139" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L139" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K139" s="18"/>
       <c r="M139" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N139" s="29"/>
       <c r="O139" s="26"/>
       <c r="P139" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q139" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R139" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S139" s="19" t="n">
-        <v>0.8</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="19"/>
       <c r="U139" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V139" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7965,28 +8012,19 @@
       <c r="D140" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="19"/>
+      <c r="E140" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F140" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H140" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I140" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G140" s="18"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="18"/>
       <c r="J140" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K140" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L140" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K140" s="18"/>
       <c r="M140" s="21" t="b">
         <v>0</v>
       </c>
@@ -7995,20 +8033,14 @@
       <c r="P140" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R140" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S140" s="19" t="n">
-        <v>-0.8</v>
-      </c>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="19"/>
       <c r="U140" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V140" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8024,50 +8056,35 @@
       <c r="D141" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="19"/>
+      <c r="E141" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F141" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H141" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I141" s="18" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G141" s="18"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="18"/>
       <c r="J141" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L141" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K141" s="18"/>
       <c r="M141" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N141" s="29"/>
       <c r="O141" s="26"/>
       <c r="P141" s="24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q141" s="25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R141" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S141" s="19" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="25"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="19"/>
       <c r="U141" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V141" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8083,9 +8100,7 @@
       <c r="D142" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E142" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E142" s="19"/>
       <c r="F142" s="28" t="b">
         <v>1</v>
       </c>
@@ -8122,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="S142" s="19" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="U142" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V142" s="1" t="n">
         <v>0</v>
@@ -8144,9 +8159,7 @@
       <c r="D143" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E143" s="19"/>
       <c r="F143" s="28" t="b">
         <v>1</v>
       </c>
@@ -8165,7 +8178,7 @@
       <c r="K143" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L143" s="21" t="b">
+      <c r="L143" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M143" s="21" t="b">
@@ -8174,7 +8187,7 @@
       <c r="N143" s="29"/>
       <c r="O143" s="26"/>
       <c r="P143" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q143" s="25" t="n">
         <v>-0.5</v>
@@ -8183,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="S143" s="19" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U143" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V143" s="1" t="n">
         <v>1</v>
@@ -8205,7 +8218,9 @@
       <c r="D144" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="19"/>
+      <c r="E144" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F144" s="28" t="b">
         <v>1</v>
       </c>
@@ -8231,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="N144" s="29"/>
-      <c r="O144" s="26"/>
+      <c r="O144" s="18"/>
       <c r="P144" s="24" t="n">
         <v>0</v>
       </c>
@@ -8242,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="S144" s="19" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="U144" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V144" s="1" t="n">
         <v>0</v>
@@ -8264,7 +8279,9 @@
       <c r="D145" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E145" s="19"/>
+      <c r="E145" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="F145" s="28" t="b">
         <v>1</v>
       </c>
@@ -8292,7 +8309,7 @@
       <c r="N145" s="29"/>
       <c r="O145" s="26"/>
       <c r="P145" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q145" s="25" t="n">
         <v>-0.5</v>
@@ -8301,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="S145" s="19" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U145" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V145" s="1" t="n">
         <v>1</v>
@@ -8323,9 +8340,7 @@
       <c r="D146" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E146" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E146" s="19"/>
       <c r="F146" s="28" t="b">
         <v>1</v>
       </c>
@@ -8344,14 +8359,14 @@
       <c r="K146" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L146" s="21" t="b">
+      <c r="L146" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M146" s="21" t="b">
         <v>0</v>
       </c>
       <c r="N146" s="29"/>
-      <c r="O146" s="18"/>
+      <c r="O146" s="26"/>
       <c r="P146" s="24" t="n">
         <v>0</v>
       </c>
@@ -8362,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="S146" s="19" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="U146" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V146" s="1" t="n">
         <v>0</v>
@@ -8384,9 +8399,7 @@
       <c r="D147" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="E147" s="19"/>
       <c r="F147" s="28" t="b">
         <v>1</v>
       </c>
@@ -8414,7 +8427,7 @@
       <c r="N147" s="29"/>
       <c r="O147" s="26"/>
       <c r="P147" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q147" s="25" t="n">
         <v>-0.5</v>
@@ -8423,10 +8436,10 @@
         <v>0</v>
       </c>
       <c r="S147" s="19" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U147" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V147" s="1" t="n">
         <v>1</v>
@@ -8445,7 +8458,9 @@
       <c r="D148" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E148" s="19"/>
+      <c r="E148" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F148" s="28" t="b">
         <v>1</v>
       </c>
@@ -8464,7 +8479,7 @@
       <c r="K148" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L148" s="5" t="b">
+      <c r="L148" s="21" t="b">
         <v>0</v>
       </c>
       <c r="M148" s="21" t="b">
@@ -8482,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="S148" s="19" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="U148" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V148" s="1" t="n">
         <v>0</v>
@@ -8504,7 +8519,9 @@
       <c r="D149" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E149" s="19"/>
+      <c r="E149" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="F149" s="28" t="b">
         <v>1</v>
       </c>
@@ -8523,7 +8540,7 @@
       <c r="K149" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L149" s="5" t="b">
+      <c r="L149" s="21" t="b">
         <v>0</v>
       </c>
       <c r="M149" s="21" t="b">
@@ -8532,7 +8549,7 @@
       <c r="N149" s="29"/>
       <c r="O149" s="26"/>
       <c r="P149" s="24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q149" s="25" t="n">
         <v>-0.5</v>
@@ -8541,10 +8558,10 @@
         <v>0</v>
       </c>
       <c r="S149" s="19" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U149" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V149" s="1" t="n">
         <v>1</v>
@@ -8600,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="S150" s="19" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="U150" s="11" t="s">
         <v>28</v>
@@ -8641,7 +8658,7 @@
       <c r="K151" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L151" s="21" t="b">
+      <c r="L151" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M151" s="21" t="b">
@@ -8659,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="S151" s="19" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U151" s="11" t="s">
         <v>27</v>
@@ -8669,43 +8686,1882 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="18"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
+      <c r="A152" s="18" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J152" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L152" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N152" s="29"/>
-      <c r="O152" s="26"/>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="25"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="19"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R152" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" s="19" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U152" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V152" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="18"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="18"/>
-      <c r="M153" s="21"/>
+      <c r="A153" s="18" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H153" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J153" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="N153" s="29"/>
       <c r="O153" s="26"/>
-      <c r="P153" s="24"/>
-      <c r="Q153" s="25"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="19"/>
+      <c r="P153" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R153" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U153" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V153" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="18" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H154" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J154" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N154" s="29"/>
+      <c r="O154" s="26"/>
+      <c r="P154" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R154" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" s="19" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U154" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V154" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="18" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N155" s="29"/>
+      <c r="O155" s="26"/>
+      <c r="P155" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q155" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R155" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U155" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="18" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="19"/>
+      <c r="F156" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H156" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J156" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L156" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N156" s="29"/>
+      <c r="O156" s="26"/>
+      <c r="P156" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R156" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" s="19" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U156" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V156" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="18" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="19"/>
+      <c r="F157" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H157" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J157" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L157" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" s="29"/>
+      <c r="O157" s="26"/>
+      <c r="P157" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q157" s="25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R157" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="18" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H158" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J158" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L158" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
+      <c r="P158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="T158" s="0"/>
+      <c r="U158" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="18" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J159" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L159" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q159" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T159" s="0"/>
+      <c r="U159" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="18" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="0"/>
+      <c r="F160" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H160" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J160" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L160" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
+      <c r="P160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="T160" s="0"/>
+      <c r="U160" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="V160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="18" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="0"/>
+      <c r="F161" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H161" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J161" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L161" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q161" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T161" s="0"/>
+      <c r="U161" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="18" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J162" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L162" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="T162" s="0"/>
+      <c r="U162" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="18" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H163" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J163" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L163" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T163" s="0"/>
+      <c r="U163" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+      <c r="K164" s="0"/>
+      <c r="L164" s="0"/>
+      <c r="M164" s="0"/>
+      <c r="N164" s="0"/>
+      <c r="O164" s="0"/>
+      <c r="P164" s="0"/>
+      <c r="Q164" s="0"/>
+      <c r="R164" s="0"/>
+      <c r="S164" s="0"/>
+      <c r="T164" s="0"/>
+      <c r="U164" s="0"/>
+      <c r="V164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="0"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="S165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="0"/>
+      <c r="V165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="0"/>
+      <c r="G166" s="0"/>
+      <c r="H166" s="0"/>
+      <c r="I166" s="0"/>
+      <c r="J166" s="0"/>
+      <c r="K166" s="0"/>
+      <c r="L166" s="0"/>
+      <c r="M166" s="0"/>
+      <c r="N166" s="0"/>
+      <c r="O166" s="0"/>
+      <c r="P166" s="0"/>
+      <c r="Q166" s="0"/>
+      <c r="R166" s="0"/>
+      <c r="S166" s="0"/>
+      <c r="T166" s="0"/>
+      <c r="U166" s="0"/>
+      <c r="V166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
+      <c r="M167" s="0"/>
+      <c r="N167" s="0"/>
+      <c r="O167" s="0"/>
+      <c r="P167" s="0"/>
+      <c r="Q167" s="0"/>
+      <c r="R167" s="0"/>
+      <c r="S167" s="0"/>
+      <c r="T167" s="0"/>
+      <c r="U167" s="0"/>
+      <c r="V167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
+      <c r="M168" s="0"/>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+      <c r="R168" s="0"/>
+      <c r="S168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="0"/>
+      <c r="V168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="0"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="0"/>
+      <c r="V169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0"/>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
+      <c r="K170" s="0"/>
+      <c r="L170" s="0"/>
+      <c r="M170" s="0"/>
+      <c r="N170" s="0"/>
+      <c r="O170" s="0"/>
+      <c r="P170" s="0"/>
+      <c r="Q170" s="0"/>
+      <c r="R170" s="0"/>
+      <c r="S170" s="0"/>
+      <c r="T170" s="0"/>
+      <c r="U170" s="0"/>
+      <c r="V170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
+      <c r="M171" s="0"/>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+      <c r="P171" s="0"/>
+      <c r="Q171" s="0"/>
+      <c r="R171" s="0"/>
+      <c r="S171" s="0"/>
+      <c r="T171" s="0"/>
+      <c r="U171" s="0"/>
+      <c r="V171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="H172" s="0"/>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="L172" s="0"/>
+      <c r="M172" s="0"/>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+      <c r="P172" s="0"/>
+      <c r="Q172" s="0"/>
+      <c r="R172" s="0"/>
+      <c r="S172" s="0"/>
+      <c r="T172" s="0"/>
+      <c r="U172" s="0"/>
+      <c r="V172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="H173" s="0"/>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
+      <c r="M173" s="0"/>
+      <c r="N173" s="0"/>
+      <c r="O173" s="0"/>
+      <c r="P173" s="0"/>
+      <c r="Q173" s="0"/>
+      <c r="R173" s="0"/>
+      <c r="S173" s="0"/>
+      <c r="T173" s="0"/>
+      <c r="U173" s="0"/>
+      <c r="V173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
+      <c r="H174" s="0"/>
+      <c r="I174" s="0"/>
+      <c r="J174" s="0"/>
+      <c r="K174" s="0"/>
+      <c r="L174" s="0"/>
+      <c r="M174" s="0"/>
+      <c r="N174" s="0"/>
+      <c r="O174" s="0"/>
+      <c r="P174" s="0"/>
+      <c r="Q174" s="0"/>
+      <c r="R174" s="0"/>
+      <c r="S174" s="0"/>
+      <c r="T174" s="0"/>
+      <c r="U174" s="0"/>
+      <c r="V174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="0"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="0"/>
+      <c r="Q175" s="0"/>
+      <c r="R175" s="0"/>
+      <c r="S175" s="0"/>
+      <c r="T175" s="0"/>
+      <c r="U175" s="0"/>
+      <c r="V175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="H176" s="0"/>
+      <c r="I176" s="0"/>
+      <c r="J176" s="0"/>
+      <c r="K176" s="0"/>
+      <c r="L176" s="0"/>
+      <c r="M176" s="0"/>
+      <c r="N176" s="0"/>
+      <c r="O176" s="0"/>
+      <c r="P176" s="0"/>
+      <c r="Q176" s="0"/>
+      <c r="R176" s="0"/>
+      <c r="S176" s="0"/>
+      <c r="T176" s="0"/>
+      <c r="U176" s="0"/>
+      <c r="V176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="H177" s="0"/>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
+      <c r="K177" s="0"/>
+      <c r="L177" s="0"/>
+      <c r="M177" s="0"/>
+      <c r="N177" s="0"/>
+      <c r="O177" s="0"/>
+      <c r="P177" s="0"/>
+      <c r="Q177" s="0"/>
+      <c r="R177" s="0"/>
+      <c r="S177" s="0"/>
+      <c r="T177" s="0"/>
+      <c r="U177" s="0"/>
+      <c r="V177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="L178" s="0"/>
+      <c r="M178" s="0"/>
+      <c r="N178" s="0"/>
+      <c r="O178" s="0"/>
+      <c r="P178" s="0"/>
+      <c r="Q178" s="0"/>
+      <c r="R178" s="0"/>
+      <c r="S178" s="0"/>
+      <c r="T178" s="0"/>
+      <c r="U178" s="0"/>
+      <c r="V178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0"/>
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="H179" s="0"/>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
+      <c r="K179" s="0"/>
+      <c r="L179" s="0"/>
+      <c r="M179" s="0"/>
+      <c r="N179" s="0"/>
+      <c r="O179" s="0"/>
+      <c r="P179" s="0"/>
+      <c r="Q179" s="0"/>
+      <c r="R179" s="0"/>
+      <c r="S179" s="0"/>
+      <c r="T179" s="0"/>
+      <c r="U179" s="0"/>
+      <c r="V179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="H180" s="0"/>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
+      <c r="K180" s="0"/>
+      <c r="L180" s="0"/>
+      <c r="M180" s="0"/>
+      <c r="N180" s="0"/>
+      <c r="O180" s="0"/>
+      <c r="P180" s="0"/>
+      <c r="Q180" s="0"/>
+      <c r="R180" s="0"/>
+      <c r="S180" s="0"/>
+      <c r="T180" s="0"/>
+      <c r="U180" s="0"/>
+      <c r="V180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0"/>
+      <c r="B181" s="0"/>
+      <c r="C181" s="0"/>
+      <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="0"/>
+      <c r="G181" s="0"/>
+      <c r="H181" s="0"/>
+      <c r="I181" s="0"/>
+      <c r="J181" s="0"/>
+      <c r="K181" s="0"/>
+      <c r="L181" s="0"/>
+      <c r="M181" s="0"/>
+      <c r="N181" s="0"/>
+      <c r="O181" s="0"/>
+      <c r="P181" s="0"/>
+      <c r="Q181" s="0"/>
+      <c r="R181" s="0"/>
+      <c r="S181" s="0"/>
+      <c r="T181" s="0"/>
+      <c r="U181" s="0"/>
+      <c r="V181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
+      <c r="H182" s="0"/>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="L182" s="0"/>
+      <c r="M182" s="0"/>
+      <c r="N182" s="0"/>
+      <c r="O182" s="0"/>
+      <c r="P182" s="0"/>
+      <c r="Q182" s="0"/>
+      <c r="R182" s="0"/>
+      <c r="S182" s="0"/>
+      <c r="T182" s="0"/>
+      <c r="U182" s="0"/>
+      <c r="V182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0"/>
+      <c r="B183" s="0"/>
+      <c r="C183" s="0"/>
+      <c r="D183" s="0"/>
+      <c r="E183" s="0"/>
+      <c r="F183" s="0"/>
+      <c r="G183" s="0"/>
+      <c r="H183" s="0"/>
+      <c r="I183" s="0"/>
+      <c r="J183" s="0"/>
+      <c r="K183" s="0"/>
+      <c r="L183" s="0"/>
+      <c r="M183" s="0"/>
+      <c r="N183" s="0"/>
+      <c r="O183" s="0"/>
+      <c r="P183" s="0"/>
+      <c r="Q183" s="0"/>
+      <c r="R183" s="0"/>
+      <c r="S183" s="0"/>
+      <c r="T183" s="0"/>
+      <c r="U183" s="0"/>
+      <c r="V183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0"/>
+      <c r="B184" s="0"/>
+      <c r="C184" s="0"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+      <c r="F184" s="0"/>
+      <c r="G184" s="0"/>
+      <c r="H184" s="0"/>
+      <c r="I184" s="0"/>
+      <c r="J184" s="0"/>
+      <c r="K184" s="0"/>
+      <c r="L184" s="0"/>
+      <c r="M184" s="0"/>
+      <c r="N184" s="0"/>
+      <c r="O184" s="0"/>
+      <c r="P184" s="0"/>
+      <c r="Q184" s="0"/>
+      <c r="R184" s="0"/>
+      <c r="S184" s="0"/>
+      <c r="T184" s="0"/>
+      <c r="U184" s="0"/>
+      <c r="V184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0"/>
+      <c r="B185" s="0"/>
+      <c r="C185" s="0"/>
+      <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
+      <c r="F185" s="0"/>
+      <c r="G185" s="0"/>
+      <c r="H185" s="0"/>
+      <c r="I185" s="0"/>
+      <c r="J185" s="0"/>
+      <c r="K185" s="0"/>
+      <c r="L185" s="0"/>
+      <c r="M185" s="0"/>
+      <c r="N185" s="0"/>
+      <c r="O185" s="0"/>
+      <c r="P185" s="0"/>
+      <c r="Q185" s="0"/>
+      <c r="R185" s="0"/>
+      <c r="S185" s="0"/>
+      <c r="T185" s="0"/>
+      <c r="U185" s="0"/>
+      <c r="V185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0"/>
+      <c r="B186" s="0"/>
+      <c r="C186" s="0"/>
+      <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
+      <c r="F186" s="0"/>
+      <c r="G186" s="0"/>
+      <c r="H186" s="0"/>
+      <c r="I186" s="0"/>
+      <c r="J186" s="0"/>
+      <c r="K186" s="0"/>
+      <c r="L186" s="0"/>
+      <c r="M186" s="0"/>
+      <c r="N186" s="0"/>
+      <c r="O186" s="0"/>
+      <c r="P186" s="0"/>
+      <c r="Q186" s="0"/>
+      <c r="R186" s="0"/>
+      <c r="S186" s="0"/>
+      <c r="T186" s="0"/>
+      <c r="U186" s="0"/>
+      <c r="V186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0"/>
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="H187" s="0"/>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="L187" s="0"/>
+      <c r="M187" s="0"/>
+      <c r="N187" s="0"/>
+      <c r="O187" s="0"/>
+      <c r="P187" s="0"/>
+      <c r="Q187" s="0"/>
+      <c r="R187" s="0"/>
+      <c r="S187" s="0"/>
+      <c r="T187" s="0"/>
+      <c r="U187" s="0"/>
+      <c r="V187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+      <c r="M188" s="0"/>
+      <c r="N188" s="0"/>
+      <c r="O188" s="0"/>
+      <c r="P188" s="0"/>
+      <c r="Q188" s="0"/>
+      <c r="R188" s="0"/>
+      <c r="S188" s="0"/>
+      <c r="T188" s="0"/>
+      <c r="U188" s="0"/>
+      <c r="V188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0"/>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+      <c r="M189" s="0"/>
+      <c r="N189" s="0"/>
+      <c r="O189" s="0"/>
+      <c r="P189" s="0"/>
+      <c r="Q189" s="0"/>
+      <c r="R189" s="0"/>
+      <c r="S189" s="0"/>
+      <c r="T189" s="0"/>
+      <c r="U189" s="0"/>
+      <c r="V189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0"/>
+      <c r="B190" s="0"/>
+      <c r="C190" s="0"/>
+      <c r="D190" s="0"/>
+      <c r="E190" s="0"/>
+      <c r="F190" s="0"/>
+      <c r="G190" s="0"/>
+      <c r="H190" s="0"/>
+      <c r="I190" s="0"/>
+      <c r="J190" s="0"/>
+      <c r="K190" s="0"/>
+      <c r="L190" s="0"/>
+      <c r="M190" s="0"/>
+      <c r="N190" s="0"/>
+      <c r="O190" s="0"/>
+      <c r="P190" s="0"/>
+      <c r="Q190" s="0"/>
+      <c r="R190" s="0"/>
+      <c r="S190" s="0"/>
+      <c r="T190" s="0"/>
+      <c r="U190" s="0"/>
+      <c r="V190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0"/>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="L191" s="0"/>
+      <c r="M191" s="0"/>
+      <c r="N191" s="0"/>
+      <c r="O191" s="0"/>
+      <c r="P191" s="0"/>
+      <c r="Q191" s="0"/>
+      <c r="R191" s="0"/>
+      <c r="S191" s="0"/>
+      <c r="T191" s="0"/>
+      <c r="U191" s="0"/>
+      <c r="V191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0"/>
+      <c r="B192" s="0"/>
+      <c r="C192" s="0"/>
+      <c r="D192" s="0"/>
+      <c r="E192" s="0"/>
+      <c r="F192" s="0"/>
+      <c r="G192" s="0"/>
+      <c r="H192" s="0"/>
+      <c r="I192" s="0"/>
+      <c r="J192" s="0"/>
+      <c r="K192" s="0"/>
+      <c r="L192" s="0"/>
+      <c r="M192" s="0"/>
+      <c r="N192" s="0"/>
+      <c r="O192" s="0"/>
+      <c r="P192" s="0"/>
+      <c r="Q192" s="0"/>
+      <c r="R192" s="0"/>
+      <c r="S192" s="0"/>
+      <c r="T192" s="0"/>
+      <c r="U192" s="0"/>
+      <c r="V192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0"/>
+      <c r="B193" s="0"/>
+      <c r="C193" s="0"/>
+      <c r="D193" s="0"/>
+      <c r="E193" s="0"/>
+      <c r="F193" s="0"/>
+      <c r="G193" s="0"/>
+      <c r="H193" s="0"/>
+      <c r="I193" s="0"/>
+      <c r="J193" s="0"/>
+      <c r="K193" s="0"/>
+      <c r="L193" s="0"/>
+      <c r="M193" s="0"/>
+      <c r="N193" s="0"/>
+      <c r="O193" s="0"/>
+      <c r="P193" s="0"/>
+      <c r="Q193" s="0"/>
+      <c r="R193" s="0"/>
+      <c r="S193" s="0"/>
+      <c r="T193" s="0"/>
+      <c r="U193" s="0"/>
+      <c r="V193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0"/>
+      <c r="B194" s="0"/>
+      <c r="C194" s="0"/>
+      <c r="D194" s="0"/>
+      <c r="E194" s="0"/>
+      <c r="F194" s="0"/>
+      <c r="G194" s="0"/>
+      <c r="H194" s="0"/>
+      <c r="I194" s="0"/>
+      <c r="J194" s="0"/>
+      <c r="K194" s="0"/>
+      <c r="L194" s="0"/>
+      <c r="M194" s="0"/>
+      <c r="N194" s="0"/>
+      <c r="O194" s="0"/>
+      <c r="P194" s="0"/>
+      <c r="Q194" s="0"/>
+      <c r="R194" s="0"/>
+      <c r="S194" s="0"/>
+      <c r="T194" s="0"/>
+      <c r="U194" s="0"/>
+      <c r="V194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0"/>
+      <c r="B195" s="0"/>
+      <c r="C195" s="0"/>
+      <c r="D195" s="0"/>
+      <c r="E195" s="0"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
+      <c r="H195" s="0"/>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
+      <c r="K195" s="0"/>
+      <c r="L195" s="0"/>
+      <c r="M195" s="0"/>
+      <c r="N195" s="0"/>
+      <c r="O195" s="0"/>
+      <c r="P195" s="0"/>
+      <c r="Q195" s="0"/>
+      <c r="R195" s="0"/>
+      <c r="S195" s="0"/>
+      <c r="T195" s="0"/>
+      <c r="U195" s="0"/>
+      <c r="V195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0"/>
+      <c r="B196" s="0"/>
+      <c r="C196" s="0"/>
+      <c r="D196" s="0"/>
+      <c r="E196" s="0"/>
+      <c r="F196" s="0"/>
+      <c r="G196" s="0"/>
+      <c r="H196" s="0"/>
+      <c r="I196" s="0"/>
+      <c r="J196" s="0"/>
+      <c r="K196" s="0"/>
+      <c r="L196" s="0"/>
+      <c r="M196" s="0"/>
+      <c r="N196" s="0"/>
+      <c r="O196" s="0"/>
+      <c r="P196" s="0"/>
+      <c r="Q196" s="0"/>
+      <c r="R196" s="0"/>
+      <c r="S196" s="0"/>
+      <c r="T196" s="0"/>
+      <c r="U196" s="0"/>
+      <c r="V196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0"/>
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
+      <c r="D197" s="0"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
+      <c r="H197" s="0"/>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
+      <c r="K197" s="0"/>
+      <c r="L197" s="0"/>
+      <c r="M197" s="0"/>
+      <c r="N197" s="0"/>
+      <c r="O197" s="0"/>
+      <c r="P197" s="0"/>
+      <c r="Q197" s="0"/>
+      <c r="R197" s="0"/>
+      <c r="S197" s="0"/>
+      <c r="T197" s="0"/>
+      <c r="U197" s="0"/>
+      <c r="V197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0"/>
+      <c r="B198" s="0"/>
+      <c r="C198" s="0"/>
+      <c r="D198" s="0"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="0"/>
+      <c r="G198" s="0"/>
+      <c r="H198" s="0"/>
+      <c r="I198" s="0"/>
+      <c r="J198" s="0"/>
+      <c r="K198" s="0"/>
+      <c r="L198" s="0"/>
+      <c r="M198" s="0"/>
+      <c r="N198" s="0"/>
+      <c r="O198" s="0"/>
+      <c r="P198" s="0"/>
+      <c r="Q198" s="0"/>
+      <c r="R198" s="0"/>
+      <c r="S198" s="0"/>
+      <c r="T198" s="0"/>
+      <c r="U198" s="0"/>
+      <c r="V198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0"/>
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="H199" s="0"/>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="L199" s="0"/>
+      <c r="M199" s="0"/>
+      <c r="N199" s="0"/>
+      <c r="O199" s="0"/>
+      <c r="P199" s="0"/>
+      <c r="Q199" s="0"/>
+      <c r="R199" s="0"/>
+      <c r="S199" s="0"/>
+      <c r="T199" s="0"/>
+      <c r="U199" s="0"/>
+      <c r="V199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0"/>
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
+      <c r="H200" s="0"/>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
+      <c r="K200" s="0"/>
+      <c r="L200" s="0"/>
+      <c r="M200" s="0"/>
+      <c r="N200" s="0"/>
+      <c r="O200" s="0"/>
+      <c r="P200" s="0"/>
+      <c r="Q200" s="0"/>
+      <c r="R200" s="0"/>
+      <c r="S200" s="0"/>
+      <c r="T200" s="0"/>
+      <c r="U200" s="0"/>
+      <c r="V200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0"/>
+      <c r="B201" s="0"/>
+      <c r="C201" s="0"/>
+      <c r="D201" s="0"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
+      <c r="H201" s="0"/>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
+      <c r="K201" s="0"/>
+      <c r="L201" s="0"/>
+      <c r="M201" s="0"/>
+      <c r="N201" s="0"/>
+      <c r="O201" s="0"/>
+      <c r="P201" s="0"/>
+      <c r="Q201" s="0"/>
+      <c r="R201" s="0"/>
+      <c r="S201" s="0"/>
+      <c r="T201" s="0"/>
+      <c r="U201" s="0"/>
+      <c r="V201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0"/>
+      <c r="B202" s="0"/>
+      <c r="C202" s="0"/>
+      <c r="D202" s="0"/>
+      <c r="E202" s="0"/>
+      <c r="F202" s="0"/>
+      <c r="G202" s="0"/>
+      <c r="H202" s="0"/>
+      <c r="I202" s="0"/>
+      <c r="J202" s="0"/>
+      <c r="K202" s="0"/>
+      <c r="L202" s="0"/>
+      <c r="M202" s="0"/>
+      <c r="N202" s="0"/>
+      <c r="O202" s="0"/>
+      <c r="P202" s="0"/>
+      <c r="Q202" s="0"/>
+      <c r="R202" s="0"/>
+      <c r="S202" s="0"/>
+      <c r="T202" s="0"/>
+      <c r="U202" s="0"/>
+      <c r="V202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0"/>
+      <c r="B203" s="0"/>
+      <c r="C203" s="0"/>
+      <c r="D203" s="0"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="0"/>
+      <c r="G203" s="0"/>
+      <c r="H203" s="0"/>
+      <c r="I203" s="0"/>
+      <c r="J203" s="0"/>
+      <c r="K203" s="0"/>
+      <c r="L203" s="0"/>
+      <c r="M203" s="0"/>
+      <c r="N203" s="0"/>
+      <c r="O203" s="0"/>
+      <c r="P203" s="0"/>
+      <c r="Q203" s="0"/>
+      <c r="R203" s="0"/>
+      <c r="S203" s="0"/>
+      <c r="T203" s="0"/>
+      <c r="U203" s="0"/>
+      <c r="V203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0"/>
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
+      <c r="D204" s="0"/>
+      <c r="E204" s="0"/>
+      <c r="F204" s="0"/>
+      <c r="G204" s="0"/>
+      <c r="H204" s="0"/>
+      <c r="I204" s="0"/>
+      <c r="J204" s="0"/>
+      <c r="K204" s="0"/>
+      <c r="L204" s="0"/>
+      <c r="M204" s="0"/>
+      <c r="N204" s="0"/>
+      <c r="O204" s="0"/>
+      <c r="P204" s="0"/>
+      <c r="Q204" s="0"/>
+      <c r="R204" s="0"/>
+      <c r="S204" s="0"/>
+      <c r="T204" s="0"/>
+      <c r="U204" s="0"/>
+      <c r="V204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0"/>
+      <c r="B205" s="0"/>
+      <c r="C205" s="0"/>
+      <c r="D205" s="0"/>
+      <c r="E205" s="0"/>
+      <c r="F205" s="0"/>
+      <c r="G205" s="0"/>
+      <c r="H205" s="0"/>
+      <c r="I205" s="0"/>
+      <c r="J205" s="0"/>
+      <c r="K205" s="0"/>
+      <c r="L205" s="0"/>
+      <c r="M205" s="0"/>
+      <c r="N205" s="0"/>
+      <c r="O205" s="0"/>
+      <c r="P205" s="0"/>
+      <c r="Q205" s="0"/>
+      <c r="R205" s="0"/>
+      <c r="S205" s="0"/>
+      <c r="T205" s="0"/>
+      <c r="U205" s="0"/>
+      <c r="V205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0"/>
+      <c r="B206" s="0"/>
+      <c r="C206" s="0"/>
+      <c r="D206" s="0"/>
+      <c r="E206" s="0"/>
+      <c r="F206" s="0"/>
+      <c r="G206" s="0"/>
+      <c r="H206" s="0"/>
+      <c r="I206" s="0"/>
+      <c r="J206" s="0"/>
+      <c r="K206" s="0"/>
+      <c r="L206" s="0"/>
+      <c r="M206" s="0"/>
+      <c r="N206" s="0"/>
+      <c r="O206" s="0"/>
+      <c r="P206" s="0"/>
+      <c r="Q206" s="0"/>
+      <c r="R206" s="0"/>
+      <c r="S206" s="0"/>
+      <c r="T206" s="0"/>
+      <c r="U206" s="0"/>
+      <c r="V206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0"/>
+      <c r="B207" s="0"/>
+      <c r="C207" s="0"/>
+      <c r="D207" s="0"/>
+      <c r="E207" s="0"/>
+      <c r="F207" s="0"/>
+      <c r="G207" s="0"/>
+      <c r="H207" s="0"/>
+      <c r="I207" s="0"/>
+      <c r="J207" s="0"/>
+      <c r="K207" s="0"/>
+      <c r="L207" s="0"/>
+      <c r="M207" s="0"/>
+      <c r="N207" s="0"/>
+      <c r="O207" s="0"/>
+      <c r="P207" s="0"/>
+      <c r="Q207" s="0"/>
+      <c r="R207" s="0"/>
+      <c r="S207" s="0"/>
+      <c r="T207" s="0"/>
+      <c r="U207" s="0"/>
+      <c r="V207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0"/>
+      <c r="B208" s="0"/>
+      <c r="C208" s="0"/>
+      <c r="D208" s="0"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="0"/>
+      <c r="G208" s="0"/>
+      <c r="H208" s="0"/>
+      <c r="I208" s="0"/>
+      <c r="J208" s="0"/>
+      <c r="K208" s="0"/>
+      <c r="L208" s="0"/>
+      <c r="M208" s="0"/>
+      <c r="N208" s="0"/>
+      <c r="O208" s="0"/>
+      <c r="P208" s="0"/>
+      <c r="Q208" s="0"/>
+      <c r="R208" s="0"/>
+      <c r="S208" s="0"/>
+      <c r="T208" s="0"/>
+      <c r="U208" s="0"/>
+      <c r="V208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0"/>
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
+      <c r="D209" s="0"/>
+      <c r="E209" s="0"/>
+      <c r="F209" s="0"/>
+      <c r="G209" s="0"/>
+      <c r="H209" s="0"/>
+      <c r="I209" s="0"/>
+      <c r="J209" s="0"/>
+      <c r="K209" s="0"/>
+      <c r="L209" s="0"/>
+      <c r="M209" s="0"/>
+      <c r="N209" s="0"/>
+      <c r="O209" s="0"/>
+      <c r="P209" s="0"/>
+      <c r="Q209" s="0"/>
+      <c r="R209" s="0"/>
+      <c r="S209" s="0"/>
+      <c r="T209" s="0"/>
+      <c r="U209" s="0"/>
+      <c r="V209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0"/>
+      <c r="B210" s="0"/>
+      <c r="C210" s="0"/>
+      <c r="D210" s="0"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="0"/>
+      <c r="G210" s="0"/>
+      <c r="H210" s="0"/>
+      <c r="I210" s="0"/>
+      <c r="J210" s="0"/>
+      <c r="K210" s="0"/>
+      <c r="L210" s="0"/>
+      <c r="M210" s="0"/>
+      <c r="N210" s="0"/>
+      <c r="O210" s="0"/>
+      <c r="P210" s="0"/>
+      <c r="Q210" s="0"/>
+      <c r="R210" s="0"/>
+      <c r="S210" s="0"/>
+      <c r="T210" s="0"/>
+      <c r="U210" s="0"/>
+      <c r="V210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0"/>
+      <c r="B211" s="0"/>
+      <c r="C211" s="0"/>
+      <c r="D211" s="0"/>
+      <c r="E211" s="0"/>
+      <c r="F211" s="0"/>
+      <c r="G211" s="0"/>
+      <c r="H211" s="0"/>
+      <c r="I211" s="0"/>
+      <c r="J211" s="0"/>
+      <c r="K211" s="0"/>
+      <c r="L211" s="0"/>
+      <c r="M211" s="0"/>
+      <c r="N211" s="0"/>
+      <c r="O211" s="0"/>
+      <c r="P211" s="0"/>
+      <c r="Q211" s="0"/>
+      <c r="R211" s="0"/>
+      <c r="S211" s="0"/>
+      <c r="T211" s="0"/>
+      <c r="U211" s="0"/>
+      <c r="V211" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -158,12 +158,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -246,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +372,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,8 +399,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W335" activeCellId="0" sqref="W335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10096,7 +10105,8 @@
       <c r="B164" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C164" s="29" t="b">
+      <c r="C164" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D164" s="28" t="s">
@@ -10105,18 +10115,21 @@
       <c r="E164" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F164" s="29" t="b">
+      <c r="F164" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="29" t="b">
+      <c r="J164" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="28"/>
-      <c r="M164" s="29" t="b">
+      <c r="M164" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N164" s="28"/>
@@ -10145,7 +10158,8 @@
       <c r="B165" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="29" t="b">
+      <c r="C165" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D165" s="28" t="s">
@@ -10154,18 +10168,21 @@
       <c r="E165" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F165" s="29" t="b">
+      <c r="F165" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="29" t="b">
+      <c r="J165" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="28"/>
-      <c r="M165" s="29" t="b">
+      <c r="M165" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N165" s="28"/>
@@ -10194,25 +10211,29 @@
       <c r="B166" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C166" s="29" t="b">
+      <c r="C166" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E166" s="28"/>
-      <c r="F166" s="29" t="b">
+      <c r="F166" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="29" t="b">
+      <c r="J166" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="28"/>
-      <c r="M166" s="29" t="b">
+      <c r="M166" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N166" s="28"/>
@@ -10241,25 +10262,29 @@
       <c r="B167" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C167" s="29" t="b">
+      <c r="C167" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E167" s="28"/>
-      <c r="F167" s="29" t="b">
+      <c r="F167" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="29" t="b">
+      <c r="J167" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K167" s="28"/>
       <c r="L167" s="28"/>
-      <c r="M167" s="29" t="b">
+      <c r="M167" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N167" s="28"/>
@@ -10288,7 +10313,8 @@
       <c r="B168" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="29" t="b">
+      <c r="C168" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D168" s="28" t="s">
@@ -10297,18 +10323,21 @@
       <c r="E168" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F168" s="29" t="b">
+      <c r="F168" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="29" t="b">
+      <c r="J168" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K168" s="28"/>
       <c r="L168" s="28"/>
-      <c r="M168" s="29" t="b">
+      <c r="M168" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N168" s="28"/>
@@ -10337,7 +10366,8 @@
       <c r="B169" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C169" s="29" t="b">
+      <c r="C169" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D169" s="28" t="s">
@@ -10346,18 +10376,21 @@
       <c r="E169" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F169" s="29" t="b">
+      <c r="F169" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="29" t="b">
+      <c r="J169" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="28"/>
-      <c r="M169" s="29" t="b">
+      <c r="M169" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N169" s="28"/>
@@ -10386,25 +10419,29 @@
       <c r="B170" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C170" s="29" t="b">
+      <c r="C170" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E170" s="28"/>
-      <c r="F170" s="29" t="b">
+      <c r="F170" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="29" t="b">
+      <c r="J170" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K170" s="28"/>
       <c r="L170" s="28"/>
-      <c r="M170" s="29" t="b">
+      <c r="M170" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N170" s="28"/>
@@ -10433,25 +10470,29 @@
       <c r="B171" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C171" s="29" t="b">
+      <c r="C171" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E171" s="28"/>
-      <c r="F171" s="29" t="b">
+      <c r="F171" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="29" t="b">
+      <c r="J171" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28"/>
-      <c r="M171" s="29" t="b">
+      <c r="M171" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N171" s="28"/>
@@ -10480,7 +10521,8 @@
       <c r="B172" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C172" s="29" t="b">
+      <c r="C172" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D172" s="28" t="s">
@@ -10489,18 +10531,21 @@
       <c r="E172" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F172" s="29" t="b">
+      <c r="F172" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="29" t="b">
+      <c r="J172" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="28"/>
-      <c r="M172" s="29" t="b">
+      <c r="M172" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N172" s="28"/>
@@ -10529,7 +10574,8 @@
       <c r="B173" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C173" s="29" t="b">
+      <c r="C173" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D173" s="28" t="s">
@@ -10538,18 +10584,21 @@
       <c r="E173" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F173" s="29" t="b">
+      <c r="F173" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="29" t="b">
+      <c r="J173" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28"/>
-      <c r="M173" s="29" t="b">
+      <c r="M173" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N173" s="28"/>
@@ -10578,25 +10627,29 @@
       <c r="B174" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C174" s="29" t="b">
+      <c r="C174" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E174" s="28"/>
-      <c r="F174" s="29" t="b">
+      <c r="F174" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="29" t="b">
+      <c r="J174" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28"/>
-      <c r="M174" s="29" t="b">
+      <c r="M174" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N174" s="28"/>
@@ -10625,25 +10678,29 @@
       <c r="B175" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="29" t="b">
+      <c r="C175" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E175" s="28"/>
-      <c r="F175" s="29" t="b">
+      <c r="F175" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="29" t="b">
+      <c r="J175" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K175" s="28"/>
       <c r="L175" s="28"/>
-      <c r="M175" s="29" t="b">
+      <c r="M175" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N175" s="28"/>
@@ -10672,7 +10729,8 @@
       <c r="B176" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C176" s="29" t="b">
+      <c r="C176" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D176" s="28" t="s">
@@ -10681,18 +10739,21 @@
       <c r="E176" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F176" s="29" t="b">
+      <c r="F176" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="29" t="b">
+      <c r="J176" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28"/>
-      <c r="M176" s="29" t="b">
+      <c r="M176" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N176" s="28"/>
@@ -10721,7 +10782,8 @@
       <c r="B177" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C177" s="29" t="b">
+      <c r="C177" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D177" s="28" t="s">
@@ -10730,18 +10792,21 @@
       <c r="E177" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F177" s="29" t="b">
+      <c r="F177" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="29" t="b">
+      <c r="J177" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="28"/>
-      <c r="M177" s="29" t="b">
+      <c r="M177" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N177" s="28"/>
@@ -10770,25 +10835,29 @@
       <c r="B178" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="29" t="b">
+      <c r="C178" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E178" s="28"/>
-      <c r="F178" s="29" t="b">
+      <c r="F178" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="29" t="b">
+      <c r="J178" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="28"/>
-      <c r="M178" s="29" t="b">
+      <c r="M178" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N178" s="28"/>
@@ -10817,25 +10886,29 @@
       <c r="B179" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C179" s="29" t="b">
+      <c r="C179" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E179" s="28"/>
-      <c r="F179" s="29" t="b">
+      <c r="F179" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="29" t="b">
+      <c r="J179" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="28"/>
-      <c r="M179" s="29" t="b">
+      <c r="M179" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N179" s="28"/>
@@ -10864,7 +10937,8 @@
       <c r="B180" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="29" t="b">
+      <c r="C180" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D180" s="28" t="s">
@@ -10873,18 +10947,21 @@
       <c r="E180" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F180" s="29" t="b">
+      <c r="F180" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="29" t="b">
+      <c r="J180" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="28"/>
-      <c r="M180" s="29" t="b">
+      <c r="M180" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N180" s="28"/>
@@ -10913,7 +10990,8 @@
       <c r="B181" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C181" s="29" t="b">
+      <c r="C181" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D181" s="28" t="s">
@@ -10922,18 +11000,21 @@
       <c r="E181" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F181" s="29" t="b">
+      <c r="F181" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="29" t="b">
+      <c r="J181" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K181" s="28"/>
       <c r="L181" s="28"/>
-      <c r="M181" s="29" t="b">
+      <c r="M181" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N181" s="28"/>
@@ -10962,31 +11043,36 @@
       <c r="B182" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="29" t="b">
+      <c r="C182" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E182" s="28"/>
-      <c r="F182" s="29" t="b">
+      <c r="F182" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G182" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H182" s="29" t="b">
+      <c r="H182" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J182" s="29" t="b">
+      <c r="J182" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K182" s="28"/>
       <c r="L182" s="28"/>
-      <c r="M182" s="29" t="b">
+      <c r="M182" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N182" s="28"/>
@@ -11019,31 +11105,36 @@
       <c r="B183" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="29" t="b">
+      <c r="C183" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D183" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E183" s="28"/>
-      <c r="F183" s="29" t="b">
+      <c r="F183" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G183" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H183" s="29" t="b">
+      <c r="H183" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I183" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J183" s="29" t="b">
+      <c r="J183" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K183" s="28"/>
       <c r="L183" s="28"/>
-      <c r="M183" s="29" t="b">
+      <c r="M183" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N183" s="28"/>
@@ -11076,7 +11167,8 @@
       <c r="B184" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C184" s="29" t="b">
+      <c r="C184" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D184" s="28" t="s">
@@ -11085,24 +11177,28 @@
       <c r="E184" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F184" s="29" t="b">
+      <c r="F184" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G184" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H184" s="29" t="b">
+      <c r="H184" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I184" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J184" s="29" t="b">
+      <c r="J184" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="28"/>
-      <c r="M184" s="29" t="b">
+      <c r="M184" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N184" s="28"/>
@@ -11135,7 +11231,8 @@
       <c r="B185" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="29" t="b">
+      <c r="C185" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D185" s="28" t="s">
@@ -11144,24 +11241,28 @@
       <c r="E185" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F185" s="29" t="b">
+      <c r="F185" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G185" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H185" s="29" t="b">
+      <c r="H185" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J185" s="29" t="b">
+      <c r="J185" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28"/>
-      <c r="M185" s="29" t="b">
+      <c r="M185" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N185" s="28"/>
@@ -11194,31 +11295,36 @@
       <c r="B186" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C186" s="29" t="b">
+      <c r="C186" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D186" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E186" s="28"/>
-      <c r="F186" s="29" t="b">
+      <c r="F186" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G186" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H186" s="29" t="b">
+      <c r="H186" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I186" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J186" s="29" t="b">
+      <c r="J186" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28"/>
-      <c r="M186" s="29" t="b">
+      <c r="M186" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N186" s="28" t="s">
@@ -11257,31 +11363,36 @@
       <c r="B187" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C187" s="29" t="b">
+      <c r="C187" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E187" s="28"/>
-      <c r="F187" s="29" t="b">
+      <c r="F187" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G187" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H187" s="29" t="b">
+      <c r="H187" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I187" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J187" s="29" t="b">
+      <c r="J187" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28"/>
-      <c r="M187" s="29" t="b">
+      <c r="M187" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N187" s="28" t="s">
@@ -11320,7 +11431,8 @@
       <c r="B188" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C188" s="29" t="b">
+      <c r="C188" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D188" s="28" t="s">
@@ -11329,24 +11441,28 @@
       <c r="E188" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F188" s="29" t="b">
+      <c r="F188" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G188" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H188" s="29" t="b">
+      <c r="H188" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I188" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J188" s="29" t="b">
+      <c r="J188" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28"/>
-      <c r="M188" s="29" t="b">
+      <c r="M188" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N188" s="28" t="s">
@@ -11385,7 +11501,8 @@
       <c r="B189" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C189" s="29" t="b">
+      <c r="C189" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D189" s="28" t="s">
@@ -11394,24 +11511,28 @@
       <c r="E189" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F189" s="29" t="b">
+      <c r="F189" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H189" s="29" t="b">
+      <c r="H189" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I189" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J189" s="29" t="b">
+      <c r="J189" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28"/>
-      <c r="M189" s="29" t="b">
+      <c r="M189" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N189" s="28" t="s">
@@ -11450,31 +11571,36 @@
       <c r="B190" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C190" s="29" t="b">
+      <c r="C190" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D190" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E190" s="28"/>
-      <c r="F190" s="29" t="b">
+      <c r="F190" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G190" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H190" s="29" t="b">
+      <c r="H190" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I190" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J190" s="29" t="b">
+      <c r="J190" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28"/>
-      <c r="M190" s="29" t="b">
+      <c r="M190" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N190" s="28" t="s">
@@ -11513,31 +11639,36 @@
       <c r="B191" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C191" s="29" t="b">
+      <c r="C191" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D191" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E191" s="28"/>
-      <c r="F191" s="29" t="b">
+      <c r="F191" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G191" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H191" s="29" t="b">
+      <c r="H191" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I191" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J191" s="29" t="b">
+      <c r="J191" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28"/>
-      <c r="M191" s="29" t="b">
+      <c r="M191" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N191" s="28" t="s">
@@ -11576,7 +11707,8 @@
       <c r="B192" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C192" s="29" t="b">
+      <c r="C192" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D192" s="28" t="s">
@@ -11585,24 +11717,28 @@
       <c r="E192" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F192" s="29" t="b">
+      <c r="F192" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G192" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H192" s="29" t="b">
+      <c r="H192" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I192" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J192" s="29" t="b">
+      <c r="J192" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28"/>
-      <c r="M192" s="29" t="b">
+      <c r="M192" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N192" s="28" t="s">
@@ -11641,7 +11777,8 @@
       <c r="B193" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C193" s="29" t="b">
+      <c r="C193" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D193" s="28" t="s">
@@ -11650,24 +11787,28 @@
       <c r="E193" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F193" s="29" t="b">
+      <c r="F193" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G193" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H193" s="29" t="b">
+      <c r="H193" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I193" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J193" s="29" t="b">
+      <c r="J193" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28"/>
-      <c r="M193" s="29" t="b">
+      <c r="M193" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N193" s="28" t="s">
@@ -11706,31 +11847,36 @@
       <c r="B194" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C194" s="29" t="b">
+      <c r="C194" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D194" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E194" s="28"/>
-      <c r="F194" s="29" t="b">
+      <c r="F194" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G194" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H194" s="29" t="b">
+      <c r="H194" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I194" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J194" s="29" t="b">
+      <c r="J194" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="28"/>
-      <c r="M194" s="29" t="b">
+      <c r="M194" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N194" s="28" t="s">
@@ -11769,31 +11915,36 @@
       <c r="B195" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C195" s="29" t="b">
+      <c r="C195" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D195" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E195" s="28"/>
-      <c r="F195" s="29" t="b">
+      <c r="F195" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G195" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H195" s="29" t="b">
+      <c r="H195" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J195" s="29" t="b">
+      <c r="J195" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K195" s="28"/>
       <c r="L195" s="28"/>
-      <c r="M195" s="29" t="b">
+      <c r="M195" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N195" s="28" t="s">
@@ -11832,7 +11983,8 @@
       <c r="B196" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="29" t="b">
+      <c r="C196" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D196" s="28" t="s">
@@ -11841,18 +11993,21 @@
       <c r="E196" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F196" s="29" t="b">
+      <c r="F196" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G196" s="28"/>
       <c r="H196" s="28"/>
       <c r="I196" s="28"/>
-      <c r="J196" s="29" t="b">
+      <c r="J196" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28"/>
-      <c r="M196" s="29" t="b">
+      <c r="M196" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N196" s="28"/>
@@ -11881,7 +12036,8 @@
       <c r="B197" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C197" s="29" t="b">
+      <c r="C197" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D197" s="28" t="s">
@@ -11890,18 +12046,21 @@
       <c r="E197" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F197" s="29" t="b">
+      <c r="F197" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G197" s="28"/>
       <c r="H197" s="28"/>
       <c r="I197" s="28"/>
-      <c r="J197" s="29" t="b">
+      <c r="J197" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28"/>
-      <c r="M197" s="29" t="b">
+      <c r="M197" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N197" s="28"/>
@@ -11930,25 +12089,29 @@
       <c r="B198" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C198" s="29" t="b">
+      <c r="C198" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E198" s="28"/>
-      <c r="F198" s="29" t="b">
+      <c r="F198" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G198" s="28"/>
       <c r="H198" s="28"/>
       <c r="I198" s="28"/>
-      <c r="J198" s="29" t="b">
+      <c r="J198" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="28"/>
-      <c r="M198" s="29" t="b">
+      <c r="M198" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N198" s="28"/>
@@ -11977,25 +12140,29 @@
       <c r="B199" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C199" s="29" t="b">
+      <c r="C199" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E199" s="28"/>
-      <c r="F199" s="29" t="b">
+      <c r="F199" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
       <c r="I199" s="28"/>
-      <c r="J199" s="29" t="b">
+      <c r="J199" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28"/>
-      <c r="M199" s="29" t="b">
+      <c r="M199" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N199" s="28"/>
@@ -12024,7 +12191,8 @@
       <c r="B200" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C200" s="29" t="b">
+      <c r="C200" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D200" s="28" t="s">
@@ -12033,18 +12201,21 @@
       <c r="E200" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F200" s="29" t="b">
+      <c r="F200" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G200" s="28"/>
       <c r="H200" s="28"/>
       <c r="I200" s="28"/>
-      <c r="J200" s="29" t="b">
+      <c r="J200" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28"/>
-      <c r="M200" s="29" t="b">
+      <c r="M200" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N200" s="28"/>
@@ -12073,7 +12244,8 @@
       <c r="B201" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="29" t="b">
+      <c r="C201" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D201" s="28" t="s">
@@ -12082,18 +12254,21 @@
       <c r="E201" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F201" s="29" t="b">
+      <c r="F201" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G201" s="28"/>
       <c r="H201" s="28"/>
       <c r="I201" s="28"/>
-      <c r="J201" s="29" t="b">
+      <c r="J201" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="28"/>
-      <c r="M201" s="29" t="b">
+      <c r="M201" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N201" s="28"/>
@@ -12122,25 +12297,29 @@
       <c r="B202" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C202" s="29" t="b">
+      <c r="C202" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E202" s="28"/>
-      <c r="F202" s="29" t="b">
+      <c r="F202" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G202" s="28"/>
       <c r="H202" s="28"/>
       <c r="I202" s="28"/>
-      <c r="J202" s="29" t="b">
+      <c r="J202" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="28"/>
-      <c r="M202" s="29" t="b">
+      <c r="M202" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N202" s="28"/>
@@ -12169,25 +12348,29 @@
       <c r="B203" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C203" s="29" t="b">
+      <c r="C203" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D203" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E203" s="28"/>
-      <c r="F203" s="29" t="b">
+      <c r="F203" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G203" s="28"/>
       <c r="H203" s="28"/>
       <c r="I203" s="28"/>
-      <c r="J203" s="29" t="b">
+      <c r="J203" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="28"/>
-      <c r="M203" s="29" t="b">
+      <c r="M203" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N203" s="28"/>
@@ -12216,7 +12399,8 @@
       <c r="B204" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="29" t="b">
+      <c r="C204" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D204" s="28" t="s">
@@ -12225,18 +12409,21 @@
       <c r="E204" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F204" s="29" t="b">
+      <c r="F204" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G204" s="28"/>
       <c r="H204" s="28"/>
       <c r="I204" s="28"/>
-      <c r="J204" s="29" t="b">
+      <c r="J204" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28"/>
-      <c r="M204" s="29" t="b">
+      <c r="M204" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N204" s="28"/>
@@ -12265,7 +12452,8 @@
       <c r="B205" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C205" s="29" t="b">
+      <c r="C205" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D205" s="28" t="s">
@@ -12274,18 +12462,21 @@
       <c r="E205" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F205" s="29" t="b">
+      <c r="F205" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G205" s="28"/>
       <c r="H205" s="28"/>
       <c r="I205" s="28"/>
-      <c r="J205" s="29" t="b">
+      <c r="J205" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28"/>
-      <c r="M205" s="29" t="b">
+      <c r="M205" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N205" s="28"/>
@@ -12314,25 +12505,29 @@
       <c r="B206" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C206" s="29" t="b">
+      <c r="C206" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D206" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E206" s="28"/>
-      <c r="F206" s="29" t="b">
+      <c r="F206" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G206" s="28"/>
       <c r="H206" s="28"/>
       <c r="I206" s="28"/>
-      <c r="J206" s="29" t="b">
+      <c r="J206" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28"/>
-      <c r="M206" s="29" t="b">
+      <c r="M206" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N206" s="28"/>
@@ -12361,25 +12556,29 @@
       <c r="B207" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C207" s="29" t="b">
+      <c r="C207" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="28"/>
-      <c r="F207" s="29" t="b">
+      <c r="F207" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G207" s="28"/>
       <c r="H207" s="28"/>
       <c r="I207" s="28"/>
-      <c r="J207" s="29" t="b">
+      <c r="J207" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28"/>
-      <c r="M207" s="29" t="b">
+      <c r="M207" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N207" s="28"/>
@@ -12408,7 +12607,8 @@
       <c r="B208" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C208" s="29" t="b">
+      <c r="C208" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D208" s="28" t="s">
@@ -12417,18 +12617,21 @@
       <c r="E208" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F208" s="29" t="b">
+      <c r="F208" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G208" s="28"/>
       <c r="H208" s="28"/>
       <c r="I208" s="28"/>
-      <c r="J208" s="29" t="b">
+      <c r="J208" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28"/>
-      <c r="M208" s="29" t="b">
+      <c r="M208" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N208" s="28"/>
@@ -12457,7 +12660,8 @@
       <c r="B209" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C209" s="29" t="b">
+      <c r="C209" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D209" s="28" t="s">
@@ -12466,18 +12670,21 @@
       <c r="E209" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F209" s="29" t="b">
+      <c r="F209" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G209" s="28"/>
       <c r="H209" s="28"/>
       <c r="I209" s="28"/>
-      <c r="J209" s="29" t="b">
+      <c r="J209" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28"/>
-      <c r="M209" s="29" t="b">
+      <c r="M209" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N209" s="28"/>
@@ -12506,25 +12713,29 @@
       <c r="B210" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C210" s="29" t="b">
+      <c r="C210" s="29" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E210" s="28"/>
-      <c r="F210" s="29" t="b">
+      <c r="F210" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="G210" s="28"/>
       <c r="H210" s="28"/>
       <c r="I210" s="28"/>
-      <c r="J210" s="29" t="b">
+      <c r="J210" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28"/>
-      <c r="M210" s="29" t="b">
+      <c r="M210" s="29" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N210" s="28"/>
@@ -12553,19 +12764,23 @@
       <c r="B211" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C211" s="3" t="b">
+      <c r="C211" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F211" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M211" s="6" t="b">
+      <c r="F211" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J211" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M211" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P211" s="8" t="n">
@@ -12588,7 +12803,8 @@
       <c r="B212" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C212" s="3" t="b">
+      <c r="C212" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
@@ -12597,13 +12813,16 @@
       <c r="E212" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F212" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M212" s="6" t="b">
+      <c r="F212" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J212" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M212" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P212" s="8" t="n">
@@ -12626,7 +12845,8 @@
       <c r="B213" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="3" t="b">
+      <c r="C213" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D213" s="4" t="s">
@@ -12635,13 +12855,16 @@
       <c r="E213" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F213" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M213" s="6" t="b">
+      <c r="F213" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J213" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M213" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P213" s="8" t="n">
@@ -12664,28 +12887,33 @@
       <c r="B214" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C214" s="3" t="b">
+      <c r="C214" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F214" s="3" t="b">
+      <c r="F214" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H214" s="3" t="b">
+      <c r="H214" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J214" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M214" s="6" t="b">
+      <c r="J214" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M214" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P214" s="8" t="n">
@@ -12714,28 +12942,33 @@
       <c r="B215" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C215" s="3" t="b">
+      <c r="C215" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F215" s="3" t="b">
+      <c r="F215" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H215" s="3" t="b">
+      <c r="H215" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J215" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M215" s="6" t="b">
+      <c r="J215" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M215" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P215" s="8" t="n">
@@ -12764,7 +12997,8 @@
       <c r="B216" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="3" t="b">
+      <c r="C216" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
@@ -12773,22 +13007,26 @@
       <c r="E216" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F216" s="3" t="b">
+      <c r="F216" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H216" s="3" t="b">
+      <c r="H216" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J216" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M216" s="6" t="b">
+      <c r="J216" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M216" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P216" s="8" t="n">
@@ -12817,7 +13055,8 @@
       <c r="B217" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C217" s="3" t="b">
+      <c r="C217" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D217" s="4" t="s">
@@ -12826,22 +13065,26 @@
       <c r="E217" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F217" s="3" t="b">
+      <c r="F217" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H217" s="3" t="b">
+      <c r="H217" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J217" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M217" s="6" t="b">
+      <c r="J217" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M217" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P217" s="8" t="n">
@@ -12870,28 +13113,33 @@
       <c r="B218" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C218" s="3" t="b">
+      <c r="C218" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F218" s="3" t="b">
+      <c r="F218" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H218" s="3" t="b">
+      <c r="H218" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J218" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M218" s="6" t="b">
+      <c r="J218" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M218" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N218" s="7" t="s">
@@ -12929,28 +13177,33 @@
       <c r="B219" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C219" s="3" t="b">
+      <c r="C219" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F219" s="3" t="b">
+      <c r="F219" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H219" s="3" t="b">
+      <c r="H219" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J219" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M219" s="6" t="b">
+      <c r="J219" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M219" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N219" s="7" t="s">
@@ -12988,7 +13241,8 @@
       <c r="B220" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C220" s="3" t="b">
+      <c r="C220" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
@@ -12997,22 +13251,26 @@
       <c r="E220" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F220" s="3" t="b">
+      <c r="F220" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H220" s="3" t="b">
+      <c r="H220" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J220" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M220" s="6" t="b">
+      <c r="J220" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M220" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N220" s="7" t="s">
@@ -13050,7 +13308,8 @@
       <c r="B221" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C221" s="3" t="b">
+      <c r="C221" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
@@ -13059,22 +13318,26 @@
       <c r="E221" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F221" s="3" t="b">
+      <c r="F221" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H221" s="3" t="b">
+      <c r="H221" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J221" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M221" s="6" t="b">
+      <c r="J221" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M221" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N221" s="7" t="s">
@@ -13112,28 +13375,33 @@
       <c r="B222" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C222" s="3" t="b">
+      <c r="C222" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F222" s="3" t="b">
+      <c r="F222" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H222" s="3" t="b">
+      <c r="H222" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J222" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M222" s="6" t="b">
+      <c r="J222" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M222" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N222" s="7" t="s">
@@ -13171,28 +13439,33 @@
       <c r="B223" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C223" s="3" t="b">
+      <c r="C223" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F223" s="3" t="b">
+      <c r="F223" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H223" s="3" t="b">
+      <c r="H223" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J223" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M223" s="6" t="b">
+      <c r="J223" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M223" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N223" s="7" t="s">
@@ -13230,7 +13503,8 @@
       <c r="B224" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C224" s="3" t="b">
+      <c r="C224" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
@@ -13239,22 +13513,26 @@
       <c r="E224" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F224" s="3" t="b">
+      <c r="F224" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H224" s="3" t="b">
+      <c r="H224" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J224" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M224" s="6" t="b">
+      <c r="J224" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M224" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N224" s="7" t="s">
@@ -13292,7 +13570,8 @@
       <c r="B225" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C225" s="3" t="b">
+      <c r="C225" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D225" s="4" t="s">
@@ -13301,22 +13580,26 @@
       <c r="E225" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F225" s="3" t="b">
+      <c r="F225" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H225" s="3" t="b">
+      <c r="H225" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J225" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M225" s="6" t="b">
+      <c r="J225" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M225" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N225" s="7" t="s">
@@ -13354,28 +13637,33 @@
       <c r="B226" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C226" s="3" t="b">
+      <c r="C226" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F226" s="3" t="b">
+      <c r="F226" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H226" s="3" t="b">
+      <c r="H226" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J226" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M226" s="6" t="b">
+      <c r="J226" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M226" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N226" s="7" t="s">
@@ -13413,28 +13701,33 @@
       <c r="B227" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C227" s="3" t="b">
+      <c r="C227" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F227" s="3" t="b">
+      <c r="F227" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H227" s="3" t="b">
+      <c r="H227" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J227" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M227" s="6" t="b">
+      <c r="J227" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M227" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N227" s="7" t="s">
@@ -13472,7 +13765,8 @@
       <c r="B228" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C228" s="3" t="b">
+      <c r="C228" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D228" s="4" t="s">
@@ -13481,13 +13775,16 @@
       <c r="E228" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F228" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M228" s="6" t="b">
+      <c r="F228" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J228" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M228" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P228" s="8" t="n">
@@ -13510,7 +13807,8 @@
       <c r="B229" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C229" s="3" t="b">
+      <c r="C229" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -13519,13 +13817,16 @@
       <c r="E229" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F229" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M229" s="6" t="b">
+      <c r="F229" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J229" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M229" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P229" s="8" t="n">
@@ -13548,19 +13849,23 @@
       <c r="B230" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C230" s="3" t="b">
+      <c r="C230" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F230" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M230" s="6" t="b">
+      <c r="F230" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J230" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M230" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P230" s="8" t="n">
@@ -13583,19 +13888,23 @@
       <c r="B231" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C231" s="3" t="b">
+      <c r="C231" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F231" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M231" s="6" t="b">
+      <c r="F231" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J231" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M231" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P231" s="8" t="n">
@@ -13618,7 +13927,8 @@
       <c r="B232" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C232" s="3" t="b">
+      <c r="C232" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D232" s="4" t="s">
@@ -13627,13 +13937,16 @@
       <c r="E232" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F232" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M232" s="6" t="b">
+      <c r="F232" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J232" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M232" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P232" s="8" t="n">
@@ -13656,7 +13969,8 @@
       <c r="B233" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C233" s="3" t="b">
+      <c r="C233" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
@@ -13665,13 +13979,16 @@
       <c r="E233" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F233" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M233" s="6" t="b">
+      <c r="F233" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J233" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M233" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P233" s="8" t="n">
@@ -13694,19 +14011,23 @@
       <c r="B234" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C234" s="3" t="b">
+      <c r="C234" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F234" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M234" s="6" t="b">
+      <c r="F234" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J234" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M234" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P234" s="8" t="n">
@@ -13729,19 +14050,23 @@
       <c r="B235" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C235" s="3" t="b">
+      <c r="C235" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F235" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M235" s="6" t="b">
+      <c r="F235" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J235" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M235" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P235" s="8" t="n">
@@ -13764,7 +14089,8 @@
       <c r="B236" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C236" s="3" t="b">
+      <c r="C236" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D236" s="4" t="s">
@@ -13773,13 +14099,16 @@
       <c r="E236" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F236" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M236" s="6" t="b">
+      <c r="F236" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M236" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P236" s="8" t="n">
@@ -13802,7 +14131,8 @@
       <c r="B237" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C237" s="3" t="b">
+      <c r="C237" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D237" s="4" t="s">
@@ -13811,13 +14141,16 @@
       <c r="E237" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F237" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M237" s="6" t="b">
+      <c r="F237" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J237" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M237" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P237" s="8" t="n">
@@ -13840,19 +14173,23 @@
       <c r="B238" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C238" s="3" t="b">
+      <c r="C238" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F238" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M238" s="6" t="b">
+      <c r="F238" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M238" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P238" s="8" t="n">
@@ -13875,19 +14212,23 @@
       <c r="B239" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C239" s="3" t="b">
+      <c r="C239" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F239" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M239" s="6" t="b">
+      <c r="F239" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J239" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M239" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P239" s="8" t="n">
@@ -13910,7 +14251,8 @@
       <c r="B240" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C240" s="3" t="b">
+      <c r="C240" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
@@ -13919,13 +14261,16 @@
       <c r="E240" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F240" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M240" s="6" t="b">
+      <c r="F240" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J240" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M240" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P240" s="8" t="n">
@@ -13948,7 +14293,8 @@
       <c r="B241" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C241" s="3" t="b">
+      <c r="C241" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D241" s="4" t="s">
@@ -13957,13 +14303,16 @@
       <c r="E241" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F241" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M241" s="6" t="b">
+      <c r="F241" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J241" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M241" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P241" s="8" t="n">
@@ -13986,19 +14335,23 @@
       <c r="B242" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C242" s="3" t="b">
+      <c r="C242" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F242" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M242" s="6" t="b">
+      <c r="F242" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M242" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P242" s="8" t="n">
@@ -14021,19 +14374,23 @@
       <c r="B243" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C243" s="3" t="b">
+      <c r="C243" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F243" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M243" s="6" t="b">
+      <c r="F243" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M243" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P243" s="8" t="n">
@@ -14056,7 +14413,8 @@
       <c r="B244" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C244" s="3" t="b">
+      <c r="C244" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
@@ -14065,13 +14423,16 @@
       <c r="E244" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F244" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M244" s="6" t="b">
+      <c r="F244" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J244" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M244" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P244" s="8" t="n">
@@ -14094,7 +14455,8 @@
       <c r="B245" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C245" s="3" t="b">
+      <c r="C245" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
@@ -14103,13 +14465,16 @@
       <c r="E245" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F245" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M245" s="6" t="b">
+      <c r="F245" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P245" s="8" t="n">
@@ -14132,28 +14497,33 @@
       <c r="B246" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C246" s="3" t="b">
+      <c r="C246" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F246" s="3" t="b">
+      <c r="F246" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H246" s="3" t="b">
+      <c r="H246" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J246" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M246" s="6" t="b">
+      <c r="J246" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M246" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P246" s="8" t="n">
@@ -14182,28 +14552,33 @@
       <c r="B247" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C247" s="3" t="b">
+      <c r="C247" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F247" s="3" t="b">
+      <c r="F247" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H247" s="3" t="b">
+      <c r="H247" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J247" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M247" s="6" t="b">
+      <c r="J247" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M247" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P247" s="8" t="n">
@@ -14232,7 +14607,8 @@
       <c r="B248" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C248" s="3" t="b">
+      <c r="C248" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D248" s="4" t="s">
@@ -14241,22 +14617,26 @@
       <c r="E248" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F248" s="3" t="b">
+      <c r="F248" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H248" s="3" t="b">
+      <c r="H248" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J248" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M248" s="6" t="b">
+      <c r="J248" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P248" s="8" t="n">
@@ -14285,7 +14665,8 @@
       <c r="B249" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C249" s="3" t="b">
+      <c r="C249" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D249" s="4" t="s">
@@ -14294,22 +14675,26 @@
       <c r="E249" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F249" s="3" t="b">
+      <c r="F249" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H249" s="3" t="b">
+      <c r="H249" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J249" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M249" s="6" t="b">
+      <c r="J249" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M249" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P249" s="8" t="n">
@@ -14338,28 +14723,33 @@
       <c r="B250" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C250" s="3" t="b">
+      <c r="C250" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F250" s="3" t="b">
+      <c r="F250" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H250" s="3" t="b">
+      <c r="H250" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J250" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M250" s="6" t="b">
+      <c r="J250" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M250" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N250" s="7" t="s">
@@ -14397,28 +14787,33 @@
       <c r="B251" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C251" s="3" t="b">
+      <c r="C251" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F251" s="3" t="b">
+      <c r="F251" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H251" s="3" t="b">
+      <c r="H251" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I251" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J251" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M251" s="6" t="b">
+      <c r="J251" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M251" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N251" s="7" t="s">
@@ -14456,7 +14851,8 @@
       <c r="B252" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C252" s="3" t="b">
+      <c r="C252" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
@@ -14465,22 +14861,26 @@
       <c r="E252" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F252" s="3" t="b">
+      <c r="F252" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H252" s="3" t="b">
+      <c r="H252" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J252" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M252" s="6" t="b">
+      <c r="J252" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M252" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N252" s="7" t="s">
@@ -14518,7 +14918,8 @@
       <c r="B253" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C253" s="3" t="b">
+      <c r="C253" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
@@ -14527,22 +14928,26 @@
       <c r="E253" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F253" s="3" t="b">
+      <c r="F253" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H253" s="3" t="b">
+      <c r="H253" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J253" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M253" s="6" t="b">
+      <c r="J253" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M253" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N253" s="7" t="s">
@@ -14580,28 +14985,33 @@
       <c r="B254" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C254" s="3" t="b">
+      <c r="C254" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F254" s="3" t="b">
+      <c r="F254" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H254" s="3" t="b">
+      <c r="H254" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J254" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M254" s="6" t="b">
+      <c r="J254" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M254" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N254" s="7" t="s">
@@ -14639,28 +15049,33 @@
       <c r="B255" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C255" s="3" t="b">
+      <c r="C255" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F255" s="3" t="b">
+      <c r="F255" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H255" s="3" t="b">
+      <c r="H255" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J255" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M255" s="6" t="b">
+      <c r="J255" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M255" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N255" s="7" t="s">
@@ -14698,7 +15113,8 @@
       <c r="B256" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C256" s="3" t="b">
+      <c r="C256" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
@@ -14707,22 +15123,26 @@
       <c r="E256" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F256" s="3" t="b">
+      <c r="F256" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H256" s="3" t="b">
+      <c r="H256" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J256" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M256" s="6" t="b">
+      <c r="J256" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M256" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N256" s="7" t="s">
@@ -14760,7 +15180,8 @@
       <c r="B257" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C257" s="3" t="b">
+      <c r="C257" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
@@ -14769,22 +15190,26 @@
       <c r="E257" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F257" s="3" t="b">
+      <c r="F257" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H257" s="3" t="b">
+      <c r="H257" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J257" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M257" s="6" t="b">
+      <c r="J257" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M257" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N257" s="7" t="s">
@@ -14822,28 +15247,33 @@
       <c r="B258" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C258" s="3" t="b">
+      <c r="C258" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F258" s="3" t="b">
+      <c r="F258" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H258" s="3" t="b">
+      <c r="H258" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J258" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M258" s="6" t="b">
+      <c r="J258" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M258" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N258" s="7" t="s">
@@ -14881,28 +15311,33 @@
       <c r="B259" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C259" s="3" t="b">
+      <c r="C259" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F259" s="3" t="b">
+      <c r="F259" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H259" s="3" t="b">
+      <c r="H259" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J259" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M259" s="6" t="b">
+      <c r="J259" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M259" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N259" s="7" t="s">
@@ -14940,7 +15375,8 @@
       <c r="B260" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C260" s="3" t="b">
+      <c r="C260" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D260" s="4" t="s">
@@ -14949,22 +15385,26 @@
       <c r="E260" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F260" s="3" t="b">
+      <c r="F260" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H260" s="3" t="b">
+      <c r="H260" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J260" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M260" s="6" t="b">
+      <c r="J260" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M260" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N260" s="7" t="s">
@@ -15002,7 +15442,8 @@
       <c r="B261" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C261" s="3" t="b">
+      <c r="C261" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D261" s="4" t="s">
@@ -15011,22 +15452,26 @@
       <c r="E261" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F261" s="3" t="b">
+      <c r="F261" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H261" s="3" t="b">
+      <c r="H261" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J261" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M261" s="6" t="b">
+      <c r="J261" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M261" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N261" s="7" t="s">
@@ -15064,28 +15509,33 @@
       <c r="B262" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C262" s="3" t="b">
+      <c r="C262" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F262" s="3" t="b">
+      <c r="F262" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H262" s="3" t="b">
+      <c r="H262" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J262" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M262" s="6" t="b">
+      <c r="J262" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M262" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N262" s="7" t="s">
@@ -15123,28 +15573,33 @@
       <c r="B263" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C263" s="3" t="b">
+      <c r="C263" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F263" s="3" t="b">
+      <c r="F263" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H263" s="3" t="b">
+      <c r="H263" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J263" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M263" s="6" t="b">
+      <c r="J263" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M263" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N263" s="7" t="s">
@@ -15182,7 +15637,8 @@
       <c r="B264" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C264" s="3" t="b">
+      <c r="C264" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
@@ -15191,22 +15647,26 @@
       <c r="E264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F264" s="3" t="b">
+      <c r="F264" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H264" s="3" t="b">
+      <c r="H264" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J264" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M264" s="6" t="b">
+      <c r="J264" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M264" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N264" s="7" t="s">
@@ -15244,7 +15704,8 @@
       <c r="B265" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C265" s="3" t="b">
+      <c r="C265" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
@@ -15253,22 +15714,26 @@
       <c r="E265" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F265" s="3" t="b">
+      <c r="F265" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H265" s="3" t="b">
+      <c r="H265" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J265" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M265" s="6" t="b">
+      <c r="J265" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M265" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N265" s="7" t="s">
@@ -15306,7 +15771,8 @@
       <c r="B266" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C266" s="3" t="b">
+      <c r="C266" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D266" s="4" t="s">
@@ -15315,13 +15781,16 @@
       <c r="E266" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F266" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M266" s="6" t="b">
+      <c r="F266" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J266" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M266" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P266" s="8" t="n">
@@ -15344,7 +15813,8 @@
       <c r="B267" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C267" s="3" t="b">
+      <c r="C267" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D267" s="4" t="s">
@@ -15353,13 +15823,16 @@
       <c r="E267" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F267" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M267" s="6" t="b">
+      <c r="F267" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J267" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M267" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P267" s="8" t="n">
@@ -15382,19 +15855,23 @@
       <c r="B268" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C268" s="3" t="b">
+      <c r="C268" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F268" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M268" s="6" t="b">
+      <c r="F268" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J268" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M268" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P268" s="8" t="n">
@@ -15417,19 +15894,23 @@
       <c r="B269" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C269" s="3" t="b">
+      <c r="C269" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F269" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M269" s="6" t="b">
+      <c r="F269" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J269" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M269" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P269" s="8" t="n">
@@ -15452,7 +15933,8 @@
       <c r="B270" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C270" s="3" t="b">
+      <c r="C270" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D270" s="4" t="s">
@@ -15461,13 +15943,16 @@
       <c r="E270" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F270" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M270" s="6" t="b">
+      <c r="F270" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J270" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M270" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P270" s="8" t="n">
@@ -15490,7 +15975,8 @@
       <c r="B271" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C271" s="3" t="b">
+      <c r="C271" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D271" s="4" t="s">
@@ -15499,13 +15985,16 @@
       <c r="E271" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F271" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M271" s="6" t="b">
+      <c r="F271" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J271" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M271" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P271" s="8" t="n">
@@ -15528,19 +16017,23 @@
       <c r="B272" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C272" s="3" t="b">
+      <c r="C272" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F272" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M272" s="6" t="b">
+      <c r="F272" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J272" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M272" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P272" s="8" t="n">
@@ -15563,19 +16056,23 @@
       <c r="B273" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C273" s="3" t="b">
+      <c r="C273" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F273" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M273" s="6" t="b">
+      <c r="F273" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J273" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M273" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P273" s="8" t="n">
@@ -15598,7 +16095,8 @@
       <c r="B274" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C274" s="3" t="b">
+      <c r="C274" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
@@ -15607,13 +16105,16 @@
       <c r="E274" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F274" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M274" s="6" t="b">
+      <c r="F274" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J274" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M274" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P274" s="8" t="n">
@@ -15636,7 +16137,8 @@
       <c r="B275" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C275" s="3" t="b">
+      <c r="C275" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
@@ -15645,13 +16147,16 @@
       <c r="E275" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F275" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M275" s="6" t="b">
+      <c r="F275" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J275" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M275" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P275" s="8" t="n">
@@ -15674,19 +16179,23 @@
       <c r="B276" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C276" s="3" t="b">
+      <c r="C276" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F276" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M276" s="6" t="b">
+      <c r="F276" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J276" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M276" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P276" s="8" t="n">
@@ -15709,19 +16218,23 @@
       <c r="B277" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C277" s="3" t="b">
+      <c r="C277" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F277" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M277" s="6" t="b">
+      <c r="F277" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J277" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M277" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P277" s="8" t="n">
@@ -15744,7 +16257,8 @@
       <c r="B278" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C278" s="3" t="b">
+      <c r="C278" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
@@ -15753,13 +16267,16 @@
       <c r="E278" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F278" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M278" s="6" t="b">
+      <c r="F278" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J278" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M278" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P278" s="8" t="n">
@@ -15782,7 +16299,8 @@
       <c r="B279" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C279" s="3" t="b">
+      <c r="C279" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
@@ -15791,13 +16309,16 @@
       <c r="E279" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F279" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M279" s="6" t="b">
+      <c r="F279" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J279" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M279" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P279" s="8" t="n">
@@ -15820,34 +16341,40 @@
       <c r="B280" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C280" s="3" t="b">
+      <c r="C280" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F280" s="3" t="b">
+      <c r="F280" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H280" s="3" t="b">
+      <c r="H280" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J280" s="3" t="b">
+      <c r="J280" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K280" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L280" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M280" s="6" t="b">
+      <c r="L280" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M280" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P280" s="8" t="n">
@@ -15879,34 +16406,40 @@
       <c r="B281" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C281" s="3" t="b">
+      <c r="C281" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F281" s="3" t="b">
+      <c r="F281" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H281" s="3" t="b">
+      <c r="H281" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J281" s="3" t="b">
+      <c r="J281" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K281" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L281" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M281" s="6" t="b">
+      <c r="L281" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M281" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P281" s="8" t="n">
@@ -15938,7 +16471,8 @@
       <c r="B282" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C282" s="3" t="b">
+      <c r="C282" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
@@ -15947,28 +16481,33 @@
       <c r="E282" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F282" s="3" t="b">
+      <c r="F282" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H282" s="3" t="b">
+      <c r="H282" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J282" s="3" t="b">
+      <c r="J282" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K282" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L282" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M282" s="6" t="b">
+      <c r="L282" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M282" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P282" s="8" t="n">
@@ -16000,7 +16539,8 @@
       <c r="B283" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C283" s="3" t="b">
+      <c r="C283" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
@@ -16009,28 +16549,33 @@
       <c r="E283" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F283" s="3" t="b">
+      <c r="F283" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H283" s="3" t="b">
+      <c r="H283" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J283" s="3" t="b">
+      <c r="J283" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K283" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L283" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M283" s="6" t="b">
+      <c r="L283" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M283" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P283" s="8" t="n">
@@ -16062,34 +16607,40 @@
       <c r="B284" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C284" s="3" t="b">
+      <c r="C284" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F284" s="3" t="b">
+      <c r="F284" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H284" s="3" t="b">
+      <c r="H284" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J284" s="3" t="b">
+      <c r="J284" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K284" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L284" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M284" s="6" t="b">
+      <c r="L284" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M284" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P284" s="8" t="n">
@@ -16121,34 +16672,40 @@
       <c r="B285" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C285" s="3" t="b">
+      <c r="C285" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F285" s="3" t="b">
+      <c r="F285" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H285" s="3" t="b">
+      <c r="H285" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J285" s="3" t="b">
+      <c r="J285" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K285" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L285" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M285" s="6" t="b">
+      <c r="L285" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M285" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P285" s="8" t="n">
@@ -16180,7 +16737,8 @@
       <c r="B286" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C286" s="3" t="b">
+      <c r="C286" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
@@ -16189,28 +16747,33 @@
       <c r="E286" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F286" s="3" t="b">
+      <c r="F286" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H286" s="3" t="b">
+      <c r="H286" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J286" s="3" t="b">
+      <c r="J286" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K286" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L286" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M286" s="6" t="b">
+      <c r="L286" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M286" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P286" s="8" t="n">
@@ -16242,7 +16805,8 @@
       <c r="B287" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C287" s="3" t="b">
+      <c r="C287" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
@@ -16251,28 +16815,33 @@
       <c r="E287" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F287" s="3" t="b">
+      <c r="F287" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H287" s="3" t="b">
+      <c r="H287" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J287" s="3" t="b">
+      <c r="J287" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K287" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L287" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M287" s="6" t="b">
+      <c r="L287" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M287" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P287" s="8" t="n">
@@ -16304,34 +16873,40 @@
       <c r="B288" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C288" s="3" t="b">
+      <c r="C288" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F288" s="3" t="b">
+      <c r="F288" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H288" s="3" t="b">
+      <c r="H288" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J288" s="3" t="b">
+      <c r="J288" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K288" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L288" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M288" s="6" t="b">
+      <c r="L288" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M288" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P288" s="8" t="n">
@@ -16363,34 +16938,40 @@
       <c r="B289" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C289" s="3" t="b">
+      <c r="C289" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F289" s="3" t="b">
+      <c r="F289" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H289" s="3" t="b">
+      <c r="H289" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J289" s="3" t="b">
+      <c r="J289" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K289" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L289" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M289" s="6" t="b">
+      <c r="L289" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M289" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P289" s="8" t="n">
@@ -16422,7 +17003,8 @@
       <c r="B290" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C290" s="3" t="b">
+      <c r="C290" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
@@ -16431,28 +17013,33 @@
       <c r="E290" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F290" s="3" t="b">
+      <c r="F290" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H290" s="3" t="b">
+      <c r="H290" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J290" s="3" t="b">
+      <c r="J290" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K290" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L290" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M290" s="6" t="b">
+      <c r="L290" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M290" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P290" s="8" t="n">
@@ -16484,7 +17071,8 @@
       <c r="B291" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C291" s="3" t="b">
+      <c r="C291" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D291" s="4" t="s">
@@ -16493,28 +17081,33 @@
       <c r="E291" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F291" s="3" t="b">
+      <c r="F291" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H291" s="3" t="b">
+      <c r="H291" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J291" s="3" t="b">
+      <c r="J291" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K291" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L291" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M291" s="6" t="b">
+      <c r="L291" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M291" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P291" s="8" t="n">
@@ -16546,34 +17139,40 @@
       <c r="B292" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C292" s="3" t="b">
+      <c r="C292" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F292" s="3" t="b">
+      <c r="F292" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H292" s="3" t="b">
+      <c r="H292" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J292" s="3" t="b">
+      <c r="J292" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K292" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L292" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M292" s="6" t="b">
+      <c r="L292" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M292" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P292" s="8" t="n">
@@ -16605,34 +17204,40 @@
       <c r="B293" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C293" s="3" t="b">
+      <c r="C293" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F293" s="3" t="b">
+      <c r="F293" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H293" s="3" t="b">
+      <c r="H293" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J293" s="3" t="b">
+      <c r="J293" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K293" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L293" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M293" s="6" t="b">
+      <c r="L293" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M293" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P293" s="8" t="n">
@@ -16664,7 +17269,8 @@
       <c r="B294" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C294" s="3" t="b">
+      <c r="C294" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D294" s="4" t="s">
@@ -16673,13 +17279,16 @@
       <c r="E294" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F294" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J294" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M294" s="6" t="b">
+      <c r="F294" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J294" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M294" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P294" s="8" t="n">
@@ -16702,7 +17311,8 @@
       <c r="B295" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C295" s="3" t="b">
+      <c r="C295" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D295" s="4" t="s">
@@ -16711,13 +17321,16 @@
       <c r="E295" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F295" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J295" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M295" s="6" t="b">
+      <c r="F295" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J295" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M295" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P295" s="8" t="n">
@@ -16740,19 +17353,23 @@
       <c r="B296" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C296" s="3" t="b">
+      <c r="C296" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F296" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J296" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M296" s="6" t="b">
+      <c r="F296" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J296" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M296" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P296" s="8" t="n">
@@ -16775,19 +17392,23 @@
       <c r="B297" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C297" s="3" t="b">
+      <c r="C297" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F297" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J297" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M297" s="6" t="b">
+      <c r="F297" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J297" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M297" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P297" s="8" t="n">
@@ -16810,7 +17431,8 @@
       <c r="B298" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C298" s="3" t="b">
+      <c r="C298" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
@@ -16819,13 +17441,16 @@
       <c r="E298" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F298" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J298" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M298" s="6" t="b">
+      <c r="F298" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J298" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M298" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P298" s="8" t="n">
@@ -16848,7 +17473,8 @@
       <c r="B299" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C299" s="3" t="b">
+      <c r="C299" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D299" s="4" t="s">
@@ -16857,13 +17483,16 @@
       <c r="E299" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F299" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J299" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M299" s="6" t="b">
+      <c r="F299" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J299" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M299" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P299" s="8" t="n">
@@ -16886,19 +17515,23 @@
       <c r="B300" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C300" s="3" t="b">
+      <c r="C300" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F300" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J300" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M300" s="6" t="b">
+      <c r="F300" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J300" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M300" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P300" s="8" t="n">
@@ -16921,19 +17554,23 @@
       <c r="B301" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C301" s="3" t="b">
+      <c r="C301" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F301" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J301" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M301" s="6" t="b">
+      <c r="F301" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J301" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M301" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P301" s="8" t="n">
@@ -16956,7 +17593,8 @@
       <c r="B302" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C302" s="3" t="b">
+      <c r="C302" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
@@ -16965,13 +17603,16 @@
       <c r="E302" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F302" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J302" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M302" s="6" t="b">
+      <c r="F302" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J302" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M302" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P302" s="8" t="n">
@@ -16994,7 +17635,8 @@
       <c r="B303" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C303" s="3" t="b">
+      <c r="C303" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
@@ -17003,13 +17645,16 @@
       <c r="E303" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F303" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J303" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M303" s="6" t="b">
+      <c r="F303" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J303" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M303" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P303" s="8" t="n">
@@ -17032,19 +17677,23 @@
       <c r="B304" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C304" s="3" t="b">
+      <c r="C304" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F304" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J304" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M304" s="6" t="b">
+      <c r="F304" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J304" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M304" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P304" s="8" t="n">
@@ -17067,19 +17716,23 @@
       <c r="B305" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C305" s="3" t="b">
+      <c r="C305" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F305" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M305" s="6" t="b">
+      <c r="F305" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J305" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M305" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P305" s="8" t="n">
@@ -17102,7 +17755,8 @@
       <c r="B306" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C306" s="3" t="b">
+      <c r="C306" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
@@ -17111,13 +17765,16 @@
       <c r="E306" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F306" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J306" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M306" s="6" t="b">
+      <c r="F306" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J306" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M306" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P306" s="8" t="n">
@@ -17140,7 +17797,8 @@
       <c r="B307" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C307" s="3" t="b">
+      <c r="C307" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
@@ -17149,13 +17807,16 @@
       <c r="E307" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F307" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J307" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M307" s="6" t="b">
+      <c r="F307" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J307" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M307" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P307" s="8" t="n">
@@ -17178,34 +17839,40 @@
       <c r="B308" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C308" s="3" t="b">
+      <c r="C308" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F308" s="3" t="b">
+      <c r="F308" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H308" s="3" t="b">
+      <c r="H308" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J308" s="3" t="b">
+      <c r="J308" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K308" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L308" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M308" s="6" t="b">
+      <c r="L308" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M308" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P308" s="8" t="n">
@@ -17237,34 +17904,40 @@
       <c r="B309" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C309" s="3" t="b">
+      <c r="C309" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F309" s="3" t="b">
+      <c r="F309" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H309" s="3" t="b">
+      <c r="H309" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J309" s="3" t="b">
+      <c r="J309" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K309" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L309" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M309" s="6" t="b">
+      <c r="L309" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M309" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P309" s="8" t="n">
@@ -17296,7 +17969,8 @@
       <c r="B310" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C310" s="3" t="b">
+      <c r="C310" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
@@ -17305,28 +17979,33 @@
       <c r="E310" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F310" s="3" t="b">
+      <c r="F310" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H310" s="3" t="b">
+      <c r="H310" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J310" s="3" t="b">
+      <c r="J310" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K310" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L310" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M310" s="6" t="b">
+      <c r="L310" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M310" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P310" s="8" t="n">
@@ -17358,7 +18037,8 @@
       <c r="B311" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C311" s="3" t="b">
+      <c r="C311" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
@@ -17367,28 +18047,33 @@
       <c r="E311" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F311" s="3" t="b">
+      <c r="F311" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H311" s="3" t="b">
+      <c r="H311" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J311" s="3" t="b">
+      <c r="J311" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K311" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L311" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M311" s="6" t="b">
+      <c r="L311" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M311" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P311" s="8" t="n">
@@ -17420,34 +18105,40 @@
       <c r="B312" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C312" s="3" t="b">
+      <c r="C312" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F312" s="3" t="b">
+      <c r="F312" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H312" s="3" t="b">
+      <c r="H312" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J312" s="3" t="b">
+      <c r="J312" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K312" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L312" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M312" s="6" t="b">
+      <c r="L312" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M312" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P312" s="8" t="n">
@@ -17479,34 +18170,40 @@
       <c r="B313" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C313" s="3" t="b">
+      <c r="C313" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F313" s="3" t="b">
+      <c r="F313" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H313" s="3" t="b">
+      <c r="H313" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I313" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J313" s="3" t="b">
+      <c r="J313" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K313" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L313" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M313" s="6" t="b">
+      <c r="L313" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M313" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P313" s="8" t="n">
@@ -17538,7 +18235,8 @@
       <c r="B314" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C314" s="3" t="b">
+      <c r="C314" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D314" s="4" t="s">
@@ -17547,28 +18245,33 @@
       <c r="E314" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F314" s="3" t="b">
+      <c r="F314" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H314" s="3" t="b">
+      <c r="H314" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I314" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J314" s="3" t="b">
+      <c r="J314" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K314" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L314" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M314" s="6" t="b">
+      <c r="L314" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M314" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P314" s="8" t="n">
@@ -17600,7 +18303,8 @@
       <c r="B315" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C315" s="3" t="b">
+      <c r="C315" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D315" s="4" t="s">
@@ -17609,28 +18313,33 @@
       <c r="E315" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F315" s="3" t="b">
+      <c r="F315" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H315" s="3" t="b">
+      <c r="H315" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I315" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J315" s="3" t="b">
+      <c r="J315" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K315" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L315" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M315" s="6" t="b">
+      <c r="L315" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M315" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P315" s="8" t="n">
@@ -17662,34 +18371,40 @@
       <c r="B316" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C316" s="3" t="b">
+      <c r="C316" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F316" s="3" t="b">
+      <c r="F316" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H316" s="3" t="b">
+      <c r="H316" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J316" s="3" t="b">
+      <c r="J316" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K316" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L316" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M316" s="6" t="b">
+      <c r="L316" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M316" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P316" s="8" t="n">
@@ -17721,34 +18436,40 @@
       <c r="B317" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C317" s="3" t="b">
+      <c r="C317" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F317" s="3" t="b">
+      <c r="F317" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H317" s="3" t="b">
+      <c r="H317" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I317" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J317" s="3" t="b">
+      <c r="J317" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K317" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L317" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M317" s="6" t="b">
+      <c r="L317" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M317" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P317" s="8" t="n">
@@ -17780,7 +18501,8 @@
       <c r="B318" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C318" s="3" t="b">
+      <c r="C318" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D318" s="4" t="s">
@@ -17789,28 +18511,33 @@
       <c r="E318" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F318" s="3" t="b">
+      <c r="F318" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H318" s="3" t="b">
+      <c r="H318" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I318" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J318" s="3" t="b">
+      <c r="J318" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K318" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L318" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M318" s="6" t="b">
+      <c r="L318" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M318" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P318" s="8" t="n">
@@ -17842,7 +18569,8 @@
       <c r="B319" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C319" s="3" t="b">
+      <c r="C319" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D319" s="4" t="s">
@@ -17851,28 +18579,33 @@
       <c r="E319" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F319" s="3" t="b">
+      <c r="F319" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H319" s="3" t="b">
+      <c r="H319" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I319" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J319" s="3" t="b">
+      <c r="J319" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K319" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L319" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M319" s="6" t="b">
+      <c r="L319" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M319" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P319" s="8" t="n">
@@ -17904,34 +18637,40 @@
       <c r="B320" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C320" s="3" t="b">
+      <c r="C320" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F320" s="3" t="b">
+      <c r="F320" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H320" s="3" t="b">
+      <c r="H320" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J320" s="3" t="b">
+      <c r="J320" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K320" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L320" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M320" s="6" t="b">
+      <c r="L320" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M320" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P320" s="8" t="n">
@@ -17963,34 +18702,40 @@
       <c r="B321" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C321" s="3" t="b">
+      <c r="C321" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F321" s="3" t="b">
+      <c r="F321" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H321" s="3" t="b">
+      <c r="H321" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I321" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J321" s="3" t="b">
+      <c r="J321" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K321" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L321" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M321" s="6" t="b">
+      <c r="L321" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M321" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P321" s="8" t="n">
@@ -18019,55 +18764,64 @@
       <c r="A322" s="18" t="n">
         <v>321</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C322" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E322" s="4" t="s">
+      <c r="C322" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D322" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E322" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F322" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G322" s="2" t="s">
+      <c r="F322" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G322" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H322" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I322" s="2" t="s">
+      <c r="H322" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I322" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J322" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K322" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L322" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M322" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P322" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q322" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R322" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S322" s="9" t="n">
+      <c r="L322" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M322" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N322" s="28"/>
+      <c r="O322" s="28"/>
+      <c r="P322" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S322" s="28" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U322" s="11" t="s">
+      <c r="T322" s="28"/>
+      <c r="U322" s="28" t="s">
         <v>26</v>
       </c>
       <c r="V322" s="1" t="n">
@@ -18081,55 +18835,64 @@
       <c r="A323" s="18" t="n">
         <v>322</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C323" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E323" s="4" t="s">
+      <c r="C323" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D323" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E323" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F323" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2" t="s">
+      <c r="F323" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G323" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H323" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I323" s="2" t="s">
+      <c r="H323" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I323" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J323" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K323" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L323" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M323" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P323" s="8" t="n">
+      <c r="L323" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M323" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N323" s="28"/>
+      <c r="O323" s="28"/>
+      <c r="P323" s="28" t="n">
         <v>-1</v>
       </c>
-      <c r="Q323" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R323" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S323" s="9" t="n">
+      <c r="Q323" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="U323" s="11" t="s">
+      <c r="T323" s="28"/>
+      <c r="U323" s="28" t="s">
         <v>27</v>
       </c>
       <c r="V323" s="1" t="n">
@@ -18143,52 +18906,62 @@
       <c r="A324" s="18" t="n">
         <v>323</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C324" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F324" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2" t="s">
+      <c r="C324" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D324" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E324" s="28"/>
+      <c r="F324" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G324" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H324" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I324" s="2" t="s">
+      <c r="H324" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I324" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J324" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="31" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K324" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L324" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M324" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P324" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q324" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R324" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S324" s="9" t="n">
+      <c r="L324" s="31" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M324" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N324" s="28"/>
+      <c r="O324" s="28"/>
+      <c r="P324" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S324" s="28" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U324" s="11" t="s">
+      <c r="T324" s="28"/>
+      <c r="U324" s="28" t="s">
         <v>28</v>
       </c>
       <c r="V324" s="1" t="n">
@@ -18202,52 +18975,62 @@
       <c r="A325" s="18" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C325" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F325" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2" t="s">
+      <c r="C325" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D325" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E325" s="28"/>
+      <c r="F325" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G325" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H325" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I325" s="2" t="s">
+      <c r="H325" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I325" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J325" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K325" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L325" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M325" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P325" s="8" t="n">
+      <c r="L325" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M325" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N325" s="28"/>
+      <c r="O325" s="28"/>
+      <c r="P325" s="28" t="n">
         <v>-1</v>
       </c>
-      <c r="Q325" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R325" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S325" s="9" t="n">
+      <c r="Q325" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S325" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="U325" s="11" t="s">
+      <c r="T325" s="28"/>
+      <c r="U325" s="28" t="s">
         <v>27</v>
       </c>
       <c r="V325" s="1" t="n">
@@ -18261,55 +19044,64 @@
       <c r="A326" s="18" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C326" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E326" s="4" t="s">
+      <c r="C326" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D326" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E326" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F326" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2" t="s">
+      <c r="F326" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G326" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H326" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I326" s="2" t="s">
+      <c r="H326" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I326" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J326" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K326" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L326" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M326" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P326" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R326" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S326" s="9" t="n">
+      <c r="L326" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M326" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N326" s="28"/>
+      <c r="O326" s="28"/>
+      <c r="P326" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" s="28" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U326" s="11" t="s">
+      <c r="T326" s="28"/>
+      <c r="U326" s="28" t="s">
         <v>30</v>
       </c>
       <c r="V326" s="1" t="n">
@@ -18323,55 +19115,64 @@
       <c r="A327" s="18" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C327" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E327" s="4" t="s">
+      <c r="C327" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D327" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E327" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F327" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2" t="s">
+      <c r="F327" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G327" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H327" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I327" s="2" t="s">
+      <c r="H327" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I327" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J327" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="32" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K327" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L327" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M327" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P327" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q327" s="9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="R327" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S327" s="9" t="n">
+      <c r="L327" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M327" s="32" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N327" s="28"/>
+      <c r="O327" s="28"/>
+      <c r="P327" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="U327" s="11" t="s">
+      <c r="T327" s="28"/>
+      <c r="U327" s="28" t="s">
         <v>31</v>
       </c>
       <c r="V327" s="1" t="n">
@@ -18380,6 +19181,2214 @@
       <c r="W327" s="19" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="28"/>
+      <c r="B328" s="28"/>
+      <c r="C328" s="32"/>
+      <c r="D328" s="28"/>
+      <c r="E328" s="28"/>
+      <c r="F328" s="32"/>
+      <c r="G328" s="28"/>
+      <c r="H328" s="28"/>
+      <c r="I328" s="28"/>
+      <c r="J328" s="32"/>
+      <c r="K328" s="28"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="32"/>
+      <c r="N328" s="28"/>
+      <c r="O328" s="28"/>
+      <c r="P328" s="28"/>
+      <c r="Q328" s="28"/>
+      <c r="R328" s="28"/>
+      <c r="S328" s="28"/>
+      <c r="T328" s="28"/>
+      <c r="U328" s="28"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="28"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="32"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="32"/>
+      <c r="G329" s="28"/>
+      <c r="H329" s="28"/>
+      <c r="I329" s="28"/>
+      <c r="J329" s="32"/>
+      <c r="K329" s="28"/>
+      <c r="L329" s="28"/>
+      <c r="M329" s="32"/>
+      <c r="N329" s="28"/>
+      <c r="O329" s="28"/>
+      <c r="P329" s="28"/>
+      <c r="Q329" s="28"/>
+      <c r="R329" s="28"/>
+      <c r="S329" s="28"/>
+      <c r="T329" s="28"/>
+      <c r="U329" s="28"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="28"/>
+      <c r="B330" s="28"/>
+      <c r="C330" s="32"/>
+      <c r="D330" s="28"/>
+      <c r="E330" s="28"/>
+      <c r="F330" s="32"/>
+      <c r="G330" s="28"/>
+      <c r="H330" s="28"/>
+      <c r="I330" s="28"/>
+      <c r="J330" s="32"/>
+      <c r="K330" s="28"/>
+      <c r="L330" s="28"/>
+      <c r="M330" s="32"/>
+      <c r="N330" s="28"/>
+      <c r="O330" s="28"/>
+      <c r="P330" s="28"/>
+      <c r="Q330" s="28"/>
+      <c r="R330" s="28"/>
+      <c r="S330" s="28"/>
+      <c r="T330" s="28"/>
+      <c r="U330" s="28"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="28"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="32"/>
+      <c r="D331" s="28"/>
+      <c r="E331" s="28"/>
+      <c r="F331" s="32"/>
+      <c r="G331" s="28"/>
+      <c r="H331" s="28"/>
+      <c r="I331" s="28"/>
+      <c r="J331" s="32"/>
+      <c r="K331" s="28"/>
+      <c r="L331" s="28"/>
+      <c r="M331" s="32"/>
+      <c r="N331" s="28"/>
+      <c r="O331" s="28"/>
+      <c r="P331" s="28"/>
+      <c r="Q331" s="28"/>
+      <c r="R331" s="28"/>
+      <c r="S331" s="28"/>
+      <c r="T331" s="28"/>
+      <c r="U331" s="28"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="28"/>
+      <c r="B332" s="28"/>
+      <c r="C332" s="32"/>
+      <c r="D332" s="28"/>
+      <c r="E332" s="28"/>
+      <c r="F332" s="32"/>
+      <c r="G332" s="28"/>
+      <c r="H332" s="28"/>
+      <c r="I332" s="28"/>
+      <c r="J332" s="32"/>
+      <c r="K332" s="28"/>
+      <c r="L332" s="28"/>
+      <c r="M332" s="32"/>
+      <c r="N332" s="28"/>
+      <c r="O332" s="28"/>
+      <c r="P332" s="28"/>
+      <c r="Q332" s="28"/>
+      <c r="R332" s="28"/>
+      <c r="S332" s="28"/>
+      <c r="T332" s="28"/>
+      <c r="U332" s="28"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="32"/>
+      <c r="D333" s="28"/>
+      <c r="E333" s="28"/>
+      <c r="F333" s="32"/>
+      <c r="G333" s="28"/>
+      <c r="H333" s="28"/>
+      <c r="I333" s="28"/>
+      <c r="J333" s="32"/>
+      <c r="K333" s="28"/>
+      <c r="L333" s="28"/>
+      <c r="M333" s="32"/>
+      <c r="N333" s="28"/>
+      <c r="O333" s="28"/>
+      <c r="P333" s="28"/>
+      <c r="Q333" s="28"/>
+      <c r="R333" s="28"/>
+      <c r="S333" s="28"/>
+      <c r="T333" s="28"/>
+      <c r="U333" s="28"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="32"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
+      <c r="F334" s="32"/>
+      <c r="G334" s="28"/>
+      <c r="H334" s="28"/>
+      <c r="I334" s="28"/>
+      <c r="J334" s="32"/>
+      <c r="K334" s="28"/>
+      <c r="L334" s="28"/>
+      <c r="M334" s="32"/>
+      <c r="N334" s="28"/>
+      <c r="O334" s="28"/>
+      <c r="P334" s="28"/>
+      <c r="Q334" s="28"/>
+      <c r="R334" s="28"/>
+      <c r="S334" s="28"/>
+      <c r="T334" s="28"/>
+      <c r="U334" s="28"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="28"/>
+      <c r="B335" s="28"/>
+      <c r="C335" s="28"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
+      <c r="H335" s="28"/>
+      <c r="I335" s="28"/>
+      <c r="J335" s="28"/>
+      <c r="K335" s="28"/>
+      <c r="L335" s="28"/>
+      <c r="M335" s="28"/>
+      <c r="N335" s="28"/>
+      <c r="O335" s="28"/>
+      <c r="P335" s="28"/>
+      <c r="Q335" s="28"/>
+      <c r="R335" s="28"/>
+      <c r="S335" s="28"/>
+      <c r="T335" s="28"/>
+      <c r="U335" s="28"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
+      <c r="C336" s="28"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="28"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
+      <c r="H336" s="28"/>
+      <c r="I336" s="28"/>
+      <c r="J336" s="28"/>
+      <c r="K336" s="28"/>
+      <c r="L336" s="28"/>
+      <c r="M336" s="28"/>
+      <c r="N336" s="28"/>
+      <c r="O336" s="28"/>
+      <c r="P336" s="28"/>
+      <c r="Q336" s="28"/>
+      <c r="R336" s="28"/>
+      <c r="S336" s="28"/>
+      <c r="T336" s="28"/>
+      <c r="U336" s="28"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="28"/>
+      <c r="B337" s="28"/>
+      <c r="C337" s="28"/>
+      <c r="D337" s="28"/>
+      <c r="E337" s="28"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
+      <c r="H337" s="28"/>
+      <c r="I337" s="28"/>
+      <c r="J337" s="28"/>
+      <c r="K337" s="28"/>
+      <c r="L337" s="28"/>
+      <c r="M337" s="28"/>
+      <c r="N337" s="28"/>
+      <c r="O337" s="28"/>
+      <c r="P337" s="28"/>
+      <c r="Q337" s="28"/>
+      <c r="R337" s="28"/>
+      <c r="S337" s="28"/>
+      <c r="T337" s="28"/>
+      <c r="U337" s="28"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="28"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
+      <c r="H338" s="28"/>
+      <c r="I338" s="28"/>
+      <c r="J338" s="28"/>
+      <c r="K338" s="28"/>
+      <c r="L338" s="28"/>
+      <c r="M338" s="28"/>
+      <c r="N338" s="28"/>
+      <c r="O338" s="28"/>
+      <c r="P338" s="28"/>
+      <c r="Q338" s="28"/>
+      <c r="R338" s="28"/>
+      <c r="S338" s="28"/>
+      <c r="T338" s="28"/>
+      <c r="U338" s="28"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="28"/>
+      <c r="B339" s="28"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
+      <c r="H339" s="28"/>
+      <c r="I339" s="28"/>
+      <c r="J339" s="28"/>
+      <c r="K339" s="28"/>
+      <c r="L339" s="28"/>
+      <c r="M339" s="28"/>
+      <c r="N339" s="28"/>
+      <c r="O339" s="28"/>
+      <c r="P339" s="28"/>
+      <c r="Q339" s="28"/>
+      <c r="R339" s="28"/>
+      <c r="S339" s="28"/>
+      <c r="T339" s="28"/>
+      <c r="U339" s="28"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="28"/>
+      <c r="B340" s="28"/>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
+      <c r="H340" s="28"/>
+      <c r="I340" s="28"/>
+      <c r="J340" s="28"/>
+      <c r="K340" s="28"/>
+      <c r="L340" s="28"/>
+      <c r="M340" s="28"/>
+      <c r="N340" s="28"/>
+      <c r="O340" s="28"/>
+      <c r="P340" s="28"/>
+      <c r="Q340" s="28"/>
+      <c r="R340" s="28"/>
+      <c r="S340" s="28"/>
+      <c r="T340" s="28"/>
+      <c r="U340" s="28"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="28"/>
+      <c r="B341" s="28"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="28"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
+      <c r="H341" s="28"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="28"/>
+      <c r="K341" s="28"/>
+      <c r="L341" s="28"/>
+      <c r="M341" s="28"/>
+      <c r="N341" s="28"/>
+      <c r="O341" s="28"/>
+      <c r="P341" s="28"/>
+      <c r="Q341" s="28"/>
+      <c r="R341" s="28"/>
+      <c r="S341" s="28"/>
+      <c r="T341" s="28"/>
+      <c r="U341" s="28"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="28"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
+      <c r="H342" s="28"/>
+      <c r="I342" s="28"/>
+      <c r="J342" s="28"/>
+      <c r="K342" s="28"/>
+      <c r="L342" s="28"/>
+      <c r="M342" s="28"/>
+      <c r="N342" s="28"/>
+      <c r="O342" s="28"/>
+      <c r="P342" s="28"/>
+      <c r="Q342" s="28"/>
+      <c r="R342" s="28"/>
+      <c r="S342" s="28"/>
+      <c r="T342" s="28"/>
+      <c r="U342" s="28"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="28"/>
+      <c r="B343" s="28"/>
+      <c r="C343" s="28"/>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
+      <c r="H343" s="28"/>
+      <c r="I343" s="28"/>
+      <c r="J343" s="28"/>
+      <c r="K343" s="28"/>
+      <c r="L343" s="28"/>
+      <c r="M343" s="28"/>
+      <c r="N343" s="28"/>
+      <c r="O343" s="28"/>
+      <c r="P343" s="28"/>
+      <c r="Q343" s="28"/>
+      <c r="R343" s="28"/>
+      <c r="S343" s="28"/>
+      <c r="T343" s="28"/>
+      <c r="U343" s="28"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="28"/>
+      <c r="B344" s="28"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="28"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
+      <c r="H344" s="28"/>
+      <c r="I344" s="28"/>
+      <c r="J344" s="28"/>
+      <c r="K344" s="28"/>
+      <c r="L344" s="28"/>
+      <c r="M344" s="28"/>
+      <c r="N344" s="28"/>
+      <c r="O344" s="28"/>
+      <c r="P344" s="28"/>
+      <c r="Q344" s="28"/>
+      <c r="R344" s="28"/>
+      <c r="S344" s="28"/>
+      <c r="T344" s="28"/>
+      <c r="U344" s="28"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
+      <c r="H345" s="28"/>
+      <c r="I345" s="28"/>
+      <c r="J345" s="28"/>
+      <c r="K345" s="28"/>
+      <c r="L345" s="28"/>
+      <c r="M345" s="28"/>
+      <c r="N345" s="28"/>
+      <c r="O345" s="28"/>
+      <c r="P345" s="28"/>
+      <c r="Q345" s="28"/>
+      <c r="R345" s="28"/>
+      <c r="S345" s="28"/>
+      <c r="T345" s="28"/>
+      <c r="U345" s="28"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="28"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="28"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
+      <c r="H346" s="32"/>
+      <c r="I346" s="28"/>
+      <c r="J346" s="28"/>
+      <c r="K346" s="28"/>
+      <c r="L346" s="28"/>
+      <c r="M346" s="28"/>
+      <c r="N346" s="28"/>
+      <c r="O346" s="28"/>
+      <c r="P346" s="28"/>
+      <c r="Q346" s="28"/>
+      <c r="R346" s="28"/>
+      <c r="S346" s="28"/>
+      <c r="T346" s="28"/>
+      <c r="U346" s="28"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="28"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
+      <c r="H347" s="32"/>
+      <c r="I347" s="28"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="28"/>
+      <c r="L347" s="28"/>
+      <c r="M347" s="28"/>
+      <c r="N347" s="28"/>
+      <c r="O347" s="28"/>
+      <c r="P347" s="28"/>
+      <c r="Q347" s="28"/>
+      <c r="R347" s="28"/>
+      <c r="S347" s="28"/>
+      <c r="T347" s="28"/>
+      <c r="U347" s="28"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="28"/>
+      <c r="B348" s="28"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
+      <c r="H348" s="32"/>
+      <c r="I348" s="28"/>
+      <c r="J348" s="28"/>
+      <c r="K348" s="28"/>
+      <c r="L348" s="28"/>
+      <c r="M348" s="28"/>
+      <c r="N348" s="28"/>
+      <c r="O348" s="28"/>
+      <c r="P348" s="28"/>
+      <c r="Q348" s="28"/>
+      <c r="R348" s="28"/>
+      <c r="S348" s="28"/>
+      <c r="T348" s="28"/>
+      <c r="U348" s="28"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="28"/>
+      <c r="B349" s="28"/>
+      <c r="C349" s="28"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
+      <c r="H349" s="32"/>
+      <c r="I349" s="28"/>
+      <c r="J349" s="28"/>
+      <c r="K349" s="28"/>
+      <c r="L349" s="28"/>
+      <c r="M349" s="28"/>
+      <c r="N349" s="28"/>
+      <c r="O349" s="28"/>
+      <c r="P349" s="28"/>
+      <c r="Q349" s="28"/>
+      <c r="R349" s="28"/>
+      <c r="S349" s="28"/>
+      <c r="T349" s="28"/>
+      <c r="U349" s="28"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="28"/>
+      <c r="B350" s="28"/>
+      <c r="C350" s="28"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
+      <c r="H350" s="32"/>
+      <c r="I350" s="28"/>
+      <c r="J350" s="28"/>
+      <c r="K350" s="28"/>
+      <c r="L350" s="28"/>
+      <c r="M350" s="28"/>
+      <c r="N350" s="28"/>
+      <c r="O350" s="28"/>
+      <c r="P350" s="28"/>
+      <c r="Q350" s="28"/>
+      <c r="R350" s="28"/>
+      <c r="S350" s="28"/>
+      <c r="T350" s="28"/>
+      <c r="U350" s="28"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="28"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="28"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="28"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
+      <c r="H351" s="32"/>
+      <c r="I351" s="28"/>
+      <c r="J351" s="28"/>
+      <c r="K351" s="28"/>
+      <c r="L351" s="28"/>
+      <c r="M351" s="28"/>
+      <c r="N351" s="28"/>
+      <c r="O351" s="28"/>
+      <c r="P351" s="28"/>
+      <c r="Q351" s="28"/>
+      <c r="R351" s="28"/>
+      <c r="S351" s="28"/>
+      <c r="T351" s="28"/>
+      <c r="U351" s="28"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="28"/>
+      <c r="B352" s="28"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
+      <c r="H352" s="32"/>
+      <c r="I352" s="28"/>
+      <c r="J352" s="28"/>
+      <c r="K352" s="28"/>
+      <c r="L352" s="28"/>
+      <c r="M352" s="28"/>
+      <c r="N352" s="28"/>
+      <c r="O352" s="28"/>
+      <c r="P352" s="28"/>
+      <c r="Q352" s="28"/>
+      <c r="R352" s="28"/>
+      <c r="S352" s="28"/>
+      <c r="T352" s="28"/>
+      <c r="U352" s="28"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="28"/>
+      <c r="B353" s="28"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
+      <c r="H353" s="28"/>
+      <c r="I353" s="28"/>
+      <c r="J353" s="28"/>
+      <c r="K353" s="28"/>
+      <c r="L353" s="28"/>
+      <c r="M353" s="28"/>
+      <c r="N353" s="28"/>
+      <c r="O353" s="28"/>
+      <c r="P353" s="28"/>
+      <c r="Q353" s="28"/>
+      <c r="R353" s="28"/>
+      <c r="S353" s="28"/>
+      <c r="T353" s="28"/>
+      <c r="U353" s="28"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="28"/>
+      <c r="B354" s="28"/>
+      <c r="C354" s="28"/>
+      <c r="D354" s="28"/>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
+      <c r="H354" s="28"/>
+      <c r="I354" s="28"/>
+      <c r="J354" s="28"/>
+      <c r="K354" s="28"/>
+      <c r="L354" s="28"/>
+      <c r="M354" s="28"/>
+      <c r="N354" s="28"/>
+      <c r="O354" s="28"/>
+      <c r="P354" s="28"/>
+      <c r="Q354" s="28"/>
+      <c r="R354" s="28"/>
+      <c r="S354" s="28"/>
+      <c r="T354" s="28"/>
+      <c r="U354" s="28"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="28"/>
+      <c r="B355" s="28"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="E355" s="28"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
+      <c r="H355" s="28"/>
+      <c r="I355" s="28"/>
+      <c r="J355" s="28"/>
+      <c r="K355" s="28"/>
+      <c r="L355" s="28"/>
+      <c r="M355" s="28"/>
+      <c r="N355" s="28"/>
+      <c r="O355" s="28"/>
+      <c r="P355" s="28"/>
+      <c r="Q355" s="28"/>
+      <c r="R355" s="28"/>
+      <c r="S355" s="28"/>
+      <c r="T355" s="28"/>
+      <c r="U355" s="28"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="28"/>
+      <c r="B356" s="28"/>
+      <c r="C356" s="28"/>
+      <c r="D356" s="28"/>
+      <c r="E356" s="28"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
+      <c r="H356" s="28"/>
+      <c r="I356" s="28"/>
+      <c r="J356" s="28"/>
+      <c r="K356" s="28"/>
+      <c r="L356" s="28"/>
+      <c r="M356" s="28"/>
+      <c r="N356" s="28"/>
+      <c r="O356" s="28"/>
+      <c r="P356" s="28"/>
+      <c r="Q356" s="28"/>
+      <c r="R356" s="28"/>
+      <c r="S356" s="28"/>
+      <c r="T356" s="28"/>
+      <c r="U356" s="28"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="28"/>
+      <c r="B357" s="28"/>
+      <c r="C357" s="28"/>
+      <c r="D357" s="28"/>
+      <c r="E357" s="28"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
+      <c r="H357" s="28"/>
+      <c r="I357" s="28"/>
+      <c r="J357" s="28"/>
+      <c r="K357" s="28"/>
+      <c r="L357" s="28"/>
+      <c r="M357" s="28"/>
+      <c r="N357" s="28"/>
+      <c r="O357" s="28"/>
+      <c r="P357" s="28"/>
+      <c r="Q357" s="28"/>
+      <c r="R357" s="28"/>
+      <c r="S357" s="28"/>
+      <c r="T357" s="28"/>
+      <c r="U357" s="28"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="28"/>
+      <c r="B358" s="28"/>
+      <c r="C358" s="28"/>
+      <c r="D358" s="28"/>
+      <c r="E358" s="28"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
+      <c r="H358" s="28"/>
+      <c r="I358" s="28"/>
+      <c r="J358" s="28"/>
+      <c r="K358" s="28"/>
+      <c r="L358" s="28"/>
+      <c r="M358" s="28"/>
+      <c r="N358" s="28"/>
+      <c r="O358" s="28"/>
+      <c r="P358" s="28"/>
+      <c r="Q358" s="28"/>
+      <c r="R358" s="28"/>
+      <c r="S358" s="28"/>
+      <c r="T358" s="28"/>
+      <c r="U358" s="28"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="28"/>
+      <c r="B359" s="28"/>
+      <c r="C359" s="28"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="28"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
+      <c r="H359" s="28"/>
+      <c r="I359" s="28"/>
+      <c r="J359" s="28"/>
+      <c r="K359" s="28"/>
+      <c r="L359" s="28"/>
+      <c r="M359" s="28"/>
+      <c r="N359" s="28"/>
+      <c r="O359" s="28"/>
+      <c r="P359" s="28"/>
+      <c r="Q359" s="28"/>
+      <c r="R359" s="28"/>
+      <c r="S359" s="28"/>
+      <c r="T359" s="28"/>
+      <c r="U359" s="28"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="28"/>
+      <c r="B360" s="28"/>
+      <c r="C360" s="32"/>
+      <c r="D360" s="28"/>
+      <c r="E360" s="28"/>
+      <c r="F360" s="32"/>
+      <c r="G360" s="28"/>
+      <c r="H360" s="28"/>
+      <c r="I360" s="28"/>
+      <c r="J360" s="32"/>
+      <c r="K360" s="28"/>
+      <c r="L360" s="28"/>
+      <c r="M360" s="32"/>
+      <c r="N360" s="28"/>
+      <c r="O360" s="28"/>
+      <c r="P360" s="28"/>
+      <c r="Q360" s="28"/>
+      <c r="R360" s="28"/>
+      <c r="S360" s="28"/>
+      <c r="T360" s="28"/>
+      <c r="U360" s="28"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="28"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="32"/>
+      <c r="D361" s="28"/>
+      <c r="E361" s="28"/>
+      <c r="F361" s="32"/>
+      <c r="G361" s="28"/>
+      <c r="H361" s="28"/>
+      <c r="I361" s="28"/>
+      <c r="J361" s="32"/>
+      <c r="K361" s="28"/>
+      <c r="L361" s="28"/>
+      <c r="M361" s="32"/>
+      <c r="N361" s="28"/>
+      <c r="O361" s="28"/>
+      <c r="P361" s="28"/>
+      <c r="Q361" s="28"/>
+      <c r="R361" s="28"/>
+      <c r="S361" s="28"/>
+      <c r="T361" s="28"/>
+      <c r="U361" s="28"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="28"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="32"/>
+      <c r="D362" s="28"/>
+      <c r="E362" s="28"/>
+      <c r="F362" s="32"/>
+      <c r="G362" s="28"/>
+      <c r="H362" s="28"/>
+      <c r="I362" s="28"/>
+      <c r="J362" s="32"/>
+      <c r="K362" s="28"/>
+      <c r="L362" s="28"/>
+      <c r="M362" s="32"/>
+      <c r="N362" s="28"/>
+      <c r="O362" s="28"/>
+      <c r="P362" s="28"/>
+      <c r="Q362" s="28"/>
+      <c r="R362" s="28"/>
+      <c r="S362" s="28"/>
+      <c r="T362" s="28"/>
+      <c r="U362" s="28"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="28"/>
+      <c r="B363" s="28"/>
+      <c r="C363" s="32"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="28"/>
+      <c r="F363" s="32"/>
+      <c r="G363" s="28"/>
+      <c r="H363" s="28"/>
+      <c r="I363" s="28"/>
+      <c r="J363" s="32"/>
+      <c r="K363" s="28"/>
+      <c r="L363" s="28"/>
+      <c r="M363" s="32"/>
+      <c r="N363" s="28"/>
+      <c r="O363" s="28"/>
+      <c r="P363" s="28"/>
+      <c r="Q363" s="28"/>
+      <c r="R363" s="28"/>
+      <c r="S363" s="28"/>
+      <c r="T363" s="28"/>
+      <c r="U363" s="28"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="28"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="32"/>
+      <c r="D364" s="28"/>
+      <c r="E364" s="28"/>
+      <c r="F364" s="32"/>
+      <c r="G364" s="28"/>
+      <c r="H364" s="28"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="32"/>
+      <c r="K364" s="28"/>
+      <c r="L364" s="28"/>
+      <c r="M364" s="32"/>
+      <c r="N364" s="28"/>
+      <c r="O364" s="28"/>
+      <c r="P364" s="28"/>
+      <c r="Q364" s="28"/>
+      <c r="R364" s="28"/>
+      <c r="S364" s="28"/>
+      <c r="T364" s="28"/>
+      <c r="U364" s="28"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="28"/>
+      <c r="B365" s="28"/>
+      <c r="C365" s="32"/>
+      <c r="D365" s="28"/>
+      <c r="E365" s="28"/>
+      <c r="F365" s="32"/>
+      <c r="G365" s="28"/>
+      <c r="H365" s="28"/>
+      <c r="I365" s="28"/>
+      <c r="J365" s="32"/>
+      <c r="K365" s="28"/>
+      <c r="L365" s="28"/>
+      <c r="M365" s="32"/>
+      <c r="N365" s="28"/>
+      <c r="O365" s="28"/>
+      <c r="P365" s="28"/>
+      <c r="Q365" s="28"/>
+      <c r="R365" s="28"/>
+      <c r="S365" s="28"/>
+      <c r="T365" s="28"/>
+      <c r="U365" s="28"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="28"/>
+      <c r="B366" s="28"/>
+      <c r="C366" s="32"/>
+      <c r="D366" s="28"/>
+      <c r="E366" s="28"/>
+      <c r="F366" s="32"/>
+      <c r="G366" s="28"/>
+      <c r="H366" s="28"/>
+      <c r="I366" s="28"/>
+      <c r="J366" s="32"/>
+      <c r="K366" s="28"/>
+      <c r="L366" s="28"/>
+      <c r="M366" s="32"/>
+      <c r="N366" s="28"/>
+      <c r="O366" s="28"/>
+      <c r="P366" s="28"/>
+      <c r="Q366" s="28"/>
+      <c r="R366" s="28"/>
+      <c r="S366" s="28"/>
+      <c r="T366" s="28"/>
+      <c r="U366" s="28"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="28"/>
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="28"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
+      <c r="H367" s="28"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
+      <c r="L367" s="28"/>
+      <c r="M367" s="28"/>
+      <c r="N367" s="28"/>
+      <c r="O367" s="28"/>
+      <c r="P367" s="28"/>
+      <c r="Q367" s="28"/>
+      <c r="R367" s="28"/>
+      <c r="S367" s="28"/>
+      <c r="T367" s="28"/>
+      <c r="U367" s="28"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="28"/>
+      <c r="B368" s="28"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="28"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
+      <c r="H368" s="28"/>
+      <c r="I368" s="28"/>
+      <c r="J368" s="28"/>
+      <c r="K368" s="28"/>
+      <c r="L368" s="28"/>
+      <c r="M368" s="28"/>
+      <c r="N368" s="28"/>
+      <c r="O368" s="28"/>
+      <c r="P368" s="28"/>
+      <c r="Q368" s="28"/>
+      <c r="R368" s="28"/>
+      <c r="S368" s="28"/>
+      <c r="T368" s="28"/>
+      <c r="U368" s="28"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="28"/>
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="28"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
+      <c r="H369" s="28"/>
+      <c r="I369" s="28"/>
+      <c r="J369" s="28"/>
+      <c r="K369" s="28"/>
+      <c r="L369" s="28"/>
+      <c r="M369" s="28"/>
+      <c r="N369" s="28"/>
+      <c r="O369" s="28"/>
+      <c r="P369" s="28"/>
+      <c r="Q369" s="28"/>
+      <c r="R369" s="28"/>
+      <c r="S369" s="28"/>
+      <c r="T369" s="28"/>
+      <c r="U369" s="28"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="28"/>
+      <c r="B370" s="28"/>
+      <c r="C370" s="28"/>
+      <c r="D370" s="28"/>
+      <c r="E370" s="28"/>
+      <c r="F370" s="28"/>
+      <c r="G370" s="28"/>
+      <c r="H370" s="28"/>
+      <c r="I370" s="28"/>
+      <c r="J370" s="28"/>
+      <c r="K370" s="28"/>
+      <c r="L370" s="28"/>
+      <c r="M370" s="28"/>
+      <c r="N370" s="28"/>
+      <c r="O370" s="28"/>
+      <c r="P370" s="28"/>
+      <c r="Q370" s="28"/>
+      <c r="R370" s="28"/>
+      <c r="S370" s="28"/>
+      <c r="T370" s="28"/>
+      <c r="U370" s="28"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="28"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="28"/>
+      <c r="D371" s="28"/>
+      <c r="E371" s="28"/>
+      <c r="F371" s="28"/>
+      <c r="G371" s="28"/>
+      <c r="H371" s="28"/>
+      <c r="I371" s="28"/>
+      <c r="J371" s="28"/>
+      <c r="K371" s="28"/>
+      <c r="L371" s="28"/>
+      <c r="M371" s="28"/>
+      <c r="N371" s="28"/>
+      <c r="O371" s="28"/>
+      <c r="P371" s="28"/>
+      <c r="Q371" s="28"/>
+      <c r="R371" s="28"/>
+      <c r="S371" s="28"/>
+      <c r="T371" s="28"/>
+      <c r="U371" s="28"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="28"/>
+      <c r="B372" s="28"/>
+      <c r="C372" s="28"/>
+      <c r="D372" s="28"/>
+      <c r="E372" s="28"/>
+      <c r="F372" s="28"/>
+      <c r="G372" s="28"/>
+      <c r="H372" s="28"/>
+      <c r="I372" s="28"/>
+      <c r="J372" s="28"/>
+      <c r="K372" s="28"/>
+      <c r="L372" s="28"/>
+      <c r="M372" s="28"/>
+      <c r="N372" s="28"/>
+      <c r="O372" s="28"/>
+      <c r="P372" s="28"/>
+      <c r="Q372" s="28"/>
+      <c r="R372" s="28"/>
+      <c r="S372" s="28"/>
+      <c r="T372" s="28"/>
+      <c r="U372" s="28"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="28"/>
+      <c r="B373" s="28"/>
+      <c r="C373" s="28"/>
+      <c r="D373" s="28"/>
+      <c r="E373" s="28"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="28"/>
+      <c r="H373" s="28"/>
+      <c r="I373" s="28"/>
+      <c r="J373" s="28"/>
+      <c r="K373" s="28"/>
+      <c r="L373" s="28"/>
+      <c r="M373" s="28"/>
+      <c r="N373" s="28"/>
+      <c r="O373" s="28"/>
+      <c r="P373" s="28"/>
+      <c r="Q373" s="28"/>
+      <c r="R373" s="28"/>
+      <c r="S373" s="28"/>
+      <c r="T373" s="28"/>
+      <c r="U373" s="28"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="28"/>
+      <c r="B374" s="28"/>
+      <c r="C374" s="28"/>
+      <c r="D374" s="28"/>
+      <c r="E374" s="28"/>
+      <c r="F374" s="28"/>
+      <c r="G374" s="28"/>
+      <c r="H374" s="28"/>
+      <c r="I374" s="28"/>
+      <c r="J374" s="28"/>
+      <c r="K374" s="28"/>
+      <c r="L374" s="28"/>
+      <c r="M374" s="28"/>
+      <c r="N374" s="28"/>
+      <c r="O374" s="28"/>
+      <c r="P374" s="28"/>
+      <c r="Q374" s="28"/>
+      <c r="R374" s="28"/>
+      <c r="S374" s="28"/>
+      <c r="T374" s="28"/>
+      <c r="U374" s="28"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="28"/>
+      <c r="B375" s="28"/>
+      <c r="C375" s="28"/>
+      <c r="D375" s="28"/>
+      <c r="E375" s="28"/>
+      <c r="F375" s="28"/>
+      <c r="G375" s="28"/>
+      <c r="H375" s="28"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="28"/>
+      <c r="K375" s="28"/>
+      <c r="L375" s="28"/>
+      <c r="M375" s="28"/>
+      <c r="N375" s="28"/>
+      <c r="O375" s="28"/>
+      <c r="P375" s="28"/>
+      <c r="Q375" s="28"/>
+      <c r="R375" s="28"/>
+      <c r="S375" s="28"/>
+      <c r="T375" s="28"/>
+      <c r="U375" s="28"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="28"/>
+      <c r="B376" s="28"/>
+      <c r="C376" s="28"/>
+      <c r="D376" s="28"/>
+      <c r="E376" s="28"/>
+      <c r="F376" s="28"/>
+      <c r="G376" s="28"/>
+      <c r="H376" s="28"/>
+      <c r="I376" s="28"/>
+      <c r="J376" s="28"/>
+      <c r="K376" s="28"/>
+      <c r="L376" s="28"/>
+      <c r="M376" s="28"/>
+      <c r="N376" s="28"/>
+      <c r="O376" s="28"/>
+      <c r="P376" s="28"/>
+      <c r="Q376" s="28"/>
+      <c r="R376" s="28"/>
+      <c r="S376" s="28"/>
+      <c r="T376" s="28"/>
+      <c r="U376" s="28"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="28"/>
+      <c r="B377" s="28"/>
+      <c r="C377" s="28"/>
+      <c r="D377" s="28"/>
+      <c r="E377" s="28"/>
+      <c r="F377" s="28"/>
+      <c r="G377" s="28"/>
+      <c r="H377" s="28"/>
+      <c r="I377" s="28"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="28"/>
+      <c r="L377" s="28"/>
+      <c r="M377" s="28"/>
+      <c r="N377" s="28"/>
+      <c r="O377" s="28"/>
+      <c r="P377" s="28"/>
+      <c r="Q377" s="28"/>
+      <c r="R377" s="28"/>
+      <c r="S377" s="28"/>
+      <c r="T377" s="28"/>
+      <c r="U377" s="28"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="28"/>
+      <c r="B378" s="28"/>
+      <c r="C378" s="28"/>
+      <c r="D378" s="28"/>
+      <c r="E378" s="28"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="28"/>
+      <c r="H378" s="32"/>
+      <c r="I378" s="28"/>
+      <c r="J378" s="28"/>
+      <c r="K378" s="28"/>
+      <c r="L378" s="28"/>
+      <c r="M378" s="28"/>
+      <c r="N378" s="28"/>
+      <c r="O378" s="28"/>
+      <c r="P378" s="28"/>
+      <c r="Q378" s="28"/>
+      <c r="R378" s="28"/>
+      <c r="S378" s="28"/>
+      <c r="T378" s="28"/>
+      <c r="U378" s="28"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="28"/>
+      <c r="B379" s="28"/>
+      <c r="C379" s="28"/>
+      <c r="D379" s="28"/>
+      <c r="E379" s="28"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="28"/>
+      <c r="H379" s="32"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="28"/>
+      <c r="K379" s="28"/>
+      <c r="L379" s="28"/>
+      <c r="M379" s="28"/>
+      <c r="N379" s="28"/>
+      <c r="O379" s="28"/>
+      <c r="P379" s="28"/>
+      <c r="Q379" s="28"/>
+      <c r="R379" s="28"/>
+      <c r="S379" s="28"/>
+      <c r="T379" s="28"/>
+      <c r="U379" s="28"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="28"/>
+      <c r="B380" s="28"/>
+      <c r="C380" s="28"/>
+      <c r="D380" s="28"/>
+      <c r="E380" s="28"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
+      <c r="H380" s="32"/>
+      <c r="I380" s="28"/>
+      <c r="J380" s="28"/>
+      <c r="K380" s="28"/>
+      <c r="L380" s="28"/>
+      <c r="M380" s="28"/>
+      <c r="N380" s="28"/>
+      <c r="O380" s="28"/>
+      <c r="P380" s="28"/>
+      <c r="Q380" s="28"/>
+      <c r="R380" s="28"/>
+      <c r="S380" s="28"/>
+      <c r="T380" s="28"/>
+      <c r="U380" s="28"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="28"/>
+      <c r="B381" s="28"/>
+      <c r="C381" s="28"/>
+      <c r="D381" s="28"/>
+      <c r="E381" s="28"/>
+      <c r="F381" s="28"/>
+      <c r="G381" s="28"/>
+      <c r="H381" s="32"/>
+      <c r="I381" s="28"/>
+      <c r="J381" s="28"/>
+      <c r="K381" s="28"/>
+      <c r="L381" s="28"/>
+      <c r="M381" s="28"/>
+      <c r="N381" s="28"/>
+      <c r="O381" s="28"/>
+      <c r="P381" s="28"/>
+      <c r="Q381" s="28"/>
+      <c r="R381" s="28"/>
+      <c r="S381" s="28"/>
+      <c r="T381" s="28"/>
+      <c r="U381" s="28"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="28"/>
+      <c r="B382" s="28"/>
+      <c r="C382" s="28"/>
+      <c r="D382" s="28"/>
+      <c r="E382" s="28"/>
+      <c r="F382" s="28"/>
+      <c r="G382" s="28"/>
+      <c r="H382" s="32"/>
+      <c r="I382" s="28"/>
+      <c r="J382" s="28"/>
+      <c r="K382" s="28"/>
+      <c r="L382" s="28"/>
+      <c r="M382" s="28"/>
+      <c r="N382" s="28"/>
+      <c r="O382" s="28"/>
+      <c r="P382" s="28"/>
+      <c r="Q382" s="28"/>
+      <c r="R382" s="28"/>
+      <c r="S382" s="28"/>
+      <c r="T382" s="28"/>
+      <c r="U382" s="28"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="28"/>
+      <c r="B383" s="28"/>
+      <c r="C383" s="28"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="28"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="28"/>
+      <c r="H383" s="32"/>
+      <c r="I383" s="28"/>
+      <c r="J383" s="28"/>
+      <c r="K383" s="28"/>
+      <c r="L383" s="28"/>
+      <c r="M383" s="28"/>
+      <c r="N383" s="28"/>
+      <c r="O383" s="28"/>
+      <c r="P383" s="28"/>
+      <c r="Q383" s="28"/>
+      <c r="R383" s="28"/>
+      <c r="S383" s="28"/>
+      <c r="T383" s="28"/>
+      <c r="U383" s="28"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="28"/>
+      <c r="B384" s="28"/>
+      <c r="C384" s="28"/>
+      <c r="D384" s="28"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="28"/>
+      <c r="G384" s="28"/>
+      <c r="H384" s="32"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="28"/>
+      <c r="K384" s="28"/>
+      <c r="L384" s="28"/>
+      <c r="M384" s="28"/>
+      <c r="N384" s="28"/>
+      <c r="O384" s="28"/>
+      <c r="P384" s="28"/>
+      <c r="Q384" s="28"/>
+      <c r="R384" s="28"/>
+      <c r="S384" s="28"/>
+      <c r="T384" s="28"/>
+      <c r="U384" s="28"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="28"/>
+      <c r="B385" s="28"/>
+      <c r="C385" s="28"/>
+      <c r="D385" s="28"/>
+      <c r="E385" s="28"/>
+      <c r="F385" s="28"/>
+      <c r="G385" s="28"/>
+      <c r="H385" s="28"/>
+      <c r="I385" s="28"/>
+      <c r="J385" s="28"/>
+      <c r="K385" s="28"/>
+      <c r="L385" s="28"/>
+      <c r="M385" s="28"/>
+      <c r="N385" s="28"/>
+      <c r="O385" s="28"/>
+      <c r="P385" s="28"/>
+      <c r="Q385" s="28"/>
+      <c r="R385" s="28"/>
+      <c r="S385" s="28"/>
+      <c r="T385" s="28"/>
+      <c r="U385" s="28"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="28"/>
+      <c r="B386" s="28"/>
+      <c r="C386" s="28"/>
+      <c r="D386" s="28"/>
+      <c r="E386" s="28"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="28"/>
+      <c r="H386" s="28"/>
+      <c r="I386" s="28"/>
+      <c r="J386" s="28"/>
+      <c r="K386" s="28"/>
+      <c r="L386" s="28"/>
+      <c r="M386" s="28"/>
+      <c r="N386" s="28"/>
+      <c r="O386" s="28"/>
+      <c r="P386" s="28"/>
+      <c r="Q386" s="28"/>
+      <c r="R386" s="28"/>
+      <c r="S386" s="28"/>
+      <c r="T386" s="28"/>
+      <c r="U386" s="28"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="28"/>
+      <c r="B387" s="28"/>
+      <c r="C387" s="28"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="28"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
+      <c r="H387" s="28"/>
+      <c r="I387" s="28"/>
+      <c r="J387" s="28"/>
+      <c r="K387" s="28"/>
+      <c r="L387" s="28"/>
+      <c r="M387" s="28"/>
+      <c r="N387" s="28"/>
+      <c r="O387" s="28"/>
+      <c r="P387" s="28"/>
+      <c r="Q387" s="28"/>
+      <c r="R387" s="28"/>
+      <c r="S387" s="28"/>
+      <c r="T387" s="28"/>
+      <c r="U387" s="28"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="28"/>
+      <c r="B388" s="28"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
+      <c r="H388" s="28"/>
+      <c r="I388" s="28"/>
+      <c r="J388" s="28"/>
+      <c r="K388" s="28"/>
+      <c r="L388" s="28"/>
+      <c r="M388" s="28"/>
+      <c r="N388" s="28"/>
+      <c r="O388" s="28"/>
+      <c r="P388" s="28"/>
+      <c r="Q388" s="28"/>
+      <c r="R388" s="28"/>
+      <c r="S388" s="28"/>
+      <c r="T388" s="28"/>
+      <c r="U388" s="28"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="28"/>
+      <c r="B389" s="28"/>
+      <c r="C389" s="28"/>
+      <c r="D389" s="28"/>
+      <c r="E389" s="28"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
+      <c r="H389" s="28"/>
+      <c r="I389" s="28"/>
+      <c r="J389" s="28"/>
+      <c r="K389" s="28"/>
+      <c r="L389" s="28"/>
+      <c r="M389" s="28"/>
+      <c r="N389" s="28"/>
+      <c r="O389" s="28"/>
+      <c r="P389" s="28"/>
+      <c r="Q389" s="28"/>
+      <c r="R389" s="28"/>
+      <c r="S389" s="28"/>
+      <c r="T389" s="28"/>
+      <c r="U389" s="28"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="28"/>
+      <c r="B390" s="28"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="28"/>
+      <c r="E390" s="28"/>
+      <c r="F390" s="28"/>
+      <c r="G390" s="28"/>
+      <c r="H390" s="28"/>
+      <c r="I390" s="28"/>
+      <c r="J390" s="28"/>
+      <c r="K390" s="28"/>
+      <c r="L390" s="28"/>
+      <c r="M390" s="28"/>
+      <c r="N390" s="28"/>
+      <c r="O390" s="28"/>
+      <c r="P390" s="28"/>
+      <c r="Q390" s="28"/>
+      <c r="R390" s="28"/>
+      <c r="S390" s="28"/>
+      <c r="T390" s="28"/>
+      <c r="U390" s="28"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="28"/>
+      <c r="B391" s="28"/>
+      <c r="C391" s="28"/>
+      <c r="D391" s="28"/>
+      <c r="E391" s="28"/>
+      <c r="F391" s="28"/>
+      <c r="G391" s="28"/>
+      <c r="H391" s="28"/>
+      <c r="I391" s="28"/>
+      <c r="J391" s="28"/>
+      <c r="K391" s="28"/>
+      <c r="L391" s="28"/>
+      <c r="M391" s="28"/>
+      <c r="N391" s="28"/>
+      <c r="O391" s="28"/>
+      <c r="P391" s="28"/>
+      <c r="Q391" s="28"/>
+      <c r="R391" s="28"/>
+      <c r="S391" s="28"/>
+      <c r="T391" s="28"/>
+      <c r="U391" s="28"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="28"/>
+      <c r="B392" s="28"/>
+      <c r="C392" s="32"/>
+      <c r="D392" s="28"/>
+      <c r="E392" s="28"/>
+      <c r="F392" s="32"/>
+      <c r="G392" s="28"/>
+      <c r="H392" s="28"/>
+      <c r="I392" s="28"/>
+      <c r="J392" s="32"/>
+      <c r="K392" s="28"/>
+      <c r="L392" s="28"/>
+      <c r="M392" s="32"/>
+      <c r="N392" s="28"/>
+      <c r="O392" s="28"/>
+      <c r="P392" s="28"/>
+      <c r="Q392" s="28"/>
+      <c r="R392" s="28"/>
+      <c r="S392" s="28"/>
+      <c r="T392" s="28"/>
+      <c r="U392" s="28"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="28"/>
+      <c r="B393" s="28"/>
+      <c r="C393" s="32"/>
+      <c r="D393" s="28"/>
+      <c r="E393" s="28"/>
+      <c r="F393" s="32"/>
+      <c r="G393" s="28"/>
+      <c r="H393" s="28"/>
+      <c r="I393" s="28"/>
+      <c r="J393" s="32"/>
+      <c r="K393" s="28"/>
+      <c r="L393" s="28"/>
+      <c r="M393" s="32"/>
+      <c r="N393" s="28"/>
+      <c r="O393" s="28"/>
+      <c r="P393" s="28"/>
+      <c r="Q393" s="28"/>
+      <c r="R393" s="28"/>
+      <c r="S393" s="28"/>
+      <c r="T393" s="28"/>
+      <c r="U393" s="28"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="28"/>
+      <c r="B394" s="28"/>
+      <c r="C394" s="32"/>
+      <c r="D394" s="28"/>
+      <c r="E394" s="28"/>
+      <c r="F394" s="32"/>
+      <c r="G394" s="28"/>
+      <c r="H394" s="28"/>
+      <c r="I394" s="28"/>
+      <c r="J394" s="32"/>
+      <c r="K394" s="28"/>
+      <c r="L394" s="28"/>
+      <c r="M394" s="32"/>
+      <c r="N394" s="28"/>
+      <c r="O394" s="28"/>
+      <c r="P394" s="28"/>
+      <c r="Q394" s="28"/>
+      <c r="R394" s="28"/>
+      <c r="S394" s="28"/>
+      <c r="T394" s="28"/>
+      <c r="U394" s="28"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="28"/>
+      <c r="B395" s="28"/>
+      <c r="C395" s="32"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="28"/>
+      <c r="F395" s="32"/>
+      <c r="G395" s="28"/>
+      <c r="H395" s="28"/>
+      <c r="I395" s="28"/>
+      <c r="J395" s="32"/>
+      <c r="K395" s="28"/>
+      <c r="L395" s="28"/>
+      <c r="M395" s="32"/>
+      <c r="N395" s="28"/>
+      <c r="O395" s="28"/>
+      <c r="P395" s="28"/>
+      <c r="Q395" s="28"/>
+      <c r="R395" s="28"/>
+      <c r="S395" s="28"/>
+      <c r="T395" s="28"/>
+      <c r="U395" s="28"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="28"/>
+      <c r="B396" s="28"/>
+      <c r="C396" s="32"/>
+      <c r="D396" s="28"/>
+      <c r="E396" s="28"/>
+      <c r="F396" s="32"/>
+      <c r="G396" s="28"/>
+      <c r="H396" s="28"/>
+      <c r="I396" s="28"/>
+      <c r="J396" s="32"/>
+      <c r="K396" s="28"/>
+      <c r="L396" s="28"/>
+      <c r="M396" s="32"/>
+      <c r="N396" s="28"/>
+      <c r="O396" s="28"/>
+      <c r="P396" s="28"/>
+      <c r="Q396" s="28"/>
+      <c r="R396" s="28"/>
+      <c r="S396" s="28"/>
+      <c r="T396" s="28"/>
+      <c r="U396" s="28"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="28"/>
+      <c r="B397" s="28"/>
+      <c r="C397" s="32"/>
+      <c r="D397" s="28"/>
+      <c r="E397" s="28"/>
+      <c r="F397" s="32"/>
+      <c r="G397" s="28"/>
+      <c r="H397" s="28"/>
+      <c r="I397" s="28"/>
+      <c r="J397" s="32"/>
+      <c r="K397" s="28"/>
+      <c r="L397" s="28"/>
+      <c r="M397" s="32"/>
+      <c r="N397" s="28"/>
+      <c r="O397" s="28"/>
+      <c r="P397" s="28"/>
+      <c r="Q397" s="28"/>
+      <c r="R397" s="28"/>
+      <c r="S397" s="28"/>
+      <c r="T397" s="28"/>
+      <c r="U397" s="28"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="28"/>
+      <c r="B398" s="28"/>
+      <c r="C398" s="32"/>
+      <c r="D398" s="28"/>
+      <c r="E398" s="28"/>
+      <c r="F398" s="32"/>
+      <c r="G398" s="28"/>
+      <c r="H398" s="28"/>
+      <c r="I398" s="28"/>
+      <c r="J398" s="32"/>
+      <c r="K398" s="28"/>
+      <c r="L398" s="28"/>
+      <c r="M398" s="32"/>
+      <c r="N398" s="28"/>
+      <c r="O398" s="28"/>
+      <c r="P398" s="28"/>
+      <c r="Q398" s="28"/>
+      <c r="R398" s="28"/>
+      <c r="S398" s="28"/>
+      <c r="T398" s="28"/>
+      <c r="U398" s="28"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="28"/>
+      <c r="B399" s="28"/>
+      <c r="C399" s="28"/>
+      <c r="D399" s="28"/>
+      <c r="E399" s="28"/>
+      <c r="F399" s="28"/>
+      <c r="G399" s="28"/>
+      <c r="H399" s="28"/>
+      <c r="I399" s="28"/>
+      <c r="J399" s="28"/>
+      <c r="K399" s="28"/>
+      <c r="L399" s="28"/>
+      <c r="M399" s="28"/>
+      <c r="N399" s="28"/>
+      <c r="O399" s="28"/>
+      <c r="P399" s="28"/>
+      <c r="Q399" s="28"/>
+      <c r="R399" s="28"/>
+      <c r="S399" s="28"/>
+      <c r="T399" s="28"/>
+      <c r="U399" s="28"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="28"/>
+      <c r="B400" s="28"/>
+      <c r="C400" s="28"/>
+      <c r="D400" s="28"/>
+      <c r="E400" s="28"/>
+      <c r="F400" s="28"/>
+      <c r="G400" s="28"/>
+      <c r="H400" s="28"/>
+      <c r="I400" s="28"/>
+      <c r="J400" s="28"/>
+      <c r="K400" s="28"/>
+      <c r="L400" s="28"/>
+      <c r="M400" s="28"/>
+      <c r="N400" s="28"/>
+      <c r="O400" s="28"/>
+      <c r="P400" s="28"/>
+      <c r="Q400" s="28"/>
+      <c r="R400" s="28"/>
+      <c r="S400" s="28"/>
+      <c r="T400" s="28"/>
+      <c r="U400" s="28"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="28"/>
+      <c r="B401" s="28"/>
+      <c r="C401" s="28"/>
+      <c r="D401" s="28"/>
+      <c r="E401" s="28"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
+      <c r="H401" s="28"/>
+      <c r="I401" s="28"/>
+      <c r="J401" s="28"/>
+      <c r="K401" s="28"/>
+      <c r="L401" s="28"/>
+      <c r="M401" s="28"/>
+      <c r="N401" s="28"/>
+      <c r="O401" s="28"/>
+      <c r="P401" s="28"/>
+      <c r="Q401" s="28"/>
+      <c r="R401" s="28"/>
+      <c r="S401" s="28"/>
+      <c r="T401" s="28"/>
+      <c r="U401" s="28"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="28"/>
+      <c r="B402" s="28"/>
+      <c r="C402" s="28"/>
+      <c r="D402" s="28"/>
+      <c r="E402" s="28"/>
+      <c r="F402" s="28"/>
+      <c r="G402" s="28"/>
+      <c r="H402" s="28"/>
+      <c r="I402" s="28"/>
+      <c r="J402" s="28"/>
+      <c r="K402" s="28"/>
+      <c r="L402" s="28"/>
+      <c r="M402" s="28"/>
+      <c r="N402" s="28"/>
+      <c r="O402" s="28"/>
+      <c r="P402" s="28"/>
+      <c r="Q402" s="28"/>
+      <c r="R402" s="28"/>
+      <c r="S402" s="28"/>
+      <c r="T402" s="28"/>
+      <c r="U402" s="28"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="28"/>
+      <c r="B403" s="28"/>
+      <c r="C403" s="28"/>
+      <c r="D403" s="28"/>
+      <c r="E403" s="28"/>
+      <c r="F403" s="28"/>
+      <c r="G403" s="28"/>
+      <c r="H403" s="28"/>
+      <c r="I403" s="28"/>
+      <c r="J403" s="28"/>
+      <c r="K403" s="28"/>
+      <c r="L403" s="28"/>
+      <c r="M403" s="28"/>
+      <c r="N403" s="28"/>
+      <c r="O403" s="28"/>
+      <c r="P403" s="28"/>
+      <c r="Q403" s="28"/>
+      <c r="R403" s="28"/>
+      <c r="S403" s="28"/>
+      <c r="T403" s="28"/>
+      <c r="U403" s="28"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="28"/>
+      <c r="B404" s="28"/>
+      <c r="C404" s="28"/>
+      <c r="D404" s="28"/>
+      <c r="E404" s="28"/>
+      <c r="F404" s="28"/>
+      <c r="G404" s="28"/>
+      <c r="H404" s="28"/>
+      <c r="I404" s="28"/>
+      <c r="J404" s="28"/>
+      <c r="K404" s="28"/>
+      <c r="L404" s="28"/>
+      <c r="M404" s="28"/>
+      <c r="N404" s="28"/>
+      <c r="O404" s="28"/>
+      <c r="P404" s="28"/>
+      <c r="Q404" s="28"/>
+      <c r="R404" s="28"/>
+      <c r="S404" s="28"/>
+      <c r="T404" s="28"/>
+      <c r="U404" s="28"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="28"/>
+      <c r="B405" s="28"/>
+      <c r="C405" s="28"/>
+      <c r="D405" s="28"/>
+      <c r="E405" s="28"/>
+      <c r="F405" s="28"/>
+      <c r="G405" s="28"/>
+      <c r="H405" s="28"/>
+      <c r="I405" s="28"/>
+      <c r="J405" s="28"/>
+      <c r="K405" s="28"/>
+      <c r="L405" s="28"/>
+      <c r="M405" s="28"/>
+      <c r="N405" s="28"/>
+      <c r="O405" s="28"/>
+      <c r="P405" s="28"/>
+      <c r="Q405" s="28"/>
+      <c r="R405" s="28"/>
+      <c r="S405" s="28"/>
+      <c r="T405" s="28"/>
+      <c r="U405" s="28"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="28"/>
+      <c r="B406" s="28"/>
+      <c r="C406" s="28"/>
+      <c r="D406" s="28"/>
+      <c r="E406" s="28"/>
+      <c r="F406" s="28"/>
+      <c r="G406" s="28"/>
+      <c r="H406" s="28"/>
+      <c r="I406" s="28"/>
+      <c r="J406" s="28"/>
+      <c r="K406" s="28"/>
+      <c r="L406" s="28"/>
+      <c r="M406" s="28"/>
+      <c r="N406" s="28"/>
+      <c r="O406" s="28"/>
+      <c r="P406" s="28"/>
+      <c r="Q406" s="28"/>
+      <c r="R406" s="28"/>
+      <c r="S406" s="28"/>
+      <c r="T406" s="28"/>
+      <c r="U406" s="28"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="28"/>
+      <c r="B407" s="28"/>
+      <c r="C407" s="28"/>
+      <c r="D407" s="28"/>
+      <c r="E407" s="28"/>
+      <c r="F407" s="28"/>
+      <c r="G407" s="28"/>
+      <c r="H407" s="28"/>
+      <c r="I407" s="28"/>
+      <c r="J407" s="28"/>
+      <c r="K407" s="28"/>
+      <c r="L407" s="28"/>
+      <c r="M407" s="28"/>
+      <c r="N407" s="28"/>
+      <c r="O407" s="28"/>
+      <c r="P407" s="28"/>
+      <c r="Q407" s="28"/>
+      <c r="R407" s="28"/>
+      <c r="S407" s="28"/>
+      <c r="T407" s="28"/>
+      <c r="U407" s="28"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="28"/>
+      <c r="B408" s="28"/>
+      <c r="C408" s="28"/>
+      <c r="D408" s="28"/>
+      <c r="E408" s="28"/>
+      <c r="F408" s="28"/>
+      <c r="G408" s="28"/>
+      <c r="H408" s="28"/>
+      <c r="I408" s="28"/>
+      <c r="J408" s="28"/>
+      <c r="K408" s="28"/>
+      <c r="L408" s="28"/>
+      <c r="M408" s="28"/>
+      <c r="N408" s="28"/>
+      <c r="O408" s="28"/>
+      <c r="P408" s="28"/>
+      <c r="Q408" s="28"/>
+      <c r="R408" s="28"/>
+      <c r="S408" s="28"/>
+      <c r="T408" s="28"/>
+      <c r="U408" s="28"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="28"/>
+      <c r="B409" s="28"/>
+      <c r="C409" s="28"/>
+      <c r="D409" s="28"/>
+      <c r="E409" s="28"/>
+      <c r="F409" s="28"/>
+      <c r="G409" s="28"/>
+      <c r="H409" s="28"/>
+      <c r="I409" s="28"/>
+      <c r="J409" s="28"/>
+      <c r="K409" s="28"/>
+      <c r="L409" s="28"/>
+      <c r="M409" s="28"/>
+      <c r="N409" s="28"/>
+      <c r="O409" s="28"/>
+      <c r="P409" s="28"/>
+      <c r="Q409" s="28"/>
+      <c r="R409" s="28"/>
+      <c r="S409" s="28"/>
+      <c r="T409" s="28"/>
+      <c r="U409" s="28"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="28"/>
+      <c r="B410" s="28"/>
+      <c r="C410" s="28"/>
+      <c r="D410" s="28"/>
+      <c r="E410" s="28"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="28"/>
+      <c r="H410" s="32"/>
+      <c r="I410" s="28"/>
+      <c r="J410" s="28"/>
+      <c r="K410" s="28"/>
+      <c r="L410" s="28"/>
+      <c r="M410" s="28"/>
+      <c r="N410" s="28"/>
+      <c r="O410" s="28"/>
+      <c r="P410" s="28"/>
+      <c r="Q410" s="28"/>
+      <c r="R410" s="28"/>
+      <c r="S410" s="28"/>
+      <c r="T410" s="28"/>
+      <c r="U410" s="28"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="28"/>
+      <c r="B411" s="28"/>
+      <c r="C411" s="28"/>
+      <c r="D411" s="28"/>
+      <c r="E411" s="28"/>
+      <c r="F411" s="28"/>
+      <c r="G411" s="28"/>
+      <c r="H411" s="32"/>
+      <c r="I411" s="28"/>
+      <c r="J411" s="28"/>
+      <c r="K411" s="28"/>
+      <c r="L411" s="28"/>
+      <c r="M411" s="28"/>
+      <c r="N411" s="28"/>
+      <c r="O411" s="28"/>
+      <c r="P411" s="28"/>
+      <c r="Q411" s="28"/>
+      <c r="R411" s="28"/>
+      <c r="S411" s="28"/>
+      <c r="T411" s="28"/>
+      <c r="U411" s="28"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="28"/>
+      <c r="B412" s="28"/>
+      <c r="C412" s="28"/>
+      <c r="D412" s="28"/>
+      <c r="E412" s="28"/>
+      <c r="F412" s="28"/>
+      <c r="G412" s="28"/>
+      <c r="H412" s="32"/>
+      <c r="I412" s="28"/>
+      <c r="J412" s="28"/>
+      <c r="K412" s="28"/>
+      <c r="L412" s="28"/>
+      <c r="M412" s="28"/>
+      <c r="N412" s="28"/>
+      <c r="O412" s="28"/>
+      <c r="P412" s="28"/>
+      <c r="Q412" s="28"/>
+      <c r="R412" s="28"/>
+      <c r="S412" s="28"/>
+      <c r="T412" s="28"/>
+      <c r="U412" s="28"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="28"/>
+      <c r="B413" s="28"/>
+      <c r="C413" s="28"/>
+      <c r="D413" s="28"/>
+      <c r="E413" s="28"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
+      <c r="H413" s="32"/>
+      <c r="I413" s="28"/>
+      <c r="J413" s="28"/>
+      <c r="K413" s="28"/>
+      <c r="L413" s="28"/>
+      <c r="M413" s="28"/>
+      <c r="N413" s="28"/>
+      <c r="O413" s="28"/>
+      <c r="P413" s="28"/>
+      <c r="Q413" s="28"/>
+      <c r="R413" s="28"/>
+      <c r="S413" s="28"/>
+      <c r="T413" s="28"/>
+      <c r="U413" s="28"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="28"/>
+      <c r="B414" s="28"/>
+      <c r="C414" s="28"/>
+      <c r="D414" s="28"/>
+      <c r="E414" s="28"/>
+      <c r="F414" s="28"/>
+      <c r="G414" s="28"/>
+      <c r="H414" s="32"/>
+      <c r="I414" s="28"/>
+      <c r="J414" s="28"/>
+      <c r="K414" s="28"/>
+      <c r="L414" s="28"/>
+      <c r="M414" s="28"/>
+      <c r="N414" s="28"/>
+      <c r="O414" s="28"/>
+      <c r="P414" s="28"/>
+      <c r="Q414" s="28"/>
+      <c r="R414" s="28"/>
+      <c r="S414" s="28"/>
+      <c r="T414" s="28"/>
+      <c r="U414" s="28"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="28"/>
+      <c r="B415" s="28"/>
+      <c r="C415" s="28"/>
+      <c r="D415" s="28"/>
+      <c r="E415" s="28"/>
+      <c r="F415" s="28"/>
+      <c r="G415" s="28"/>
+      <c r="H415" s="32"/>
+      <c r="I415" s="28"/>
+      <c r="J415" s="28"/>
+      <c r="K415" s="28"/>
+      <c r="L415" s="28"/>
+      <c r="M415" s="28"/>
+      <c r="N415" s="28"/>
+      <c r="O415" s="28"/>
+      <c r="P415" s="28"/>
+      <c r="Q415" s="28"/>
+      <c r="R415" s="28"/>
+      <c r="S415" s="28"/>
+      <c r="T415" s="28"/>
+      <c r="U415" s="28"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="28"/>
+      <c r="B416" s="28"/>
+      <c r="C416" s="28"/>
+      <c r="D416" s="28"/>
+      <c r="E416" s="28"/>
+      <c r="F416" s="28"/>
+      <c r="G416" s="28"/>
+      <c r="H416" s="32"/>
+      <c r="I416" s="28"/>
+      <c r="J416" s="28"/>
+      <c r="K416" s="28"/>
+      <c r="L416" s="28"/>
+      <c r="M416" s="28"/>
+      <c r="N416" s="28"/>
+      <c r="O416" s="28"/>
+      <c r="P416" s="28"/>
+      <c r="Q416" s="28"/>
+      <c r="R416" s="28"/>
+      <c r="S416" s="28"/>
+      <c r="T416" s="28"/>
+      <c r="U416" s="28"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="28"/>
+      <c r="B417" s="28"/>
+      <c r="C417" s="28"/>
+      <c r="D417" s="28"/>
+      <c r="E417" s="28"/>
+      <c r="F417" s="28"/>
+      <c r="G417" s="28"/>
+      <c r="H417" s="28"/>
+      <c r="I417" s="28"/>
+      <c r="J417" s="28"/>
+      <c r="K417" s="28"/>
+      <c r="L417" s="28"/>
+      <c r="M417" s="28"/>
+      <c r="N417" s="28"/>
+      <c r="O417" s="28"/>
+      <c r="P417" s="28"/>
+      <c r="Q417" s="28"/>
+      <c r="R417" s="28"/>
+      <c r="S417" s="28"/>
+      <c r="T417" s="28"/>
+      <c r="U417" s="28"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="28"/>
+      <c r="B418" s="28"/>
+      <c r="C418" s="28"/>
+      <c r="D418" s="28"/>
+      <c r="E418" s="28"/>
+      <c r="F418" s="28"/>
+      <c r="G418" s="28"/>
+      <c r="H418" s="28"/>
+      <c r="I418" s="28"/>
+      <c r="J418" s="28"/>
+      <c r="K418" s="28"/>
+      <c r="L418" s="28"/>
+      <c r="M418" s="28"/>
+      <c r="N418" s="28"/>
+      <c r="O418" s="28"/>
+      <c r="P418" s="28"/>
+      <c r="Q418" s="28"/>
+      <c r="R418" s="28"/>
+      <c r="S418" s="28"/>
+      <c r="T418" s="28"/>
+      <c r="U418" s="28"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="28"/>
+      <c r="B419" s="28"/>
+      <c r="C419" s="28"/>
+      <c r="D419" s="28"/>
+      <c r="E419" s="28"/>
+      <c r="F419" s="28"/>
+      <c r="G419" s="28"/>
+      <c r="H419" s="28"/>
+      <c r="I419" s="28"/>
+      <c r="J419" s="28"/>
+      <c r="K419" s="28"/>
+      <c r="L419" s="28"/>
+      <c r="M419" s="28"/>
+      <c r="N419" s="28"/>
+      <c r="O419" s="28"/>
+      <c r="P419" s="28"/>
+      <c r="Q419" s="28"/>
+      <c r="R419" s="28"/>
+      <c r="S419" s="28"/>
+      <c r="T419" s="28"/>
+      <c r="U419" s="28"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="28"/>
+      <c r="B420" s="28"/>
+      <c r="C420" s="28"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="28"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
+      <c r="H420" s="28"/>
+      <c r="I420" s="28"/>
+      <c r="J420" s="28"/>
+      <c r="K420" s="28"/>
+      <c r="L420" s="28"/>
+      <c r="M420" s="28"/>
+      <c r="N420" s="28"/>
+      <c r="O420" s="28"/>
+      <c r="P420" s="28"/>
+      <c r="Q420" s="28"/>
+      <c r="R420" s="28"/>
+      <c r="S420" s="28"/>
+      <c r="T420" s="28"/>
+      <c r="U420" s="28"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="28"/>
+      <c r="B421" s="28"/>
+      <c r="C421" s="28"/>
+      <c r="D421" s="28"/>
+      <c r="E421" s="28"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
+      <c r="H421" s="28"/>
+      <c r="I421" s="28"/>
+      <c r="J421" s="28"/>
+      <c r="K421" s="28"/>
+      <c r="L421" s="28"/>
+      <c r="M421" s="28"/>
+      <c r="N421" s="28"/>
+      <c r="O421" s="28"/>
+      <c r="P421" s="28"/>
+      <c r="Q421" s="28"/>
+      <c r="R421" s="28"/>
+      <c r="S421" s="28"/>
+      <c r="T421" s="28"/>
+      <c r="U421" s="28"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="28"/>
+      <c r="B422" s="28"/>
+      <c r="C422" s="28"/>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
+      <c r="H422" s="28"/>
+      <c r="I422" s="28"/>
+      <c r="J422" s="28"/>
+      <c r="K422" s="28"/>
+      <c r="L422" s="28"/>
+      <c r="M422" s="28"/>
+      <c r="N422" s="28"/>
+      <c r="O422" s="28"/>
+      <c r="P422" s="28"/>
+      <c r="Q422" s="28"/>
+      <c r="R422" s="28"/>
+      <c r="S422" s="28"/>
+      <c r="T422" s="28"/>
+      <c r="U422" s="28"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="28"/>
+      <c r="B423" s="28"/>
+      <c r="C423" s="28"/>
+      <c r="D423" s="28"/>
+      <c r="E423" s="28"/>
+      <c r="F423" s="28"/>
+      <c r="G423" s="28"/>
+      <c r="H423" s="28"/>
+      <c r="I423" s="28"/>
+      <c r="J423" s="28"/>
+      <c r="K423" s="28"/>
+      <c r="L423" s="28"/>
+      <c r="M423" s="28"/>
+      <c r="N423" s="28"/>
+      <c r="O423" s="28"/>
+      <c r="P423" s="28"/>
+      <c r="Q423" s="28"/>
+      <c r="R423" s="28"/>
+      <c r="S423" s="28"/>
+      <c r="T423" s="28"/>
+      <c r="U423" s="28"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -158,13 +158,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -247,7 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,14 +371,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,8 +390,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W335" activeCellId="0" sqref="W335"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E332" activeCellId="0" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,7 +737,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
       <c r="P6" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
@@ -799,7 +790,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="23"/>
       <c r="P7" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
@@ -954,7 +945,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
       <c r="P10" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
@@ -1007,7 +998,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
       <c r="P11" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
@@ -1162,7 +1153,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="23"/>
       <c r="P14" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
@@ -1215,7 +1206,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -1370,7 +1361,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="23"/>
       <c r="P18" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
@@ -1423,7 +1414,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
@@ -1546,7 +1537,7 @@
         <v>-1</v>
       </c>
       <c r="Q21" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="24" t="n">
         <v>0</v>
@@ -1607,7 +1598,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="23"/>
       <c r="P22" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="24" t="n">
         <v>0.5</v>
@@ -1671,10 +1662,10 @@
       <c r="N23" s="22"/>
       <c r="O23" s="23"/>
       <c r="P23" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q23" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="24" t="n">
         <v>0</v>
@@ -1808,7 +1799,7 @@
         <v>-1</v>
       </c>
       <c r="Q25" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R25" s="24" t="n">
         <v>0</v>
@@ -1875,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="24" t="n">
         <v>0.5</v>
@@ -1945,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q27" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R27" s="24" t="n">
         <v>0</v>
@@ -2084,7 +2075,7 @@
         <v>-1</v>
       </c>
       <c r="Q29" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="24" t="n">
         <v>0</v>
@@ -2151,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="24" t="n">
         <v>0.5</v>
@@ -2221,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q31" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R31" s="24" t="n">
         <v>0</v>
@@ -2484,7 +2475,7 @@
       <c r="N36" s="27"/>
       <c r="O36" s="24"/>
       <c r="P36" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="23"/>
       <c r="R36" s="24"/>
@@ -2536,7 +2527,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="24"/>
       <c r="P37" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q37" s="23"/>
       <c r="R37" s="24"/>
@@ -2688,7 +2679,7 @@
       <c r="N40" s="27"/>
       <c r="O40" s="24"/>
       <c r="P40" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="24"/>
@@ -2740,7 +2731,7 @@
       <c r="N41" s="27"/>
       <c r="O41" s="24"/>
       <c r="P41" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q41" s="23"/>
       <c r="R41" s="24"/>
@@ -2892,7 +2883,7 @@
       <c r="N44" s="27"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="23"/>
       <c r="R44" s="24"/>
@@ -2944,7 +2935,7 @@
       <c r="N45" s="27"/>
       <c r="O45" s="24"/>
       <c r="P45" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q45" s="23"/>
       <c r="R45" s="24"/>
@@ -3096,7 +3087,7 @@
       <c r="N48" s="27"/>
       <c r="O48" s="24"/>
       <c r="P48" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="23"/>
       <c r="R48" s="24"/>
@@ -3148,7 +3139,7 @@
       <c r="N49" s="27"/>
       <c r="O49" s="24"/>
       <c r="P49" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q49" s="23"/>
       <c r="R49" s="24"/>
@@ -3269,7 +3260,7 @@
         <v>-1</v>
       </c>
       <c r="Q51" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51" s="24" t="n">
         <v>0</v>
@@ -3328,7 +3319,7 @@
       <c r="N52" s="27"/>
       <c r="O52" s="24"/>
       <c r="P52" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="23" t="n">
         <v>0.5</v>
@@ -3391,10 +3382,10 @@
       <c r="N53" s="27"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q53" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R53" s="24" t="n">
         <v>0</v>
@@ -3527,7 +3518,7 @@
         <v>-1</v>
       </c>
       <c r="Q55" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R55" s="24" t="n">
         <v>-0.5</v>
@@ -3594,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="23" t="n">
         <v>0.5</v>
@@ -3663,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q57" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="24" t="n">
         <v>-0.5</v>
@@ -3801,7 +3792,7 @@
         <v>-1</v>
       </c>
       <c r="Q59" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R59" s="24" t="n">
         <v>-0.5</v>
@@ -3867,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="23" t="n">
         <v>0.5</v>
@@ -3937,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="P61" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q61" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R61" s="24" t="n">
         <v>-0.5</v>
@@ -4197,7 +4188,7 @@
       <c r="N66" s="27"/>
       <c r="O66" s="24"/>
       <c r="P66" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="23"/>
       <c r="R66" s="24"/>
@@ -4249,7 +4240,7 @@
       <c r="N67" s="27"/>
       <c r="O67" s="24"/>
       <c r="P67" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q67" s="23"/>
       <c r="R67" s="24"/>
@@ -4399,7 +4390,7 @@
       <c r="N70" s="27"/>
       <c r="O70" s="24"/>
       <c r="P70" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="23"/>
       <c r="R70" s="24"/>
@@ -4450,7 +4441,7 @@
       <c r="N71" s="27"/>
       <c r="O71" s="24"/>
       <c r="P71" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q71" s="23"/>
       <c r="R71" s="24"/>
@@ -4601,7 +4592,7 @@
       <c r="N74" s="27"/>
       <c r="O74" s="24"/>
       <c r="P74" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="23"/>
       <c r="R74" s="24"/>
@@ -4653,7 +4644,7 @@
       <c r="N75" s="27"/>
       <c r="O75" s="24"/>
       <c r="P75" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q75" s="23"/>
       <c r="R75" s="24"/>
@@ -4798,7 +4789,7 @@
       <c r="N78" s="27"/>
       <c r="O78" s="24"/>
       <c r="P78" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="23"/>
       <c r="R78" s="24"/>
@@ -4845,7 +4836,7 @@
       <c r="N79" s="27"/>
       <c r="O79" s="24"/>
       <c r="P79" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q79" s="23"/>
       <c r="R79" s="24"/>
@@ -4965,7 +4956,7 @@
         <v>-1</v>
       </c>
       <c r="Q81" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R81" s="24" t="n">
         <v>0</v>
@@ -5025,7 +5016,7 @@
       <c r="N82" s="27"/>
       <c r="O82" s="24"/>
       <c r="P82" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="23" t="n">
         <v>0.5</v>
@@ -5087,10 +5078,10 @@
       <c r="N83" s="27"/>
       <c r="O83" s="24"/>
       <c r="P83" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q83" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R83" s="24" t="n">
         <v>0</v>
@@ -5221,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Q85" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R85" s="24" t="n">
         <v>0</v>
@@ -5288,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="23" t="n">
         <v>0.5</v>
@@ -5357,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="P87" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q87" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R87" s="24" t="n">
         <v>0</v>
@@ -5495,7 +5486,7 @@
         <v>-1</v>
       </c>
       <c r="Q89" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89" s="24" t="n">
         <v>0</v>
@@ -5561,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="P90" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="23" t="n">
         <v>0.5</v>
@@ -5630,10 +5621,10 @@
         <v>1</v>
       </c>
       <c r="P91" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q91" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R91" s="24" t="n">
         <v>0</v>
@@ -5702,7 +5693,7 @@
       <c r="P92" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="Q92" s="30" t="n">
+      <c r="Q92" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="R92" s="30" t="n">
@@ -5772,8 +5763,8 @@
       <c r="P93" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="Q93" s="30" t="n">
-        <v>0.5</v>
+      <c r="Q93" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R93" s="30" t="n">
         <v>0.5</v>
@@ -5840,7 +5831,7 @@
       <c r="P94" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="Q94" s="30" t="n">
+      <c r="Q94" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="R94" s="30" t="n">
@@ -5908,8 +5899,8 @@
       <c r="P95" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="Q95" s="30" t="n">
-        <v>0.5</v>
+      <c r="Q95" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R95" s="30" t="n">
         <v>0.5</v>
@@ -5976,9 +5967,9 @@
         <v>1</v>
       </c>
       <c r="P96" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="R96" s="30" t="n">
@@ -6046,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="P97" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="30" t="n">
-        <v>0.5</v>
+        <v>-1</v>
+      </c>
+      <c r="Q97" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R97" s="30" t="n">
         <v>0.5</v>
@@ -6308,7 +6299,7 @@
       <c r="N102" s="27"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="23"/>
       <c r="R102" s="24"/>
@@ -6359,7 +6350,7 @@
       <c r="N103" s="27"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q103" s="23"/>
       <c r="R103" s="24"/>
@@ -6509,7 +6500,7 @@
       <c r="N106" s="27"/>
       <c r="O106" s="24"/>
       <c r="P106" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="23"/>
       <c r="R106" s="24"/>
@@ -6561,7 +6552,7 @@
       <c r="N107" s="27"/>
       <c r="O107" s="24"/>
       <c r="P107" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q107" s="23"/>
       <c r="R107" s="24"/>
@@ -6707,7 +6698,7 @@
       <c r="N110" s="27"/>
       <c r="O110" s="24"/>
       <c r="P110" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" s="23"/>
       <c r="R110" s="24"/>
@@ -6759,7 +6750,7 @@
       <c r="N111" s="27"/>
       <c r="O111" s="24"/>
       <c r="P111" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q111" s="23"/>
       <c r="R111" s="24"/>
@@ -6892,7 +6883,7 @@
         <v>-1</v>
       </c>
       <c r="Q113" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113" s="24" t="n">
         <v>0</v>
@@ -6959,7 +6950,7 @@
       <c r="N114" s="27"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114" s="23" t="n">
         <v>-0.5</v>
@@ -7029,10 +7020,10 @@
       <c r="N115" s="27"/>
       <c r="O115" s="24"/>
       <c r="P115" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q115" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R115" s="24" t="n">
         <v>0</v>
@@ -7168,7 +7159,7 @@
         <v>-1</v>
       </c>
       <c r="Q117" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R117" s="24" t="n">
         <v>0</v>
@@ -7235,7 +7226,7 @@
       <c r="N118" s="27"/>
       <c r="O118" s="24"/>
       <c r="P118" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="23" t="n">
         <v>-0.5</v>
@@ -7305,10 +7296,10 @@
       <c r="N119" s="27"/>
       <c r="O119" s="24"/>
       <c r="P119" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q119" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119" s="24" t="n">
         <v>0</v>
@@ -7444,7 +7435,7 @@
         <v>-1</v>
       </c>
       <c r="Q121" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R121" s="24" t="n">
         <v>0</v>
@@ -7511,7 +7502,7 @@
       <c r="N122" s="27"/>
       <c r="O122" s="24"/>
       <c r="P122" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" s="23" t="n">
         <v>-0.5</v>
@@ -7581,10 +7572,10 @@
       <c r="N123" s="27"/>
       <c r="O123" s="24"/>
       <c r="P123" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q123" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R123" s="24" t="n">
         <v>0</v>
@@ -7720,7 +7711,7 @@
         <v>-1</v>
       </c>
       <c r="Q125" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125" s="24" t="n">
         <v>0</v>
@@ -7856,7 +7847,7 @@
         <v>-1</v>
       </c>
       <c r="Q127" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R127" s="24" t="n">
         <v>0</v>
@@ -8112,7 +8103,7 @@
       <c r="N132" s="27"/>
       <c r="O132" s="24"/>
       <c r="P132" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="23"/>
       <c r="R132" s="24"/>
@@ -8164,7 +8155,7 @@
       <c r="N133" s="27"/>
       <c r="O133" s="24"/>
       <c r="P133" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q133" s="23"/>
       <c r="R133" s="24"/>
@@ -8309,7 +8300,7 @@
       <c r="N136" s="27"/>
       <c r="O136" s="24"/>
       <c r="P136" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="23"/>
       <c r="R136" s="24"/>
@@ -8360,7 +8351,7 @@
       <c r="N137" s="27"/>
       <c r="O137" s="24"/>
       <c r="P137" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q137" s="23"/>
       <c r="R137" s="24"/>
@@ -8510,7 +8501,7 @@
       <c r="N140" s="27"/>
       <c r="O140" s="24"/>
       <c r="P140" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140" s="23"/>
       <c r="R140" s="24"/>
@@ -8561,7 +8552,7 @@
       <c r="N141" s="27"/>
       <c r="O141" s="24"/>
       <c r="P141" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q141" s="23"/>
       <c r="R141" s="24"/>
@@ -8694,7 +8685,7 @@
         <v>-1</v>
       </c>
       <c r="Q143" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143" s="24" t="n">
         <v>0</v>
@@ -8761,7 +8752,7 @@
       <c r="N144" s="27"/>
       <c r="O144" s="24"/>
       <c r="P144" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="23" t="n">
         <v>-0.5</v>
@@ -8831,10 +8822,10 @@
       <c r="N145" s="27"/>
       <c r="O145" s="24"/>
       <c r="P145" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q145" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R145" s="24" t="n">
         <v>0</v>
@@ -8970,7 +8961,7 @@
         <v>-1</v>
       </c>
       <c r="Q147" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R147" s="24" t="n">
         <v>0</v>
@@ -9037,7 +9028,7 @@
       <c r="N148" s="27"/>
       <c r="O148" s="24"/>
       <c r="P148" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148" s="23" t="n">
         <v>-0.5</v>
@@ -9107,10 +9098,10 @@
       <c r="N149" s="27"/>
       <c r="O149" s="24"/>
       <c r="P149" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q149" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149" s="24" t="n">
         <v>0</v>
@@ -9246,7 +9237,7 @@
         <v>-1</v>
       </c>
       <c r="Q151" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R151" s="24" t="n">
         <v>0</v>
@@ -9313,7 +9304,7 @@
       <c r="N152" s="27"/>
       <c r="O152" s="24"/>
       <c r="P152" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q152" s="23" t="n">
         <v>-0.5</v>
@@ -9383,10 +9374,10 @@
       <c r="N153" s="27"/>
       <c r="O153" s="24"/>
       <c r="P153" s="24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q153" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R153" s="24" t="n">
         <v>0</v>
@@ -9522,7 +9513,7 @@
         <v>-1</v>
       </c>
       <c r="Q155" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R155" s="24" t="n">
         <v>0</v>
@@ -9658,7 +9649,7 @@
         <v>-1</v>
       </c>
       <c r="Q157" s="23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157" s="24" t="n">
         <v>0</v>
@@ -9727,7 +9718,7 @@
       <c r="P158" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="Q158" s="30" t="n">
+      <c r="Q158" s="23" t="n">
         <v>-0.5</v>
       </c>
       <c r="R158" s="30" t="n">
@@ -9798,8 +9789,8 @@
       <c r="P159" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="Q159" s="30" t="n">
-        <v>-0.5</v>
+      <c r="Q159" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R159" s="30" t="n">
         <v>0</v>
@@ -9867,7 +9858,7 @@
       <c r="P160" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" s="30" t="n">
+      <c r="Q160" s="23" t="n">
         <v>-0.5</v>
       </c>
       <c r="R160" s="30" t="n">
@@ -9936,8 +9927,8 @@
       <c r="P161" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="Q161" s="30" t="n">
-        <v>-0.5</v>
+      <c r="Q161" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R161" s="30" t="n">
         <v>0</v>
@@ -10005,9 +9996,9 @@
       <c r="N162" s="28"/>
       <c r="O162" s="30"/>
       <c r="P162" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="23" t="n">
         <v>-0.5</v>
       </c>
       <c r="R162" s="30" t="n">
@@ -10076,10 +10067,10 @@
       <c r="N163" s="28"/>
       <c r="O163" s="30"/>
       <c r="P163" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="30" t="n">
-        <v>-0.5</v>
+        <v>-1</v>
+      </c>
+      <c r="Q163" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="R163" s="30" t="n">
         <v>0</v>
@@ -10134,7 +10125,7 @@
       </c>
       <c r="N164" s="28"/>
       <c r="O164" s="30"/>
-      <c r="P164" s="30" t="n">
+      <c r="P164" s="24" t="n">
         <v>1</v>
       </c>
       <c r="Q164" s="30"/>
@@ -10187,7 +10178,7 @@
       </c>
       <c r="N165" s="28"/>
       <c r="O165" s="30"/>
-      <c r="P165" s="30" t="n">
+      <c r="P165" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q165" s="30"/>
@@ -10238,7 +10229,7 @@
       </c>
       <c r="N166" s="28"/>
       <c r="O166" s="30"/>
-      <c r="P166" s="30" t="n">
+      <c r="P166" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q166" s="30"/>
@@ -10289,7 +10280,7 @@
       </c>
       <c r="N167" s="28"/>
       <c r="O167" s="30"/>
-      <c r="P167" s="30" t="n">
+      <c r="P167" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q167" s="30"/>
@@ -10342,8 +10333,8 @@
       </c>
       <c r="N168" s="28"/>
       <c r="O168" s="30"/>
-      <c r="P168" s="30" t="n">
-        <v>0</v>
+      <c r="P168" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q168" s="30"/>
       <c r="R168" s="30"/>
@@ -10395,8 +10386,8 @@
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="30"/>
-      <c r="P169" s="30" t="n">
-        <v>0</v>
+      <c r="P169" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q169" s="30"/>
       <c r="R169" s="30"/>
@@ -10446,7 +10437,7 @@
       </c>
       <c r="N170" s="28"/>
       <c r="O170" s="30"/>
-      <c r="P170" s="30" t="n">
+      <c r="P170" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q170" s="30"/>
@@ -10497,7 +10488,7 @@
       </c>
       <c r="N171" s="28"/>
       <c r="O171" s="30"/>
-      <c r="P171" s="30" t="n">
+      <c r="P171" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q171" s="30"/>
@@ -10550,8 +10541,8 @@
       </c>
       <c r="N172" s="28"/>
       <c r="O172" s="30"/>
-      <c r="P172" s="30" t="n">
-        <v>0</v>
+      <c r="P172" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q172" s="30"/>
       <c r="R172" s="30"/>
@@ -10603,8 +10594,8 @@
       </c>
       <c r="N173" s="28"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="30" t="n">
-        <v>0</v>
+      <c r="P173" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q173" s="30"/>
       <c r="R173" s="30"/>
@@ -10654,7 +10645,7 @@
       </c>
       <c r="N174" s="28"/>
       <c r="O174" s="30"/>
-      <c r="P174" s="30" t="n">
+      <c r="P174" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q174" s="30"/>
@@ -10705,7 +10696,7 @@
       </c>
       <c r="N175" s="28"/>
       <c r="O175" s="30"/>
-      <c r="P175" s="30" t="n">
+      <c r="P175" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q175" s="30"/>
@@ -10758,8 +10749,8 @@
       </c>
       <c r="N176" s="28"/>
       <c r="O176" s="30"/>
-      <c r="P176" s="30" t="n">
-        <v>0</v>
+      <c r="P176" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q176" s="30"/>
       <c r="R176" s="30"/>
@@ -10811,8 +10802,8 @@
       </c>
       <c r="N177" s="28"/>
       <c r="O177" s="30"/>
-      <c r="P177" s="30" t="n">
-        <v>0</v>
+      <c r="P177" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q177" s="30"/>
       <c r="R177" s="30"/>
@@ -10862,7 +10853,7 @@
       </c>
       <c r="N178" s="28"/>
       <c r="O178" s="30"/>
-      <c r="P178" s="30" t="n">
+      <c r="P178" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q178" s="30"/>
@@ -10913,7 +10904,7 @@
       </c>
       <c r="N179" s="28"/>
       <c r="O179" s="30"/>
-      <c r="P179" s="30" t="n">
+      <c r="P179" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q179" s="30"/>
@@ -10966,8 +10957,8 @@
       </c>
       <c r="N180" s="28"/>
       <c r="O180" s="30"/>
-      <c r="P180" s="30" t="n">
-        <v>0</v>
+      <c r="P180" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q180" s="30"/>
       <c r="R180" s="30"/>
@@ -11019,8 +11010,8 @@
       </c>
       <c r="N181" s="28"/>
       <c r="O181" s="30"/>
-      <c r="P181" s="30" t="n">
-        <v>0</v>
+      <c r="P181" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q181" s="30"/>
       <c r="R181" s="30"/>
@@ -11077,7 +11068,7 @@
       </c>
       <c r="N182" s="28"/>
       <c r="O182" s="30"/>
-      <c r="P182" s="30" t="n">
+      <c r="P182" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q182" s="30" t="n">
@@ -11139,7 +11130,7 @@
       </c>
       <c r="N183" s="28"/>
       <c r="O183" s="30"/>
-      <c r="P183" s="30" t="n">
+      <c r="P183" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q183" s="30" t="n">
@@ -11203,8 +11194,8 @@
       </c>
       <c r="N184" s="28"/>
       <c r="O184" s="30"/>
-      <c r="P184" s="30" t="n">
-        <v>0</v>
+      <c r="P184" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q184" s="30" t="n">
         <v>1</v>
@@ -11267,8 +11258,8 @@
       </c>
       <c r="N185" s="28"/>
       <c r="O185" s="30"/>
-      <c r="P185" s="30" t="n">
-        <v>0</v>
+      <c r="P185" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q185" s="30" t="n">
         <v>1</v>
@@ -11333,7 +11324,7 @@
       <c r="O186" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P186" s="30" t="n">
+      <c r="P186" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q186" s="30" t="n">
@@ -11401,7 +11392,7 @@
       <c r="O187" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P187" s="30" t="n">
+      <c r="P187" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q187" s="30" t="n">
@@ -11471,8 +11462,8 @@
       <c r="O188" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P188" s="30" t="n">
-        <v>0</v>
+      <c r="P188" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q188" s="30" t="n">
         <v>1</v>
@@ -11541,8 +11532,8 @@
       <c r="O189" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P189" s="30" t="n">
-        <v>0</v>
+      <c r="P189" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q189" s="30" t="n">
         <v>1</v>
@@ -11609,7 +11600,7 @@
       <c r="O190" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P190" s="30" t="n">
+      <c r="P190" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q190" s="30" t="n">
@@ -11677,7 +11668,7 @@
       <c r="O191" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P191" s="30" t="n">
+      <c r="P191" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q191" s="30" t="n">
@@ -11747,8 +11738,8 @@
       <c r="O192" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P192" s="30" t="n">
-        <v>0</v>
+      <c r="P192" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q192" s="30" t="n">
         <v>1</v>
@@ -11817,8 +11808,8 @@
       <c r="O193" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P193" s="30" t="n">
-        <v>0</v>
+      <c r="P193" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q193" s="30" t="n">
         <v>1</v>
@@ -12012,7 +12003,7 @@
       </c>
       <c r="N196" s="28"/>
       <c r="O196" s="30"/>
-      <c r="P196" s="30" t="n">
+      <c r="P196" s="24" t="n">
         <v>1</v>
       </c>
       <c r="Q196" s="30"/>
@@ -12065,7 +12056,7 @@
       </c>
       <c r="N197" s="28"/>
       <c r="O197" s="30"/>
-      <c r="P197" s="30" t="n">
+      <c r="P197" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q197" s="30"/>
@@ -12116,7 +12107,7 @@
       </c>
       <c r="N198" s="28"/>
       <c r="O198" s="30"/>
-      <c r="P198" s="30" t="n">
+      <c r="P198" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q198" s="30"/>
@@ -12167,7 +12158,7 @@
       </c>
       <c r="N199" s="28"/>
       <c r="O199" s="30"/>
-      <c r="P199" s="30" t="n">
+      <c r="P199" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q199" s="30"/>
@@ -12220,8 +12211,8 @@
       </c>
       <c r="N200" s="28"/>
       <c r="O200" s="30"/>
-      <c r="P200" s="30" t="n">
-        <v>0</v>
+      <c r="P200" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q200" s="30"/>
       <c r="R200" s="30"/>
@@ -12273,8 +12264,8 @@
       </c>
       <c r="N201" s="28"/>
       <c r="O201" s="30"/>
-      <c r="P201" s="30" t="n">
-        <v>0</v>
+      <c r="P201" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q201" s="30"/>
       <c r="R201" s="30"/>
@@ -12324,7 +12315,7 @@
       </c>
       <c r="N202" s="28"/>
       <c r="O202" s="30"/>
-      <c r="P202" s="30" t="n">
+      <c r="P202" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q202" s="30"/>
@@ -12375,7 +12366,7 @@
       </c>
       <c r="N203" s="28"/>
       <c r="O203" s="30"/>
-      <c r="P203" s="30" t="n">
+      <c r="P203" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q203" s="30"/>
@@ -12428,8 +12419,8 @@
       </c>
       <c r="N204" s="28"/>
       <c r="O204" s="30"/>
-      <c r="P204" s="30" t="n">
-        <v>0</v>
+      <c r="P204" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q204" s="30"/>
       <c r="R204" s="30"/>
@@ -12481,8 +12472,8 @@
       </c>
       <c r="N205" s="28"/>
       <c r="O205" s="30"/>
-      <c r="P205" s="30" t="n">
-        <v>0</v>
+      <c r="P205" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q205" s="30"/>
       <c r="R205" s="30"/>
@@ -12532,7 +12523,7 @@
       </c>
       <c r="N206" s="28"/>
       <c r="O206" s="30"/>
-      <c r="P206" s="30" t="n">
+      <c r="P206" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q206" s="30"/>
@@ -12583,7 +12574,7 @@
       </c>
       <c r="N207" s="28"/>
       <c r="O207" s="30"/>
-      <c r="P207" s="30" t="n">
+      <c r="P207" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q207" s="30"/>
@@ -12636,8 +12627,8 @@
       </c>
       <c r="N208" s="28"/>
       <c r="O208" s="30"/>
-      <c r="P208" s="30" t="n">
-        <v>0</v>
+      <c r="P208" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q208" s="30"/>
       <c r="R208" s="30"/>
@@ -12689,8 +12680,8 @@
       </c>
       <c r="N209" s="28"/>
       <c r="O209" s="30"/>
-      <c r="P209" s="30" t="n">
-        <v>0</v>
+      <c r="P209" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q209" s="30"/>
       <c r="R209" s="30"/>
@@ -12740,7 +12731,7 @@
       </c>
       <c r="N210" s="28"/>
       <c r="O210" s="30"/>
-      <c r="P210" s="30" t="n">
+      <c r="P210" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q210" s="30"/>
@@ -12783,7 +12774,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P211" s="8" t="n">
+      <c r="P211" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U211" s="11" t="s">
@@ -12825,8 +12816,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P212" s="8" t="n">
-        <v>0</v>
+      <c r="P212" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U212" s="11" t="s">
         <v>35</v>
@@ -12867,8 +12858,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P213" s="8" t="n">
-        <v>0</v>
+      <c r="P213" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U213" s="11" t="s">
         <v>31</v>
@@ -12916,7 +12907,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P214" s="8" t="n">
+      <c r="P214" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q214" s="9" t="n">
@@ -12971,7 +12962,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P215" s="8" t="n">
+      <c r="P215" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q215" s="9" t="n">
@@ -13029,8 +13020,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P216" s="8" t="n">
-        <v>0</v>
+      <c r="P216" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q216" s="9" t="n">
         <v>1</v>
@@ -13087,8 +13078,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P217" s="8" t="n">
-        <v>0</v>
+      <c r="P217" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q217" s="9" t="n">
         <v>1</v>
@@ -13148,7 +13139,7 @@
       <c r="O218" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P218" s="8" t="n">
+      <c r="P218" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q218" s="9" t="n">
@@ -13212,7 +13203,7 @@
       <c r="O219" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P219" s="8" t="n">
+      <c r="P219" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q219" s="9" t="n">
@@ -13279,8 +13270,8 @@
       <c r="O220" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P220" s="8" t="n">
-        <v>0</v>
+      <c r="P220" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q220" s="9" t="n">
         <v>1</v>
@@ -13346,8 +13337,8 @@
       <c r="O221" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P221" s="8" t="n">
-        <v>0</v>
+      <c r="P221" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q221" s="9" t="n">
         <v>1</v>
@@ -13410,7 +13401,7 @@
       <c r="O222" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P222" s="8" t="n">
+      <c r="P222" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q222" s="9" t="n">
@@ -13474,7 +13465,7 @@
       <c r="O223" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P223" s="8" t="n">
+      <c r="P223" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q223" s="9" t="n">
@@ -13541,8 +13532,8 @@
       <c r="O224" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P224" s="8" t="n">
-        <v>0</v>
+      <c r="P224" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q224" s="9" t="n">
         <v>1</v>
@@ -13608,8 +13599,8 @@
       <c r="O225" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P225" s="8" t="n">
-        <v>0</v>
+      <c r="P225" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q225" s="9" t="n">
         <v>1</v>
@@ -13787,7 +13778,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P228" s="8" t="n">
+      <c r="P228" s="24" t="n">
         <v>1</v>
       </c>
       <c r="U228" s="11" t="s">
@@ -13829,7 +13820,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P229" s="8" t="n">
+      <c r="P229" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U229" s="11" t="s">
@@ -13868,7 +13859,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P230" s="8" t="n">
+      <c r="P230" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U230" s="11" t="s">
@@ -13907,7 +13898,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P231" s="8" t="n">
+      <c r="P231" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U231" s="11" t="s">
@@ -13949,8 +13940,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P232" s="8" t="n">
-        <v>0</v>
+      <c r="P232" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U232" s="11" t="s">
         <v>30</v>
@@ -13991,8 +13982,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P233" s="8" t="n">
-        <v>0</v>
+      <c r="P233" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U233" s="11" t="s">
         <v>31</v>
@@ -14030,7 +14021,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P234" s="8" t="n">
+      <c r="P234" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U234" s="11" t="s">
@@ -14069,7 +14060,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P235" s="8" t="n">
+      <c r="P235" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U235" s="11" t="s">
@@ -14111,8 +14102,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P236" s="8" t="n">
-        <v>0</v>
+      <c r="P236" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U236" s="11" t="s">
         <v>33</v>
@@ -14153,8 +14144,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P237" s="8" t="n">
-        <v>0</v>
+      <c r="P237" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U237" s="11" t="s">
         <v>31</v>
@@ -14192,7 +14183,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P238" s="8" t="n">
+      <c r="P238" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U238" s="11" t="s">
@@ -14231,7 +14222,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P239" s="8" t="n">
+      <c r="P239" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U239" s="11" t="s">
@@ -14273,8 +14264,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P240" s="8" t="n">
-        <v>0</v>
+      <c r="P240" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U240" s="11" t="s">
         <v>33</v>
@@ -14315,8 +14306,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P241" s="8" t="n">
-        <v>0</v>
+      <c r="P241" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U241" s="11" t="s">
         <v>31</v>
@@ -14354,7 +14345,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P242" s="8" t="n">
+      <c r="P242" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U242" s="11" t="s">
@@ -14393,7 +14384,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P243" s="8" t="n">
+      <c r="P243" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U243" s="11" t="s">
@@ -14435,8 +14426,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P244" s="8" t="n">
-        <v>0</v>
+      <c r="P244" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U244" s="11" t="s">
         <v>35</v>
@@ -14477,8 +14468,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P245" s="8" t="n">
-        <v>0</v>
+      <c r="P245" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U245" s="11" t="s">
         <v>31</v>
@@ -14526,7 +14517,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P246" s="8" t="n">
+      <c r="P246" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q246" s="9" t="n">
@@ -14581,7 +14572,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P247" s="8" t="n">
+      <c r="P247" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q247" s="9" t="n">
@@ -14639,8 +14630,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P248" s="8" t="n">
-        <v>0</v>
+      <c r="P248" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q248" s="9" t="n">
         <v>1</v>
@@ -14697,8 +14688,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P249" s="8" t="n">
-        <v>0</v>
+      <c r="P249" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q249" s="9" t="n">
         <v>1</v>
@@ -14758,7 +14749,7 @@
       <c r="O250" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P250" s="8" t="n">
+      <c r="P250" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q250" s="9" t="n">
@@ -14822,7 +14813,7 @@
       <c r="O251" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P251" s="8" t="n">
+      <c r="P251" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q251" s="9" t="n">
@@ -14889,8 +14880,8 @@
       <c r="O252" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P252" s="8" t="n">
-        <v>0</v>
+      <c r="P252" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q252" s="9" t="n">
         <v>1</v>
@@ -14956,8 +14947,8 @@
       <c r="O253" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P253" s="8" t="n">
-        <v>0</v>
+      <c r="P253" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q253" s="9" t="n">
         <v>1</v>
@@ -15020,7 +15011,7 @@
       <c r="O254" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P254" s="8" t="n">
+      <c r="P254" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q254" s="9" t="n">
@@ -15084,7 +15075,7 @@
       <c r="O255" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P255" s="8" t="n">
+      <c r="P255" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q255" s="9" t="n">
@@ -15151,8 +15142,8 @@
       <c r="O256" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P256" s="8" t="n">
-        <v>0</v>
+      <c r="P256" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q256" s="9" t="n">
         <v>1</v>
@@ -15218,8 +15209,8 @@
       <c r="O257" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="P257" s="8" t="n">
-        <v>0</v>
+      <c r="P257" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q257" s="9" t="n">
         <v>1</v>
@@ -15793,7 +15784,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P266" s="8" t="n">
+      <c r="P266" s="24" t="n">
         <v>1</v>
       </c>
       <c r="U266" s="11" t="s">
@@ -15835,7 +15826,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P267" s="8" t="n">
+      <c r="P267" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U267" s="11" t="s">
@@ -15874,7 +15865,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P268" s="8" t="n">
+      <c r="P268" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U268" s="11" t="s">
@@ -15913,7 +15904,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P269" s="8" t="n">
+      <c r="P269" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U269" s="11" t="s">
@@ -15955,8 +15946,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P270" s="8" t="n">
-        <v>0</v>
+      <c r="P270" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U270" s="11" t="s">
         <v>30</v>
@@ -15997,8 +15988,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P271" s="8" t="n">
-        <v>0</v>
+      <c r="P271" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U271" s="11" t="s">
         <v>31</v>
@@ -16036,7 +16027,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P272" s="8" t="n">
+      <c r="P272" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U272" s="11" t="s">
@@ -16075,7 +16066,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P273" s="8" t="n">
+      <c r="P273" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U273" s="11" t="s">
@@ -16117,8 +16108,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P274" s="8" t="n">
-        <v>0</v>
+      <c r="P274" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U274" s="11" t="s">
         <v>30</v>
@@ -16159,8 +16150,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P275" s="8" t="n">
-        <v>0</v>
+      <c r="P275" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U275" s="11" t="s">
         <v>31</v>
@@ -16198,7 +16189,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P276" s="8" t="n">
+      <c r="P276" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U276" s="11" t="s">
@@ -16237,7 +16228,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P277" s="8" t="n">
+      <c r="P277" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U277" s="11" t="s">
@@ -16279,8 +16270,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P278" s="8" t="n">
-        <v>0</v>
+      <c r="P278" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U278" s="11" t="s">
         <v>30</v>
@@ -16321,8 +16312,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P279" s="8" t="n">
-        <v>0</v>
+      <c r="P279" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U279" s="11" t="s">
         <v>31</v>
@@ -16377,7 +16368,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P280" s="8" t="n">
+      <c r="P280" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q280" s="9" t="n">
@@ -16442,7 +16433,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P281" s="8" t="n">
+      <c r="P281" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q281" s="9" t="n">
@@ -16510,8 +16501,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P282" s="8" t="n">
-        <v>0</v>
+      <c r="P282" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q282" s="9" t="n">
         <v>0</v>
@@ -16578,8 +16569,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P283" s="8" t="n">
-        <v>0</v>
+      <c r="P283" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q283" s="9" t="n">
         <v>0</v>
@@ -16643,7 +16634,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P284" s="8" t="n">
+      <c r="P284" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q284" s="9" t="n">
@@ -16708,7 +16699,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P285" s="8" t="n">
+      <c r="P285" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q285" s="9" t="n">
@@ -16776,8 +16767,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P286" s="8" t="n">
-        <v>0</v>
+      <c r="P286" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q286" s="9" t="n">
         <v>0</v>
@@ -16844,8 +16835,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P287" s="8" t="n">
-        <v>0</v>
+      <c r="P287" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q287" s="9" t="n">
         <v>0</v>
@@ -16909,7 +16900,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P288" s="8" t="n">
+      <c r="P288" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q288" s="9" t="n">
@@ -16974,7 +16965,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P289" s="8" t="n">
+      <c r="P289" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q289" s="9" t="n">
@@ -17042,8 +17033,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P290" s="8" t="n">
-        <v>0</v>
+      <c r="P290" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q290" s="9" t="n">
         <v>0</v>
@@ -17110,8 +17101,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P291" s="8" t="n">
-        <v>0</v>
+      <c r="P291" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q291" s="9" t="n">
         <v>0</v>
@@ -17175,7 +17166,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P292" s="8" t="n">
+      <c r="P292" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q292" s="9" t="n">
@@ -17240,7 +17231,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P293" s="8" t="n">
+      <c r="P293" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q293" s="9" t="n">
@@ -17291,7 +17282,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P294" s="8" t="n">
+      <c r="P294" s="24" t="n">
         <v>1</v>
       </c>
       <c r="U294" s="11" t="s">
@@ -17333,7 +17324,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P295" s="8" t="n">
+      <c r="P295" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U295" s="11" t="s">
@@ -17372,7 +17363,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P296" s="8" t="n">
+      <c r="P296" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U296" s="11" t="s">
@@ -17411,7 +17402,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P297" s="8" t="n">
+      <c r="P297" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U297" s="11" t="s">
@@ -17453,8 +17444,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P298" s="8" t="n">
-        <v>0</v>
+      <c r="P298" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U298" s="11" t="s">
         <v>30</v>
@@ -17495,8 +17486,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P299" s="8" t="n">
-        <v>0</v>
+      <c r="P299" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U299" s="11" t="s">
         <v>31</v>
@@ -17534,7 +17525,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P300" s="8" t="n">
+      <c r="P300" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U300" s="11" t="s">
@@ -17573,7 +17564,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P301" s="8" t="n">
+      <c r="P301" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U301" s="11" t="s">
@@ -17615,8 +17606,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P302" s="8" t="n">
-        <v>0</v>
+      <c r="P302" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U302" s="11" t="s">
         <v>30</v>
@@ -17657,8 +17648,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P303" s="8" t="n">
-        <v>0</v>
+      <c r="P303" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U303" s="11" t="s">
         <v>31</v>
@@ -17696,7 +17687,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P304" s="8" t="n">
+      <c r="P304" s="24" t="n">
         <v>0</v>
       </c>
       <c r="U304" s="11" t="s">
@@ -17735,7 +17726,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P305" s="8" t="n">
+      <c r="P305" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="U305" s="11" t="s">
@@ -17777,8 +17768,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P306" s="8" t="n">
-        <v>0</v>
+      <c r="P306" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="U306" s="11" t="s">
         <v>30</v>
@@ -17819,8 +17810,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P307" s="8" t="n">
-        <v>0</v>
+      <c r="P307" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="U307" s="11" t="s">
         <v>31</v>
@@ -17875,7 +17866,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P308" s="8" t="n">
+      <c r="P308" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q308" s="9" t="n">
@@ -17940,7 +17931,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P309" s="8" t="n">
+      <c r="P309" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q309" s="9" t="n">
@@ -18008,8 +17999,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P310" s="8" t="n">
-        <v>0</v>
+      <c r="P310" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q310" s="9" t="n">
         <v>0</v>
@@ -18076,8 +18067,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P311" s="8" t="n">
-        <v>0</v>
+      <c r="P311" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q311" s="9" t="n">
         <v>0</v>
@@ -18141,7 +18132,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P312" s="8" t="n">
+      <c r="P312" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q312" s="9" t="n">
@@ -18206,7 +18197,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P313" s="8" t="n">
+      <c r="P313" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q313" s="9" t="n">
@@ -18274,8 +18265,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P314" s="8" t="n">
-        <v>0</v>
+      <c r="P314" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q314" s="9" t="n">
         <v>0</v>
@@ -18342,8 +18333,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P315" s="8" t="n">
-        <v>0</v>
+      <c r="P315" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q315" s="9" t="n">
         <v>0</v>
@@ -18407,7 +18398,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P316" s="8" t="n">
+      <c r="P316" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q316" s="9" t="n">
@@ -18472,7 +18463,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P317" s="8" t="n">
+      <c r="P317" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q317" s="9" t="n">
@@ -18540,8 +18531,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P318" s="8" t="n">
-        <v>0</v>
+      <c r="P318" s="24" t="n">
+        <v>1</v>
       </c>
       <c r="Q318" s="9" t="n">
         <v>0</v>
@@ -18608,8 +18599,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P319" s="8" t="n">
-        <v>0</v>
+      <c r="P319" s="24" t="n">
+        <v>-1</v>
       </c>
       <c r="Q319" s="9" t="n">
         <v>0</v>
@@ -18673,7 +18664,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P320" s="8" t="n">
+      <c r="P320" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q320" s="9" t="n">
@@ -18738,7 +18729,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P321" s="8" t="n">
+      <c r="P321" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="Q321" s="9" t="n">
@@ -18764,64 +18755,61 @@
       <c r="A322" s="18" t="n">
         <v>321</v>
       </c>
-      <c r="B322" s="28" t="s">
+      <c r="B322" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C322" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D322" s="28" t="s">
+      <c r="C322" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D322" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E322" s="28" t="s">
+      <c r="E322" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F322" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G322" s="28" t="s">
+      <c r="F322" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G322" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H322" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I322" s="28" t="s">
+      <c r="H322" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I322" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J322" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K322" s="28" t="s">
+      <c r="J322" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K322" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L322" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M322" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N322" s="28"/>
-      <c r="O322" s="28"/>
-      <c r="P322" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q322" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R322" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S322" s="28" t="n">
+      <c r="L322" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M322" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P322" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S322" s="9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="T322" s="28"/>
-      <c r="U322" s="28" t="s">
+      <c r="U322" s="11" t="s">
         <v>26</v>
       </c>
       <c r="V322" s="1" t="n">
@@ -18835,64 +18823,61 @@
       <c r="A323" s="18" t="n">
         <v>322</v>
       </c>
-      <c r="B323" s="28" t="s">
+      <c r="B323" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C323" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D323" s="28" t="s">
+      <c r="C323" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D323" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E323" s="28" t="s">
+      <c r="E323" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F323" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G323" s="28" t="s">
+      <c r="F323" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H323" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I323" s="28" t="s">
+      <c r="H323" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I323" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J323" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K323" s="28" t="s">
+      <c r="J323" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K323" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L323" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M323" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N323" s="28"/>
-      <c r="O323" s="28"/>
-      <c r="P323" s="28" t="n">
+      <c r="L323" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M323" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P323" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="Q323" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R323" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S323" s="28" t="n">
+      <c r="Q323" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="T323" s="28"/>
-      <c r="U323" s="28" t="s">
+      <c r="U323" s="11" t="s">
         <v>27</v>
       </c>
       <c r="V323" s="1" t="n">
@@ -18906,62 +18891,58 @@
       <c r="A324" s="18" t="n">
         <v>323</v>
       </c>
-      <c r="B324" s="28" t="s">
+      <c r="B324" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C324" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D324" s="28" t="s">
+      <c r="C324" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D324" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E324" s="28"/>
-      <c r="F324" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G324" s="28" t="s">
+      <c r="F324" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H324" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I324" s="28" t="s">
+      <c r="H324" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I324" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J324" s="31" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K324" s="28" t="s">
+      <c r="J324" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K324" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L324" s="31" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M324" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N324" s="28"/>
-      <c r="O324" s="28"/>
-      <c r="P324" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q324" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R324" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S324" s="28" t="n">
+      <c r="L324" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M324" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P324" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S324" s="9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="T324" s="28"/>
-      <c r="U324" s="28" t="s">
+      <c r="U324" s="11" t="s">
         <v>28</v>
       </c>
       <c r="V324" s="1" t="n">
@@ -18975,62 +18956,58 @@
       <c r="A325" s="18" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="28" t="s">
+      <c r="B325" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C325" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D325" s="28" t="s">
+      <c r="C325" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D325" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E325" s="28"/>
-      <c r="F325" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G325" s="28" t="s">
+      <c r="F325" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G325" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H325" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I325" s="28" t="s">
+      <c r="H325" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I325" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J325" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K325" s="28" t="s">
+      <c r="J325" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K325" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L325" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M325" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N325" s="28"/>
-      <c r="O325" s="28"/>
-      <c r="P325" s="28" t="n">
+      <c r="L325" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M325" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P325" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="Q325" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R325" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S325" s="28" t="n">
+      <c r="Q325" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S325" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="T325" s="28"/>
-      <c r="U325" s="28" t="s">
+      <c r="U325" s="11" t="s">
         <v>27</v>
       </c>
       <c r="V325" s="1" t="n">
@@ -19044,64 +19021,61 @@
       <c r="A326" s="18" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="28" t="s">
+      <c r="B326" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C326" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D326" s="28" t="s">
+      <c r="C326" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D326" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E326" s="28" t="s">
+      <c r="E326" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F326" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G326" s="28" t="s">
+      <c r="F326" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H326" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I326" s="28" t="s">
+      <c r="H326" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I326" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J326" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K326" s="28" t="s">
+      <c r="J326" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K326" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L326" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M326" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N326" s="28"/>
-      <c r="O326" s="28"/>
-      <c r="P326" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R326" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S326" s="28" t="n">
+      <c r="L326" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M326" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P326" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" s="9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="T326" s="28"/>
-      <c r="U326" s="28" t="s">
+      <c r="U326" s="11" t="s">
         <v>30</v>
       </c>
       <c r="V326" s="1" t="n">
@@ -19115,64 +19089,61 @@
       <c r="A327" s="18" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="28" t="s">
+      <c r="B327" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C327" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D327" s="28" t="s">
+      <c r="C327" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D327" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E327" s="28" t="s">
+      <c r="E327" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F327" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G327" s="28" t="s">
+      <c r="F327" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G327" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H327" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I327" s="28" t="s">
+      <c r="H327" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I327" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J327" s="32" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K327" s="28" t="s">
+      <c r="J327" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K327" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L327" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M327" s="32" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N327" s="28"/>
-      <c r="O327" s="28"/>
-      <c r="P327" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q327" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R327" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S327" s="28" t="n">
+      <c r="L327" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M327" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P327" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q327" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="T327" s="28"/>
-      <c r="U327" s="28" t="s">
+      <c r="U327" s="11" t="s">
         <v>31</v>
       </c>
       <c r="V327" s="1" t="n">
@@ -19181,2214 +19152,6 @@
       <c r="W327" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="28"/>
-      <c r="B328" s="28"/>
-      <c r="C328" s="32"/>
-      <c r="D328" s="28"/>
-      <c r="E328" s="28"/>
-      <c r="F328" s="32"/>
-      <c r="G328" s="28"/>
-      <c r="H328" s="28"/>
-      <c r="I328" s="28"/>
-      <c r="J328" s="32"/>
-      <c r="K328" s="28"/>
-      <c r="L328" s="28"/>
-      <c r="M328" s="32"/>
-      <c r="N328" s="28"/>
-      <c r="O328" s="28"/>
-      <c r="P328" s="28"/>
-      <c r="Q328" s="28"/>
-      <c r="R328" s="28"/>
-      <c r="S328" s="28"/>
-      <c r="T328" s="28"/>
-      <c r="U328" s="28"/>
-    </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="28"/>
-      <c r="B329" s="28"/>
-      <c r="C329" s="32"/>
-      <c r="D329" s="28"/>
-      <c r="E329" s="28"/>
-      <c r="F329" s="32"/>
-      <c r="G329" s="28"/>
-      <c r="H329" s="28"/>
-      <c r="I329" s="28"/>
-      <c r="J329" s="32"/>
-      <c r="K329" s="28"/>
-      <c r="L329" s="28"/>
-      <c r="M329" s="32"/>
-      <c r="N329" s="28"/>
-      <c r="O329" s="28"/>
-      <c r="P329" s="28"/>
-      <c r="Q329" s="28"/>
-      <c r="R329" s="28"/>
-      <c r="S329" s="28"/>
-      <c r="T329" s="28"/>
-      <c r="U329" s="28"/>
-    </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="28"/>
-      <c r="B330" s="28"/>
-      <c r="C330" s="32"/>
-      <c r="D330" s="28"/>
-      <c r="E330" s="28"/>
-      <c r="F330" s="32"/>
-      <c r="G330" s="28"/>
-      <c r="H330" s="28"/>
-      <c r="I330" s="28"/>
-      <c r="J330" s="32"/>
-      <c r="K330" s="28"/>
-      <c r="L330" s="28"/>
-      <c r="M330" s="32"/>
-      <c r="N330" s="28"/>
-      <c r="O330" s="28"/>
-      <c r="P330" s="28"/>
-      <c r="Q330" s="28"/>
-      <c r="R330" s="28"/>
-      <c r="S330" s="28"/>
-      <c r="T330" s="28"/>
-      <c r="U330" s="28"/>
-    </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="28"/>
-      <c r="B331" s="28"/>
-      <c r="C331" s="32"/>
-      <c r="D331" s="28"/>
-      <c r="E331" s="28"/>
-      <c r="F331" s="32"/>
-      <c r="G331" s="28"/>
-      <c r="H331" s="28"/>
-      <c r="I331" s="28"/>
-      <c r="J331" s="32"/>
-      <c r="K331" s="28"/>
-      <c r="L331" s="28"/>
-      <c r="M331" s="32"/>
-      <c r="N331" s="28"/>
-      <c r="O331" s="28"/>
-      <c r="P331" s="28"/>
-      <c r="Q331" s="28"/>
-      <c r="R331" s="28"/>
-      <c r="S331" s="28"/>
-      <c r="T331" s="28"/>
-      <c r="U331" s="28"/>
-    </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="28"/>
-      <c r="B332" s="28"/>
-      <c r="C332" s="32"/>
-      <c r="D332" s="28"/>
-      <c r="E332" s="28"/>
-      <c r="F332" s="32"/>
-      <c r="G332" s="28"/>
-      <c r="H332" s="28"/>
-      <c r="I332" s="28"/>
-      <c r="J332" s="32"/>
-      <c r="K332" s="28"/>
-      <c r="L332" s="28"/>
-      <c r="M332" s="32"/>
-      <c r="N332" s="28"/>
-      <c r="O332" s="28"/>
-      <c r="P332" s="28"/>
-      <c r="Q332" s="28"/>
-      <c r="R332" s="28"/>
-      <c r="S332" s="28"/>
-      <c r="T332" s="28"/>
-      <c r="U332" s="28"/>
-    </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="28"/>
-      <c r="B333" s="28"/>
-      <c r="C333" s="32"/>
-      <c r="D333" s="28"/>
-      <c r="E333" s="28"/>
-      <c r="F333" s="32"/>
-      <c r="G333" s="28"/>
-      <c r="H333" s="28"/>
-      <c r="I333" s="28"/>
-      <c r="J333" s="32"/>
-      <c r="K333" s="28"/>
-      <c r="L333" s="28"/>
-      <c r="M333" s="32"/>
-      <c r="N333" s="28"/>
-      <c r="O333" s="28"/>
-      <c r="P333" s="28"/>
-      <c r="Q333" s="28"/>
-      <c r="R333" s="28"/>
-      <c r="S333" s="28"/>
-      <c r="T333" s="28"/>
-      <c r="U333" s="28"/>
-    </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="32"/>
-      <c r="D334" s="28"/>
-      <c r="E334" s="28"/>
-      <c r="F334" s="32"/>
-      <c r="G334" s="28"/>
-      <c r="H334" s="28"/>
-      <c r="I334" s="28"/>
-      <c r="J334" s="32"/>
-      <c r="K334" s="28"/>
-      <c r="L334" s="28"/>
-      <c r="M334" s="32"/>
-      <c r="N334" s="28"/>
-      <c r="O334" s="28"/>
-      <c r="P334" s="28"/>
-      <c r="Q334" s="28"/>
-      <c r="R334" s="28"/>
-      <c r="S334" s="28"/>
-      <c r="T334" s="28"/>
-      <c r="U334" s="28"/>
-    </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="28"/>
-      <c r="B335" s="28"/>
-      <c r="C335" s="28"/>
-      <c r="D335" s="28"/>
-      <c r="E335" s="28"/>
-      <c r="F335" s="28"/>
-      <c r="G335" s="28"/>
-      <c r="H335" s="28"/>
-      <c r="I335" s="28"/>
-      <c r="J335" s="28"/>
-      <c r="K335" s="28"/>
-      <c r="L335" s="28"/>
-      <c r="M335" s="28"/>
-      <c r="N335" s="28"/>
-      <c r="O335" s="28"/>
-      <c r="P335" s="28"/>
-      <c r="Q335" s="28"/>
-      <c r="R335" s="28"/>
-      <c r="S335" s="28"/>
-      <c r="T335" s="28"/>
-      <c r="U335" s="28"/>
-    </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="28"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="28"/>
-      <c r="D336" s="28"/>
-      <c r="E336" s="28"/>
-      <c r="F336" s="28"/>
-      <c r="G336" s="28"/>
-      <c r="H336" s="28"/>
-      <c r="I336" s="28"/>
-      <c r="J336" s="28"/>
-      <c r="K336" s="28"/>
-      <c r="L336" s="28"/>
-      <c r="M336" s="28"/>
-      <c r="N336" s="28"/>
-      <c r="O336" s="28"/>
-      <c r="P336" s="28"/>
-      <c r="Q336" s="28"/>
-      <c r="R336" s="28"/>
-      <c r="S336" s="28"/>
-      <c r="T336" s="28"/>
-      <c r="U336" s="28"/>
-    </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="28"/>
-      <c r="B337" s="28"/>
-      <c r="C337" s="28"/>
-      <c r="D337" s="28"/>
-      <c r="E337" s="28"/>
-      <c r="F337" s="28"/>
-      <c r="G337" s="28"/>
-      <c r="H337" s="28"/>
-      <c r="I337" s="28"/>
-      <c r="J337" s="28"/>
-      <c r="K337" s="28"/>
-      <c r="L337" s="28"/>
-      <c r="M337" s="28"/>
-      <c r="N337" s="28"/>
-      <c r="O337" s="28"/>
-      <c r="P337" s="28"/>
-      <c r="Q337" s="28"/>
-      <c r="R337" s="28"/>
-      <c r="S337" s="28"/>
-      <c r="T337" s="28"/>
-      <c r="U337" s="28"/>
-    </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="28"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="28"/>
-      <c r="D338" s="28"/>
-      <c r="E338" s="28"/>
-      <c r="F338" s="28"/>
-      <c r="G338" s="28"/>
-      <c r="H338" s="28"/>
-      <c r="I338" s="28"/>
-      <c r="J338" s="28"/>
-      <c r="K338" s="28"/>
-      <c r="L338" s="28"/>
-      <c r="M338" s="28"/>
-      <c r="N338" s="28"/>
-      <c r="O338" s="28"/>
-      <c r="P338" s="28"/>
-      <c r="Q338" s="28"/>
-      <c r="R338" s="28"/>
-      <c r="S338" s="28"/>
-      <c r="T338" s="28"/>
-      <c r="U338" s="28"/>
-    </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="28"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="28"/>
-      <c r="D339" s="28"/>
-      <c r="E339" s="28"/>
-      <c r="F339" s="28"/>
-      <c r="G339" s="28"/>
-      <c r="H339" s="28"/>
-      <c r="I339" s="28"/>
-      <c r="J339" s="28"/>
-      <c r="K339" s="28"/>
-      <c r="L339" s="28"/>
-      <c r="M339" s="28"/>
-      <c r="N339" s="28"/>
-      <c r="O339" s="28"/>
-      <c r="P339" s="28"/>
-      <c r="Q339" s="28"/>
-      <c r="R339" s="28"/>
-      <c r="S339" s="28"/>
-      <c r="T339" s="28"/>
-      <c r="U339" s="28"/>
-    </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="28"/>
-      <c r="B340" s="28"/>
-      <c r="C340" s="28"/>
-      <c r="D340" s="28"/>
-      <c r="E340" s="28"/>
-      <c r="F340" s="28"/>
-      <c r="G340" s="28"/>
-      <c r="H340" s="28"/>
-      <c r="I340" s="28"/>
-      <c r="J340" s="28"/>
-      <c r="K340" s="28"/>
-      <c r="L340" s="28"/>
-      <c r="M340" s="28"/>
-      <c r="N340" s="28"/>
-      <c r="O340" s="28"/>
-      <c r="P340" s="28"/>
-      <c r="Q340" s="28"/>
-      <c r="R340" s="28"/>
-      <c r="S340" s="28"/>
-      <c r="T340" s="28"/>
-      <c r="U340" s="28"/>
-    </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="28"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="28"/>
-      <c r="E341" s="28"/>
-      <c r="F341" s="28"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-      <c r="I341" s="28"/>
-      <c r="J341" s="28"/>
-      <c r="K341" s="28"/>
-      <c r="L341" s="28"/>
-      <c r="M341" s="28"/>
-      <c r="N341" s="28"/>
-      <c r="O341" s="28"/>
-      <c r="P341" s="28"/>
-      <c r="Q341" s="28"/>
-      <c r="R341" s="28"/>
-      <c r="S341" s="28"/>
-      <c r="T341" s="28"/>
-      <c r="U341" s="28"/>
-    </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="28"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="28"/>
-      <c r="E342" s="28"/>
-      <c r="F342" s="28"/>
-      <c r="G342" s="28"/>
-      <c r="H342" s="28"/>
-      <c r="I342" s="28"/>
-      <c r="J342" s="28"/>
-      <c r="K342" s="28"/>
-      <c r="L342" s="28"/>
-      <c r="M342" s="28"/>
-      <c r="N342" s="28"/>
-      <c r="O342" s="28"/>
-      <c r="P342" s="28"/>
-      <c r="Q342" s="28"/>
-      <c r="R342" s="28"/>
-      <c r="S342" s="28"/>
-      <c r="T342" s="28"/>
-      <c r="U342" s="28"/>
-    </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="28"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="28"/>
-      <c r="E343" s="28"/>
-      <c r="F343" s="28"/>
-      <c r="G343" s="28"/>
-      <c r="H343" s="28"/>
-      <c r="I343" s="28"/>
-      <c r="J343" s="28"/>
-      <c r="K343" s="28"/>
-      <c r="L343" s="28"/>
-      <c r="M343" s="28"/>
-      <c r="N343" s="28"/>
-      <c r="O343" s="28"/>
-      <c r="P343" s="28"/>
-      <c r="Q343" s="28"/>
-      <c r="R343" s="28"/>
-      <c r="S343" s="28"/>
-      <c r="T343" s="28"/>
-      <c r="U343" s="28"/>
-    </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="28"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="28"/>
-      <c r="E344" s="28"/>
-      <c r="F344" s="28"/>
-      <c r="G344" s="28"/>
-      <c r="H344" s="28"/>
-      <c r="I344" s="28"/>
-      <c r="J344" s="28"/>
-      <c r="K344" s="28"/>
-      <c r="L344" s="28"/>
-      <c r="M344" s="28"/>
-      <c r="N344" s="28"/>
-      <c r="O344" s="28"/>
-      <c r="P344" s="28"/>
-      <c r="Q344" s="28"/>
-      <c r="R344" s="28"/>
-      <c r="S344" s="28"/>
-      <c r="T344" s="28"/>
-      <c r="U344" s="28"/>
-    </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="28"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="28"/>
-      <c r="D345" s="28"/>
-      <c r="E345" s="28"/>
-      <c r="F345" s="28"/>
-      <c r="G345" s="28"/>
-      <c r="H345" s="28"/>
-      <c r="I345" s="28"/>
-      <c r="J345" s="28"/>
-      <c r="K345" s="28"/>
-      <c r="L345" s="28"/>
-      <c r="M345" s="28"/>
-      <c r="N345" s="28"/>
-      <c r="O345" s="28"/>
-      <c r="P345" s="28"/>
-      <c r="Q345" s="28"/>
-      <c r="R345" s="28"/>
-      <c r="S345" s="28"/>
-      <c r="T345" s="28"/>
-      <c r="U345" s="28"/>
-    </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="28"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="28"/>
-      <c r="F346" s="28"/>
-      <c r="G346" s="28"/>
-      <c r="H346" s="32"/>
-      <c r="I346" s="28"/>
-      <c r="J346" s="28"/>
-      <c r="K346" s="28"/>
-      <c r="L346" s="28"/>
-      <c r="M346" s="28"/>
-      <c r="N346" s="28"/>
-      <c r="O346" s="28"/>
-      <c r="P346" s="28"/>
-      <c r="Q346" s="28"/>
-      <c r="R346" s="28"/>
-      <c r="S346" s="28"/>
-      <c r="T346" s="28"/>
-      <c r="U346" s="28"/>
-    </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="28"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="28"/>
-      <c r="E347" s="28"/>
-      <c r="F347" s="28"/>
-      <c r="G347" s="28"/>
-      <c r="H347" s="32"/>
-      <c r="I347" s="28"/>
-      <c r="J347" s="28"/>
-      <c r="K347" s="28"/>
-      <c r="L347" s="28"/>
-      <c r="M347" s="28"/>
-      <c r="N347" s="28"/>
-      <c r="O347" s="28"/>
-      <c r="P347" s="28"/>
-      <c r="Q347" s="28"/>
-      <c r="R347" s="28"/>
-      <c r="S347" s="28"/>
-      <c r="T347" s="28"/>
-      <c r="U347" s="28"/>
-    </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="28"/>
-      <c r="B348" s="28"/>
-      <c r="C348" s="28"/>
-      <c r="D348" s="28"/>
-      <c r="E348" s="28"/>
-      <c r="F348" s="28"/>
-      <c r="G348" s="28"/>
-      <c r="H348" s="32"/>
-      <c r="I348" s="28"/>
-      <c r="J348" s="28"/>
-      <c r="K348" s="28"/>
-      <c r="L348" s="28"/>
-      <c r="M348" s="28"/>
-      <c r="N348" s="28"/>
-      <c r="O348" s="28"/>
-      <c r="P348" s="28"/>
-      <c r="Q348" s="28"/>
-      <c r="R348" s="28"/>
-      <c r="S348" s="28"/>
-      <c r="T348" s="28"/>
-      <c r="U348" s="28"/>
-    </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="28"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="28"/>
-      <c r="D349" s="28"/>
-      <c r="E349" s="28"/>
-      <c r="F349" s="28"/>
-      <c r="G349" s="28"/>
-      <c r="H349" s="32"/>
-      <c r="I349" s="28"/>
-      <c r="J349" s="28"/>
-      <c r="K349" s="28"/>
-      <c r="L349" s="28"/>
-      <c r="M349" s="28"/>
-      <c r="N349" s="28"/>
-      <c r="O349" s="28"/>
-      <c r="P349" s="28"/>
-      <c r="Q349" s="28"/>
-      <c r="R349" s="28"/>
-      <c r="S349" s="28"/>
-      <c r="T349" s="28"/>
-      <c r="U349" s="28"/>
-    </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="28"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="28"/>
-      <c r="D350" s="28"/>
-      <c r="E350" s="28"/>
-      <c r="F350" s="28"/>
-      <c r="G350" s="28"/>
-      <c r="H350" s="32"/>
-      <c r="I350" s="28"/>
-      <c r="J350" s="28"/>
-      <c r="K350" s="28"/>
-      <c r="L350" s="28"/>
-      <c r="M350" s="28"/>
-      <c r="N350" s="28"/>
-      <c r="O350" s="28"/>
-      <c r="P350" s="28"/>
-      <c r="Q350" s="28"/>
-      <c r="R350" s="28"/>
-      <c r="S350" s="28"/>
-      <c r="T350" s="28"/>
-      <c r="U350" s="28"/>
-    </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="28"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="28"/>
-      <c r="E351" s="28"/>
-      <c r="F351" s="28"/>
-      <c r="G351" s="28"/>
-      <c r="H351" s="32"/>
-      <c r="I351" s="28"/>
-      <c r="J351" s="28"/>
-      <c r="K351" s="28"/>
-      <c r="L351" s="28"/>
-      <c r="M351" s="28"/>
-      <c r="N351" s="28"/>
-      <c r="O351" s="28"/>
-      <c r="P351" s="28"/>
-      <c r="Q351" s="28"/>
-      <c r="R351" s="28"/>
-      <c r="S351" s="28"/>
-      <c r="T351" s="28"/>
-      <c r="U351" s="28"/>
-    </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="28"/>
-      <c r="B352" s="28"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="28"/>
-      <c r="E352" s="28"/>
-      <c r="F352" s="28"/>
-      <c r="G352" s="28"/>
-      <c r="H352" s="32"/>
-      <c r="I352" s="28"/>
-      <c r="J352" s="28"/>
-      <c r="K352" s="28"/>
-      <c r="L352" s="28"/>
-      <c r="M352" s="28"/>
-      <c r="N352" s="28"/>
-      <c r="O352" s="28"/>
-      <c r="P352" s="28"/>
-      <c r="Q352" s="28"/>
-      <c r="R352" s="28"/>
-      <c r="S352" s="28"/>
-      <c r="T352" s="28"/>
-      <c r="U352" s="28"/>
-    </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="28"/>
-      <c r="B353" s="28"/>
-      <c r="C353" s="28"/>
-      <c r="D353" s="28"/>
-      <c r="E353" s="28"/>
-      <c r="F353" s="28"/>
-      <c r="G353" s="28"/>
-      <c r="H353" s="28"/>
-      <c r="I353" s="28"/>
-      <c r="J353" s="28"/>
-      <c r="K353" s="28"/>
-      <c r="L353" s="28"/>
-      <c r="M353" s="28"/>
-      <c r="N353" s="28"/>
-      <c r="O353" s="28"/>
-      <c r="P353" s="28"/>
-      <c r="Q353" s="28"/>
-      <c r="R353" s="28"/>
-      <c r="S353" s="28"/>
-      <c r="T353" s="28"/>
-      <c r="U353" s="28"/>
-    </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="28"/>
-      <c r="B354" s="28"/>
-      <c r="C354" s="28"/>
-      <c r="D354" s="28"/>
-      <c r="E354" s="28"/>
-      <c r="F354" s="28"/>
-      <c r="G354" s="28"/>
-      <c r="H354" s="28"/>
-      <c r="I354" s="28"/>
-      <c r="J354" s="28"/>
-      <c r="K354" s="28"/>
-      <c r="L354" s="28"/>
-      <c r="M354" s="28"/>
-      <c r="N354" s="28"/>
-      <c r="O354" s="28"/>
-      <c r="P354" s="28"/>
-      <c r="Q354" s="28"/>
-      <c r="R354" s="28"/>
-      <c r="S354" s="28"/>
-      <c r="T354" s="28"/>
-      <c r="U354" s="28"/>
-    </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="28"/>
-      <c r="B355" s="28"/>
-      <c r="C355" s="28"/>
-      <c r="D355" s="28"/>
-      <c r="E355" s="28"/>
-      <c r="F355" s="28"/>
-      <c r="G355" s="28"/>
-      <c r="H355" s="28"/>
-      <c r="I355" s="28"/>
-      <c r="J355" s="28"/>
-      <c r="K355" s="28"/>
-      <c r="L355" s="28"/>
-      <c r="M355" s="28"/>
-      <c r="N355" s="28"/>
-      <c r="O355" s="28"/>
-      <c r="P355" s="28"/>
-      <c r="Q355" s="28"/>
-      <c r="R355" s="28"/>
-      <c r="S355" s="28"/>
-      <c r="T355" s="28"/>
-      <c r="U355" s="28"/>
-    </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="28"/>
-      <c r="B356" s="28"/>
-      <c r="C356" s="28"/>
-      <c r="D356" s="28"/>
-      <c r="E356" s="28"/>
-      <c r="F356" s="28"/>
-      <c r="G356" s="28"/>
-      <c r="H356" s="28"/>
-      <c r="I356" s="28"/>
-      <c r="J356" s="28"/>
-      <c r="K356" s="28"/>
-      <c r="L356" s="28"/>
-      <c r="M356" s="28"/>
-      <c r="N356" s="28"/>
-      <c r="O356" s="28"/>
-      <c r="P356" s="28"/>
-      <c r="Q356" s="28"/>
-      <c r="R356" s="28"/>
-      <c r="S356" s="28"/>
-      <c r="T356" s="28"/>
-      <c r="U356" s="28"/>
-    </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="28"/>
-      <c r="B357" s="28"/>
-      <c r="C357" s="28"/>
-      <c r="D357" s="28"/>
-      <c r="E357" s="28"/>
-      <c r="F357" s="28"/>
-      <c r="G357" s="28"/>
-      <c r="H357" s="28"/>
-      <c r="I357" s="28"/>
-      <c r="J357" s="28"/>
-      <c r="K357" s="28"/>
-      <c r="L357" s="28"/>
-      <c r="M357" s="28"/>
-      <c r="N357" s="28"/>
-      <c r="O357" s="28"/>
-      <c r="P357" s="28"/>
-      <c r="Q357" s="28"/>
-      <c r="R357" s="28"/>
-      <c r="S357" s="28"/>
-      <c r="T357" s="28"/>
-      <c r="U357" s="28"/>
-    </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="28"/>
-      <c r="B358" s="28"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="28"/>
-      <c r="E358" s="28"/>
-      <c r="F358" s="28"/>
-      <c r="G358" s="28"/>
-      <c r="H358" s="28"/>
-      <c r="I358" s="28"/>
-      <c r="J358" s="28"/>
-      <c r="K358" s="28"/>
-      <c r="L358" s="28"/>
-      <c r="M358" s="28"/>
-      <c r="N358" s="28"/>
-      <c r="O358" s="28"/>
-      <c r="P358" s="28"/>
-      <c r="Q358" s="28"/>
-      <c r="R358" s="28"/>
-      <c r="S358" s="28"/>
-      <c r="T358" s="28"/>
-      <c r="U358" s="28"/>
-    </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="28"/>
-      <c r="B359" s="28"/>
-      <c r="C359" s="28"/>
-      <c r="D359" s="28"/>
-      <c r="E359" s="28"/>
-      <c r="F359" s="28"/>
-      <c r="G359" s="28"/>
-      <c r="H359" s="28"/>
-      <c r="I359" s="28"/>
-      <c r="J359" s="28"/>
-      <c r="K359" s="28"/>
-      <c r="L359" s="28"/>
-      <c r="M359" s="28"/>
-      <c r="N359" s="28"/>
-      <c r="O359" s="28"/>
-      <c r="P359" s="28"/>
-      <c r="Q359" s="28"/>
-      <c r="R359" s="28"/>
-      <c r="S359" s="28"/>
-      <c r="T359" s="28"/>
-      <c r="U359" s="28"/>
-    </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="28"/>
-      <c r="B360" s="28"/>
-      <c r="C360" s="32"/>
-      <c r="D360" s="28"/>
-      <c r="E360" s="28"/>
-      <c r="F360" s="32"/>
-      <c r="G360" s="28"/>
-      <c r="H360" s="28"/>
-      <c r="I360" s="28"/>
-      <c r="J360" s="32"/>
-      <c r="K360" s="28"/>
-      <c r="L360" s="28"/>
-      <c r="M360" s="32"/>
-      <c r="N360" s="28"/>
-      <c r="O360" s="28"/>
-      <c r="P360" s="28"/>
-      <c r="Q360" s="28"/>
-      <c r="R360" s="28"/>
-      <c r="S360" s="28"/>
-      <c r="T360" s="28"/>
-      <c r="U360" s="28"/>
-    </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="28"/>
-      <c r="B361" s="28"/>
-      <c r="C361" s="32"/>
-      <c r="D361" s="28"/>
-      <c r="E361" s="28"/>
-      <c r="F361" s="32"/>
-      <c r="G361" s="28"/>
-      <c r="H361" s="28"/>
-      <c r="I361" s="28"/>
-      <c r="J361" s="32"/>
-      <c r="K361" s="28"/>
-      <c r="L361" s="28"/>
-      <c r="M361" s="32"/>
-      <c r="N361" s="28"/>
-      <c r="O361" s="28"/>
-      <c r="P361" s="28"/>
-      <c r="Q361" s="28"/>
-      <c r="R361" s="28"/>
-      <c r="S361" s="28"/>
-      <c r="T361" s="28"/>
-      <c r="U361" s="28"/>
-    </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="28"/>
-      <c r="B362" s="28"/>
-      <c r="C362" s="32"/>
-      <c r="D362" s="28"/>
-      <c r="E362" s="28"/>
-      <c r="F362" s="32"/>
-      <c r="G362" s="28"/>
-      <c r="H362" s="28"/>
-      <c r="I362" s="28"/>
-      <c r="J362" s="32"/>
-      <c r="K362" s="28"/>
-      <c r="L362" s="28"/>
-      <c r="M362" s="32"/>
-      <c r="N362" s="28"/>
-      <c r="O362" s="28"/>
-      <c r="P362" s="28"/>
-      <c r="Q362" s="28"/>
-      <c r="R362" s="28"/>
-      <c r="S362" s="28"/>
-      <c r="T362" s="28"/>
-      <c r="U362" s="28"/>
-    </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="28"/>
-      <c r="B363" s="28"/>
-      <c r="C363" s="32"/>
-      <c r="D363" s="28"/>
-      <c r="E363" s="28"/>
-      <c r="F363" s="32"/>
-      <c r="G363" s="28"/>
-      <c r="H363" s="28"/>
-      <c r="I363" s="28"/>
-      <c r="J363" s="32"/>
-      <c r="K363" s="28"/>
-      <c r="L363" s="28"/>
-      <c r="M363" s="32"/>
-      <c r="N363" s="28"/>
-      <c r="O363" s="28"/>
-      <c r="P363" s="28"/>
-      <c r="Q363" s="28"/>
-      <c r="R363" s="28"/>
-      <c r="S363" s="28"/>
-      <c r="T363" s="28"/>
-      <c r="U363" s="28"/>
-    </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="28"/>
-      <c r="B364" s="28"/>
-      <c r="C364" s="32"/>
-      <c r="D364" s="28"/>
-      <c r="E364" s="28"/>
-      <c r="F364" s="32"/>
-      <c r="G364" s="28"/>
-      <c r="H364" s="28"/>
-      <c r="I364" s="28"/>
-      <c r="J364" s="32"/>
-      <c r="K364" s="28"/>
-      <c r="L364" s="28"/>
-      <c r="M364" s="32"/>
-      <c r="N364" s="28"/>
-      <c r="O364" s="28"/>
-      <c r="P364" s="28"/>
-      <c r="Q364" s="28"/>
-      <c r="R364" s="28"/>
-      <c r="S364" s="28"/>
-      <c r="T364" s="28"/>
-      <c r="U364" s="28"/>
-    </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="28"/>
-      <c r="B365" s="28"/>
-      <c r="C365" s="32"/>
-      <c r="D365" s="28"/>
-      <c r="E365" s="28"/>
-      <c r="F365" s="32"/>
-      <c r="G365" s="28"/>
-      <c r="H365" s="28"/>
-      <c r="I365" s="28"/>
-      <c r="J365" s="32"/>
-      <c r="K365" s="28"/>
-      <c r="L365" s="28"/>
-      <c r="M365" s="32"/>
-      <c r="N365" s="28"/>
-      <c r="O365" s="28"/>
-      <c r="P365" s="28"/>
-      <c r="Q365" s="28"/>
-      <c r="R365" s="28"/>
-      <c r="S365" s="28"/>
-      <c r="T365" s="28"/>
-      <c r="U365" s="28"/>
-    </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="28"/>
-      <c r="B366" s="28"/>
-      <c r="C366" s="32"/>
-      <c r="D366" s="28"/>
-      <c r="E366" s="28"/>
-      <c r="F366" s="32"/>
-      <c r="G366" s="28"/>
-      <c r="H366" s="28"/>
-      <c r="I366" s="28"/>
-      <c r="J366" s="32"/>
-      <c r="K366" s="28"/>
-      <c r="L366" s="28"/>
-      <c r="M366" s="32"/>
-      <c r="N366" s="28"/>
-      <c r="O366" s="28"/>
-      <c r="P366" s="28"/>
-      <c r="Q366" s="28"/>
-      <c r="R366" s="28"/>
-      <c r="S366" s="28"/>
-      <c r="T366" s="28"/>
-      <c r="U366" s="28"/>
-    </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="28"/>
-      <c r="B367" s="28"/>
-      <c r="C367" s="28"/>
-      <c r="D367" s="28"/>
-      <c r="E367" s="28"/>
-      <c r="F367" s="28"/>
-      <c r="G367" s="28"/>
-      <c r="H367" s="28"/>
-      <c r="I367" s="28"/>
-      <c r="J367" s="28"/>
-      <c r="K367" s="28"/>
-      <c r="L367" s="28"/>
-      <c r="M367" s="28"/>
-      <c r="N367" s="28"/>
-      <c r="O367" s="28"/>
-      <c r="P367" s="28"/>
-      <c r="Q367" s="28"/>
-      <c r="R367" s="28"/>
-      <c r="S367" s="28"/>
-      <c r="T367" s="28"/>
-      <c r="U367" s="28"/>
-    </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="28"/>
-      <c r="B368" s="28"/>
-      <c r="C368" s="28"/>
-      <c r="D368" s="28"/>
-      <c r="E368" s="28"/>
-      <c r="F368" s="28"/>
-      <c r="G368" s="28"/>
-      <c r="H368" s="28"/>
-      <c r="I368" s="28"/>
-      <c r="J368" s="28"/>
-      <c r="K368" s="28"/>
-      <c r="L368" s="28"/>
-      <c r="M368" s="28"/>
-      <c r="N368" s="28"/>
-      <c r="O368" s="28"/>
-      <c r="P368" s="28"/>
-      <c r="Q368" s="28"/>
-      <c r="R368" s="28"/>
-      <c r="S368" s="28"/>
-      <c r="T368" s="28"/>
-      <c r="U368" s="28"/>
-    </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="28"/>
-      <c r="B369" s="28"/>
-      <c r="C369" s="28"/>
-      <c r="D369" s="28"/>
-      <c r="E369" s="28"/>
-      <c r="F369" s="28"/>
-      <c r="G369" s="28"/>
-      <c r="H369" s="28"/>
-      <c r="I369" s="28"/>
-      <c r="J369" s="28"/>
-      <c r="K369" s="28"/>
-      <c r="L369" s="28"/>
-      <c r="M369" s="28"/>
-      <c r="N369" s="28"/>
-      <c r="O369" s="28"/>
-      <c r="P369" s="28"/>
-      <c r="Q369" s="28"/>
-      <c r="R369" s="28"/>
-      <c r="S369" s="28"/>
-      <c r="T369" s="28"/>
-      <c r="U369" s="28"/>
-    </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="28"/>
-      <c r="B370" s="28"/>
-      <c r="C370" s="28"/>
-      <c r="D370" s="28"/>
-      <c r="E370" s="28"/>
-      <c r="F370" s="28"/>
-      <c r="G370" s="28"/>
-      <c r="H370" s="28"/>
-      <c r="I370" s="28"/>
-      <c r="J370" s="28"/>
-      <c r="K370" s="28"/>
-      <c r="L370" s="28"/>
-      <c r="M370" s="28"/>
-      <c r="N370" s="28"/>
-      <c r="O370" s="28"/>
-      <c r="P370" s="28"/>
-      <c r="Q370" s="28"/>
-      <c r="R370" s="28"/>
-      <c r="S370" s="28"/>
-      <c r="T370" s="28"/>
-      <c r="U370" s="28"/>
-    </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="28"/>
-      <c r="B371" s="28"/>
-      <c r="C371" s="28"/>
-      <c r="D371" s="28"/>
-      <c r="E371" s="28"/>
-      <c r="F371" s="28"/>
-      <c r="G371" s="28"/>
-      <c r="H371" s="28"/>
-      <c r="I371" s="28"/>
-      <c r="J371" s="28"/>
-      <c r="K371" s="28"/>
-      <c r="L371" s="28"/>
-      <c r="M371" s="28"/>
-      <c r="N371" s="28"/>
-      <c r="O371" s="28"/>
-      <c r="P371" s="28"/>
-      <c r="Q371" s="28"/>
-      <c r="R371" s="28"/>
-      <c r="S371" s="28"/>
-      <c r="T371" s="28"/>
-      <c r="U371" s="28"/>
-    </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="28"/>
-      <c r="B372" s="28"/>
-      <c r="C372" s="28"/>
-      <c r="D372" s="28"/>
-      <c r="E372" s="28"/>
-      <c r="F372" s="28"/>
-      <c r="G372" s="28"/>
-      <c r="H372" s="28"/>
-      <c r="I372" s="28"/>
-      <c r="J372" s="28"/>
-      <c r="K372" s="28"/>
-      <c r="L372" s="28"/>
-      <c r="M372" s="28"/>
-      <c r="N372" s="28"/>
-      <c r="O372" s="28"/>
-      <c r="P372" s="28"/>
-      <c r="Q372" s="28"/>
-      <c r="R372" s="28"/>
-      <c r="S372" s="28"/>
-      <c r="T372" s="28"/>
-      <c r="U372" s="28"/>
-    </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="28"/>
-      <c r="B373" s="28"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="28"/>
-      <c r="E373" s="28"/>
-      <c r="F373" s="28"/>
-      <c r="G373" s="28"/>
-      <c r="H373" s="28"/>
-      <c r="I373" s="28"/>
-      <c r="J373" s="28"/>
-      <c r="K373" s="28"/>
-      <c r="L373" s="28"/>
-      <c r="M373" s="28"/>
-      <c r="N373" s="28"/>
-      <c r="O373" s="28"/>
-      <c r="P373" s="28"/>
-      <c r="Q373" s="28"/>
-      <c r="R373" s="28"/>
-      <c r="S373" s="28"/>
-      <c r="T373" s="28"/>
-      <c r="U373" s="28"/>
-    </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="28"/>
-      <c r="B374" s="28"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="28"/>
-      <c r="E374" s="28"/>
-      <c r="F374" s="28"/>
-      <c r="G374" s="28"/>
-      <c r="H374" s="28"/>
-      <c r="I374" s="28"/>
-      <c r="J374" s="28"/>
-      <c r="K374" s="28"/>
-      <c r="L374" s="28"/>
-      <c r="M374" s="28"/>
-      <c r="N374" s="28"/>
-      <c r="O374" s="28"/>
-      <c r="P374" s="28"/>
-      <c r="Q374" s="28"/>
-      <c r="R374" s="28"/>
-      <c r="S374" s="28"/>
-      <c r="T374" s="28"/>
-      <c r="U374" s="28"/>
-    </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="28"/>
-      <c r="B375" s="28"/>
-      <c r="C375" s="28"/>
-      <c r="D375" s="28"/>
-      <c r="E375" s="28"/>
-      <c r="F375" s="28"/>
-      <c r="G375" s="28"/>
-      <c r="H375" s="28"/>
-      <c r="I375" s="28"/>
-      <c r="J375" s="28"/>
-      <c r="K375" s="28"/>
-      <c r="L375" s="28"/>
-      <c r="M375" s="28"/>
-      <c r="N375" s="28"/>
-      <c r="O375" s="28"/>
-      <c r="P375" s="28"/>
-      <c r="Q375" s="28"/>
-      <c r="R375" s="28"/>
-      <c r="S375" s="28"/>
-      <c r="T375" s="28"/>
-      <c r="U375" s="28"/>
-    </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="28"/>
-      <c r="B376" s="28"/>
-      <c r="C376" s="28"/>
-      <c r="D376" s="28"/>
-      <c r="E376" s="28"/>
-      <c r="F376" s="28"/>
-      <c r="G376" s="28"/>
-      <c r="H376" s="28"/>
-      <c r="I376" s="28"/>
-      <c r="J376" s="28"/>
-      <c r="K376" s="28"/>
-      <c r="L376" s="28"/>
-      <c r="M376" s="28"/>
-      <c r="N376" s="28"/>
-      <c r="O376" s="28"/>
-      <c r="P376" s="28"/>
-      <c r="Q376" s="28"/>
-      <c r="R376" s="28"/>
-      <c r="S376" s="28"/>
-      <c r="T376" s="28"/>
-      <c r="U376" s="28"/>
-    </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="28"/>
-      <c r="B377" s="28"/>
-      <c r="C377" s="28"/>
-      <c r="D377" s="28"/>
-      <c r="E377" s="28"/>
-      <c r="F377" s="28"/>
-      <c r="G377" s="28"/>
-      <c r="H377" s="28"/>
-      <c r="I377" s="28"/>
-      <c r="J377" s="28"/>
-      <c r="K377" s="28"/>
-      <c r="L377" s="28"/>
-      <c r="M377" s="28"/>
-      <c r="N377" s="28"/>
-      <c r="O377" s="28"/>
-      <c r="P377" s="28"/>
-      <c r="Q377" s="28"/>
-      <c r="R377" s="28"/>
-      <c r="S377" s="28"/>
-      <c r="T377" s="28"/>
-      <c r="U377" s="28"/>
-    </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="28"/>
-      <c r="B378" s="28"/>
-      <c r="C378" s="28"/>
-      <c r="D378" s="28"/>
-      <c r="E378" s="28"/>
-      <c r="F378" s="28"/>
-      <c r="G378" s="28"/>
-      <c r="H378" s="32"/>
-      <c r="I378" s="28"/>
-      <c r="J378" s="28"/>
-      <c r="K378" s="28"/>
-      <c r="L378" s="28"/>
-      <c r="M378" s="28"/>
-      <c r="N378" s="28"/>
-      <c r="O378" s="28"/>
-      <c r="P378" s="28"/>
-      <c r="Q378" s="28"/>
-      <c r="R378" s="28"/>
-      <c r="S378" s="28"/>
-      <c r="T378" s="28"/>
-      <c r="U378" s="28"/>
-    </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="28"/>
-      <c r="B379" s="28"/>
-      <c r="C379" s="28"/>
-      <c r="D379" s="28"/>
-      <c r="E379" s="28"/>
-      <c r="F379" s="28"/>
-      <c r="G379" s="28"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="28"/>
-      <c r="J379" s="28"/>
-      <c r="K379" s="28"/>
-      <c r="L379" s="28"/>
-      <c r="M379" s="28"/>
-      <c r="N379" s="28"/>
-      <c r="O379" s="28"/>
-      <c r="P379" s="28"/>
-      <c r="Q379" s="28"/>
-      <c r="R379" s="28"/>
-      <c r="S379" s="28"/>
-      <c r="T379" s="28"/>
-      <c r="U379" s="28"/>
-    </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="28"/>
-      <c r="B380" s="28"/>
-      <c r="C380" s="28"/>
-      <c r="D380" s="28"/>
-      <c r="E380" s="28"/>
-      <c r="F380" s="28"/>
-      <c r="G380" s="28"/>
-      <c r="H380" s="32"/>
-      <c r="I380" s="28"/>
-      <c r="J380" s="28"/>
-      <c r="K380" s="28"/>
-      <c r="L380" s="28"/>
-      <c r="M380" s="28"/>
-      <c r="N380" s="28"/>
-      <c r="O380" s="28"/>
-      <c r="P380" s="28"/>
-      <c r="Q380" s="28"/>
-      <c r="R380" s="28"/>
-      <c r="S380" s="28"/>
-      <c r="T380" s="28"/>
-      <c r="U380" s="28"/>
-    </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="28"/>
-      <c r="B381" s="28"/>
-      <c r="C381" s="28"/>
-      <c r="D381" s="28"/>
-      <c r="E381" s="28"/>
-      <c r="F381" s="28"/>
-      <c r="G381" s="28"/>
-      <c r="H381" s="32"/>
-      <c r="I381" s="28"/>
-      <c r="J381" s="28"/>
-      <c r="K381" s="28"/>
-      <c r="L381" s="28"/>
-      <c r="M381" s="28"/>
-      <c r="N381" s="28"/>
-      <c r="O381" s="28"/>
-      <c r="P381" s="28"/>
-      <c r="Q381" s="28"/>
-      <c r="R381" s="28"/>
-      <c r="S381" s="28"/>
-      <c r="T381" s="28"/>
-      <c r="U381" s="28"/>
-    </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="28"/>
-      <c r="B382" s="28"/>
-      <c r="C382" s="28"/>
-      <c r="D382" s="28"/>
-      <c r="E382" s="28"/>
-      <c r="F382" s="28"/>
-      <c r="G382" s="28"/>
-      <c r="H382" s="32"/>
-      <c r="I382" s="28"/>
-      <c r="J382" s="28"/>
-      <c r="K382" s="28"/>
-      <c r="L382" s="28"/>
-      <c r="M382" s="28"/>
-      <c r="N382" s="28"/>
-      <c r="O382" s="28"/>
-      <c r="P382" s="28"/>
-      <c r="Q382" s="28"/>
-      <c r="R382" s="28"/>
-      <c r="S382" s="28"/>
-      <c r="T382" s="28"/>
-      <c r="U382" s="28"/>
-    </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="28"/>
-      <c r="B383" s="28"/>
-      <c r="C383" s="28"/>
-      <c r="D383" s="28"/>
-      <c r="E383" s="28"/>
-      <c r="F383" s="28"/>
-      <c r="G383" s="28"/>
-      <c r="H383" s="32"/>
-      <c r="I383" s="28"/>
-      <c r="J383" s="28"/>
-      <c r="K383" s="28"/>
-      <c r="L383" s="28"/>
-      <c r="M383" s="28"/>
-      <c r="N383" s="28"/>
-      <c r="O383" s="28"/>
-      <c r="P383" s="28"/>
-      <c r="Q383" s="28"/>
-      <c r="R383" s="28"/>
-      <c r="S383" s="28"/>
-      <c r="T383" s="28"/>
-      <c r="U383" s="28"/>
-    </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="28"/>
-      <c r="B384" s="28"/>
-      <c r="C384" s="28"/>
-      <c r="D384" s="28"/>
-      <c r="E384" s="28"/>
-      <c r="F384" s="28"/>
-      <c r="G384" s="28"/>
-      <c r="H384" s="32"/>
-      <c r="I384" s="28"/>
-      <c r="J384" s="28"/>
-      <c r="K384" s="28"/>
-      <c r="L384" s="28"/>
-      <c r="M384" s="28"/>
-      <c r="N384" s="28"/>
-      <c r="O384" s="28"/>
-      <c r="P384" s="28"/>
-      <c r="Q384" s="28"/>
-      <c r="R384" s="28"/>
-      <c r="S384" s="28"/>
-      <c r="T384" s="28"/>
-      <c r="U384" s="28"/>
-    </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="28"/>
-      <c r="B385" s="28"/>
-      <c r="C385" s="28"/>
-      <c r="D385" s="28"/>
-      <c r="E385" s="28"/>
-      <c r="F385" s="28"/>
-      <c r="G385" s="28"/>
-      <c r="H385" s="28"/>
-      <c r="I385" s="28"/>
-      <c r="J385" s="28"/>
-      <c r="K385" s="28"/>
-      <c r="L385" s="28"/>
-      <c r="M385" s="28"/>
-      <c r="N385" s="28"/>
-      <c r="O385" s="28"/>
-      <c r="P385" s="28"/>
-      <c r="Q385" s="28"/>
-      <c r="R385" s="28"/>
-      <c r="S385" s="28"/>
-      <c r="T385" s="28"/>
-      <c r="U385" s="28"/>
-    </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="28"/>
-      <c r="B386" s="28"/>
-      <c r="C386" s="28"/>
-      <c r="D386" s="28"/>
-      <c r="E386" s="28"/>
-      <c r="F386" s="28"/>
-      <c r="G386" s="28"/>
-      <c r="H386" s="28"/>
-      <c r="I386" s="28"/>
-      <c r="J386" s="28"/>
-      <c r="K386" s="28"/>
-      <c r="L386" s="28"/>
-      <c r="M386" s="28"/>
-      <c r="N386" s="28"/>
-      <c r="O386" s="28"/>
-      <c r="P386" s="28"/>
-      <c r="Q386" s="28"/>
-      <c r="R386" s="28"/>
-      <c r="S386" s="28"/>
-      <c r="T386" s="28"/>
-      <c r="U386" s="28"/>
-    </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="28"/>
-      <c r="B387" s="28"/>
-      <c r="C387" s="28"/>
-      <c r="D387" s="28"/>
-      <c r="E387" s="28"/>
-      <c r="F387" s="28"/>
-      <c r="G387" s="28"/>
-      <c r="H387" s="28"/>
-      <c r="I387" s="28"/>
-      <c r="J387" s="28"/>
-      <c r="K387" s="28"/>
-      <c r="L387" s="28"/>
-      <c r="M387" s="28"/>
-      <c r="N387" s="28"/>
-      <c r="O387" s="28"/>
-      <c r="P387" s="28"/>
-      <c r="Q387" s="28"/>
-      <c r="R387" s="28"/>
-      <c r="S387" s="28"/>
-      <c r="T387" s="28"/>
-      <c r="U387" s="28"/>
-    </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="28"/>
-      <c r="B388" s="28"/>
-      <c r="C388" s="28"/>
-      <c r="D388" s="28"/>
-      <c r="E388" s="28"/>
-      <c r="F388" s="28"/>
-      <c r="G388" s="28"/>
-      <c r="H388" s="28"/>
-      <c r="I388" s="28"/>
-      <c r="J388" s="28"/>
-      <c r="K388" s="28"/>
-      <c r="L388" s="28"/>
-      <c r="M388" s="28"/>
-      <c r="N388" s="28"/>
-      <c r="O388" s="28"/>
-      <c r="P388" s="28"/>
-      <c r="Q388" s="28"/>
-      <c r="R388" s="28"/>
-      <c r="S388" s="28"/>
-      <c r="T388" s="28"/>
-      <c r="U388" s="28"/>
-    </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="28"/>
-      <c r="B389" s="28"/>
-      <c r="C389" s="28"/>
-      <c r="D389" s="28"/>
-      <c r="E389" s="28"/>
-      <c r="F389" s="28"/>
-      <c r="G389" s="28"/>
-      <c r="H389" s="28"/>
-      <c r="I389" s="28"/>
-      <c r="J389" s="28"/>
-      <c r="K389" s="28"/>
-      <c r="L389" s="28"/>
-      <c r="M389" s="28"/>
-      <c r="N389" s="28"/>
-      <c r="O389" s="28"/>
-      <c r="P389" s="28"/>
-      <c r="Q389" s="28"/>
-      <c r="R389" s="28"/>
-      <c r="S389" s="28"/>
-      <c r="T389" s="28"/>
-      <c r="U389" s="28"/>
-    </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="28"/>
-      <c r="B390" s="28"/>
-      <c r="C390" s="28"/>
-      <c r="D390" s="28"/>
-      <c r="E390" s="28"/>
-      <c r="F390" s="28"/>
-      <c r="G390" s="28"/>
-      <c r="H390" s="28"/>
-      <c r="I390" s="28"/>
-      <c r="J390" s="28"/>
-      <c r="K390" s="28"/>
-      <c r="L390" s="28"/>
-      <c r="M390" s="28"/>
-      <c r="N390" s="28"/>
-      <c r="O390" s="28"/>
-      <c r="P390" s="28"/>
-      <c r="Q390" s="28"/>
-      <c r="R390" s="28"/>
-      <c r="S390" s="28"/>
-      <c r="T390" s="28"/>
-      <c r="U390" s="28"/>
-    </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="28"/>
-      <c r="B391" s="28"/>
-      <c r="C391" s="28"/>
-      <c r="D391" s="28"/>
-      <c r="E391" s="28"/>
-      <c r="F391" s="28"/>
-      <c r="G391" s="28"/>
-      <c r="H391" s="28"/>
-      <c r="I391" s="28"/>
-      <c r="J391" s="28"/>
-      <c r="K391" s="28"/>
-      <c r="L391" s="28"/>
-      <c r="M391" s="28"/>
-      <c r="N391" s="28"/>
-      <c r="O391" s="28"/>
-      <c r="P391" s="28"/>
-      <c r="Q391" s="28"/>
-      <c r="R391" s="28"/>
-      <c r="S391" s="28"/>
-      <c r="T391" s="28"/>
-      <c r="U391" s="28"/>
-    </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="28"/>
-      <c r="B392" s="28"/>
-      <c r="C392" s="32"/>
-      <c r="D392" s="28"/>
-      <c r="E392" s="28"/>
-      <c r="F392" s="32"/>
-      <c r="G392" s="28"/>
-      <c r="H392" s="28"/>
-      <c r="I392" s="28"/>
-      <c r="J392" s="32"/>
-      <c r="K392" s="28"/>
-      <c r="L392" s="28"/>
-      <c r="M392" s="32"/>
-      <c r="N392" s="28"/>
-      <c r="O392" s="28"/>
-      <c r="P392" s="28"/>
-      <c r="Q392" s="28"/>
-      <c r="R392" s="28"/>
-      <c r="S392" s="28"/>
-      <c r="T392" s="28"/>
-      <c r="U392" s="28"/>
-    </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="28"/>
-      <c r="B393" s="28"/>
-      <c r="C393" s="32"/>
-      <c r="D393" s="28"/>
-      <c r="E393" s="28"/>
-      <c r="F393" s="32"/>
-      <c r="G393" s="28"/>
-      <c r="H393" s="28"/>
-      <c r="I393" s="28"/>
-      <c r="J393" s="32"/>
-      <c r="K393" s="28"/>
-      <c r="L393" s="28"/>
-      <c r="M393" s="32"/>
-      <c r="N393" s="28"/>
-      <c r="O393" s="28"/>
-      <c r="P393" s="28"/>
-      <c r="Q393" s="28"/>
-      <c r="R393" s="28"/>
-      <c r="S393" s="28"/>
-      <c r="T393" s="28"/>
-      <c r="U393" s="28"/>
-    </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="28"/>
-      <c r="B394" s="28"/>
-      <c r="C394" s="32"/>
-      <c r="D394" s="28"/>
-      <c r="E394" s="28"/>
-      <c r="F394" s="32"/>
-      <c r="G394" s="28"/>
-      <c r="H394" s="28"/>
-      <c r="I394" s="28"/>
-      <c r="J394" s="32"/>
-      <c r="K394" s="28"/>
-      <c r="L394" s="28"/>
-      <c r="M394" s="32"/>
-      <c r="N394" s="28"/>
-      <c r="O394" s="28"/>
-      <c r="P394" s="28"/>
-      <c r="Q394" s="28"/>
-      <c r="R394" s="28"/>
-      <c r="S394" s="28"/>
-      <c r="T394" s="28"/>
-      <c r="U394" s="28"/>
-    </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="28"/>
-      <c r="B395" s="28"/>
-      <c r="C395" s="32"/>
-      <c r="D395" s="28"/>
-      <c r="E395" s="28"/>
-      <c r="F395" s="32"/>
-      <c r="G395" s="28"/>
-      <c r="H395" s="28"/>
-      <c r="I395" s="28"/>
-      <c r="J395" s="32"/>
-      <c r="K395" s="28"/>
-      <c r="L395" s="28"/>
-      <c r="M395" s="32"/>
-      <c r="N395" s="28"/>
-      <c r="O395" s="28"/>
-      <c r="P395" s="28"/>
-      <c r="Q395" s="28"/>
-      <c r="R395" s="28"/>
-      <c r="S395" s="28"/>
-      <c r="T395" s="28"/>
-      <c r="U395" s="28"/>
-    </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="28"/>
-      <c r="B396" s="28"/>
-      <c r="C396" s="32"/>
-      <c r="D396" s="28"/>
-      <c r="E396" s="28"/>
-      <c r="F396" s="32"/>
-      <c r="G396" s="28"/>
-      <c r="H396" s="28"/>
-      <c r="I396" s="28"/>
-      <c r="J396" s="32"/>
-      <c r="K396" s="28"/>
-      <c r="L396" s="28"/>
-      <c r="M396" s="32"/>
-      <c r="N396" s="28"/>
-      <c r="O396" s="28"/>
-      <c r="P396" s="28"/>
-      <c r="Q396" s="28"/>
-      <c r="R396" s="28"/>
-      <c r="S396" s="28"/>
-      <c r="T396" s="28"/>
-      <c r="U396" s="28"/>
-    </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="28"/>
-      <c r="B397" s="28"/>
-      <c r="C397" s="32"/>
-      <c r="D397" s="28"/>
-      <c r="E397" s="28"/>
-      <c r="F397" s="32"/>
-      <c r="G397" s="28"/>
-      <c r="H397" s="28"/>
-      <c r="I397" s="28"/>
-      <c r="J397" s="32"/>
-      <c r="K397" s="28"/>
-      <c r="L397" s="28"/>
-      <c r="M397" s="32"/>
-      <c r="N397" s="28"/>
-      <c r="O397" s="28"/>
-      <c r="P397" s="28"/>
-      <c r="Q397" s="28"/>
-      <c r="R397" s="28"/>
-      <c r="S397" s="28"/>
-      <c r="T397" s="28"/>
-      <c r="U397" s="28"/>
-    </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="28"/>
-      <c r="B398" s="28"/>
-      <c r="C398" s="32"/>
-      <c r="D398" s="28"/>
-      <c r="E398" s="28"/>
-      <c r="F398" s="32"/>
-      <c r="G398" s="28"/>
-      <c r="H398" s="28"/>
-      <c r="I398" s="28"/>
-      <c r="J398" s="32"/>
-      <c r="K398" s="28"/>
-      <c r="L398" s="28"/>
-      <c r="M398" s="32"/>
-      <c r="N398" s="28"/>
-      <c r="O398" s="28"/>
-      <c r="P398" s="28"/>
-      <c r="Q398" s="28"/>
-      <c r="R398" s="28"/>
-      <c r="S398" s="28"/>
-      <c r="T398" s="28"/>
-      <c r="U398" s="28"/>
-    </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="28"/>
-      <c r="B399" s="28"/>
-      <c r="C399" s="28"/>
-      <c r="D399" s="28"/>
-      <c r="E399" s="28"/>
-      <c r="F399" s="28"/>
-      <c r="G399" s="28"/>
-      <c r="H399" s="28"/>
-      <c r="I399" s="28"/>
-      <c r="J399" s="28"/>
-      <c r="K399" s="28"/>
-      <c r="L399" s="28"/>
-      <c r="M399" s="28"/>
-      <c r="N399" s="28"/>
-      <c r="O399" s="28"/>
-      <c r="P399" s="28"/>
-      <c r="Q399" s="28"/>
-      <c r="R399" s="28"/>
-      <c r="S399" s="28"/>
-      <c r="T399" s="28"/>
-      <c r="U399" s="28"/>
-    </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="28"/>
-      <c r="B400" s="28"/>
-      <c r="C400" s="28"/>
-      <c r="D400" s="28"/>
-      <c r="E400" s="28"/>
-      <c r="F400" s="28"/>
-      <c r="G400" s="28"/>
-      <c r="H400" s="28"/>
-      <c r="I400" s="28"/>
-      <c r="J400" s="28"/>
-      <c r="K400" s="28"/>
-      <c r="L400" s="28"/>
-      <c r="M400" s="28"/>
-      <c r="N400" s="28"/>
-      <c r="O400" s="28"/>
-      <c r="P400" s="28"/>
-      <c r="Q400" s="28"/>
-      <c r="R400" s="28"/>
-      <c r="S400" s="28"/>
-      <c r="T400" s="28"/>
-      <c r="U400" s="28"/>
-    </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="28"/>
-      <c r="B401" s="28"/>
-      <c r="C401" s="28"/>
-      <c r="D401" s="28"/>
-      <c r="E401" s="28"/>
-      <c r="F401" s="28"/>
-      <c r="G401" s="28"/>
-      <c r="H401" s="28"/>
-      <c r="I401" s="28"/>
-      <c r="J401" s="28"/>
-      <c r="K401" s="28"/>
-      <c r="L401" s="28"/>
-      <c r="M401" s="28"/>
-      <c r="N401" s="28"/>
-      <c r="O401" s="28"/>
-      <c r="P401" s="28"/>
-      <c r="Q401" s="28"/>
-      <c r="R401" s="28"/>
-      <c r="S401" s="28"/>
-      <c r="T401" s="28"/>
-      <c r="U401" s="28"/>
-    </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="28"/>
-      <c r="B402" s="28"/>
-      <c r="C402" s="28"/>
-      <c r="D402" s="28"/>
-      <c r="E402" s="28"/>
-      <c r="F402" s="28"/>
-      <c r="G402" s="28"/>
-      <c r="H402" s="28"/>
-      <c r="I402" s="28"/>
-      <c r="J402" s="28"/>
-      <c r="K402" s="28"/>
-      <c r="L402" s="28"/>
-      <c r="M402" s="28"/>
-      <c r="N402" s="28"/>
-      <c r="O402" s="28"/>
-      <c r="P402" s="28"/>
-      <c r="Q402" s="28"/>
-      <c r="R402" s="28"/>
-      <c r="S402" s="28"/>
-      <c r="T402" s="28"/>
-      <c r="U402" s="28"/>
-    </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="28"/>
-      <c r="B403" s="28"/>
-      <c r="C403" s="28"/>
-      <c r="D403" s="28"/>
-      <c r="E403" s="28"/>
-      <c r="F403" s="28"/>
-      <c r="G403" s="28"/>
-      <c r="H403" s="28"/>
-      <c r="I403" s="28"/>
-      <c r="J403" s="28"/>
-      <c r="K403" s="28"/>
-      <c r="L403" s="28"/>
-      <c r="M403" s="28"/>
-      <c r="N403" s="28"/>
-      <c r="O403" s="28"/>
-      <c r="P403" s="28"/>
-      <c r="Q403" s="28"/>
-      <c r="R403" s="28"/>
-      <c r="S403" s="28"/>
-      <c r="T403" s="28"/>
-      <c r="U403" s="28"/>
-    </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="28"/>
-      <c r="B404" s="28"/>
-      <c r="C404" s="28"/>
-      <c r="D404" s="28"/>
-      <c r="E404" s="28"/>
-      <c r="F404" s="28"/>
-      <c r="G404" s="28"/>
-      <c r="H404" s="28"/>
-      <c r="I404" s="28"/>
-      <c r="J404" s="28"/>
-      <c r="K404" s="28"/>
-      <c r="L404" s="28"/>
-      <c r="M404" s="28"/>
-      <c r="N404" s="28"/>
-      <c r="O404" s="28"/>
-      <c r="P404" s="28"/>
-      <c r="Q404" s="28"/>
-      <c r="R404" s="28"/>
-      <c r="S404" s="28"/>
-      <c r="T404" s="28"/>
-      <c r="U404" s="28"/>
-    </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="28"/>
-      <c r="B405" s="28"/>
-      <c r="C405" s="28"/>
-      <c r="D405" s="28"/>
-      <c r="E405" s="28"/>
-      <c r="F405" s="28"/>
-      <c r="G405" s="28"/>
-      <c r="H405" s="28"/>
-      <c r="I405" s="28"/>
-      <c r="J405" s="28"/>
-      <c r="K405" s="28"/>
-      <c r="L405" s="28"/>
-      <c r="M405" s="28"/>
-      <c r="N405" s="28"/>
-      <c r="O405" s="28"/>
-      <c r="P405" s="28"/>
-      <c r="Q405" s="28"/>
-      <c r="R405" s="28"/>
-      <c r="S405" s="28"/>
-      <c r="T405" s="28"/>
-      <c r="U405" s="28"/>
-    </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="28"/>
-      <c r="B406" s="28"/>
-      <c r="C406" s="28"/>
-      <c r="D406" s="28"/>
-      <c r="E406" s="28"/>
-      <c r="F406" s="28"/>
-      <c r="G406" s="28"/>
-      <c r="H406" s="28"/>
-      <c r="I406" s="28"/>
-      <c r="J406" s="28"/>
-      <c r="K406" s="28"/>
-      <c r="L406" s="28"/>
-      <c r="M406" s="28"/>
-      <c r="N406" s="28"/>
-      <c r="O406" s="28"/>
-      <c r="P406" s="28"/>
-      <c r="Q406" s="28"/>
-      <c r="R406" s="28"/>
-      <c r="S406" s="28"/>
-      <c r="T406" s="28"/>
-      <c r="U406" s="28"/>
-    </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="28"/>
-      <c r="B407" s="28"/>
-      <c r="C407" s="28"/>
-      <c r="D407" s="28"/>
-      <c r="E407" s="28"/>
-      <c r="F407" s="28"/>
-      <c r="G407" s="28"/>
-      <c r="H407" s="28"/>
-      <c r="I407" s="28"/>
-      <c r="J407" s="28"/>
-      <c r="K407" s="28"/>
-      <c r="L407" s="28"/>
-      <c r="M407" s="28"/>
-      <c r="N407" s="28"/>
-      <c r="O407" s="28"/>
-      <c r="P407" s="28"/>
-      <c r="Q407" s="28"/>
-      <c r="R407" s="28"/>
-      <c r="S407" s="28"/>
-      <c r="T407" s="28"/>
-      <c r="U407" s="28"/>
-    </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="28"/>
-      <c r="B408" s="28"/>
-      <c r="C408" s="28"/>
-      <c r="D408" s="28"/>
-      <c r="E408" s="28"/>
-      <c r="F408" s="28"/>
-      <c r="G408" s="28"/>
-      <c r="H408" s="28"/>
-      <c r="I408" s="28"/>
-      <c r="J408" s="28"/>
-      <c r="K408" s="28"/>
-      <c r="L408" s="28"/>
-      <c r="M408" s="28"/>
-      <c r="N408" s="28"/>
-      <c r="O408" s="28"/>
-      <c r="P408" s="28"/>
-      <c r="Q408" s="28"/>
-      <c r="R408" s="28"/>
-      <c r="S408" s="28"/>
-      <c r="T408" s="28"/>
-      <c r="U408" s="28"/>
-    </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="28"/>
-      <c r="B409" s="28"/>
-      <c r="C409" s="28"/>
-      <c r="D409" s="28"/>
-      <c r="E409" s="28"/>
-      <c r="F409" s="28"/>
-      <c r="G409" s="28"/>
-      <c r="H409" s="28"/>
-      <c r="I409" s="28"/>
-      <c r="J409" s="28"/>
-      <c r="K409" s="28"/>
-      <c r="L409" s="28"/>
-      <c r="M409" s="28"/>
-      <c r="N409" s="28"/>
-      <c r="O409" s="28"/>
-      <c r="P409" s="28"/>
-      <c r="Q409" s="28"/>
-      <c r="R409" s="28"/>
-      <c r="S409" s="28"/>
-      <c r="T409" s="28"/>
-      <c r="U409" s="28"/>
-    </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="28"/>
-      <c r="B410" s="28"/>
-      <c r="C410" s="28"/>
-      <c r="D410" s="28"/>
-      <c r="E410" s="28"/>
-      <c r="F410" s="28"/>
-      <c r="G410" s="28"/>
-      <c r="H410" s="32"/>
-      <c r="I410" s="28"/>
-      <c r="J410" s="28"/>
-      <c r="K410" s="28"/>
-      <c r="L410" s="28"/>
-      <c r="M410" s="28"/>
-      <c r="N410" s="28"/>
-      <c r="O410" s="28"/>
-      <c r="P410" s="28"/>
-      <c r="Q410" s="28"/>
-      <c r="R410" s="28"/>
-      <c r="S410" s="28"/>
-      <c r="T410" s="28"/>
-      <c r="U410" s="28"/>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="28"/>
-      <c r="B411" s="28"/>
-      <c r="C411" s="28"/>
-      <c r="D411" s="28"/>
-      <c r="E411" s="28"/>
-      <c r="F411" s="28"/>
-      <c r="G411" s="28"/>
-      <c r="H411" s="32"/>
-      <c r="I411" s="28"/>
-      <c r="J411" s="28"/>
-      <c r="K411" s="28"/>
-      <c r="L411" s="28"/>
-      <c r="M411" s="28"/>
-      <c r="N411" s="28"/>
-      <c r="O411" s="28"/>
-      <c r="P411" s="28"/>
-      <c r="Q411" s="28"/>
-      <c r="R411" s="28"/>
-      <c r="S411" s="28"/>
-      <c r="T411" s="28"/>
-      <c r="U411" s="28"/>
-    </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="28"/>
-      <c r="B412" s="28"/>
-      <c r="C412" s="28"/>
-      <c r="D412" s="28"/>
-      <c r="E412" s="28"/>
-      <c r="F412" s="28"/>
-      <c r="G412" s="28"/>
-      <c r="H412" s="32"/>
-      <c r="I412" s="28"/>
-      <c r="J412" s="28"/>
-      <c r="K412" s="28"/>
-      <c r="L412" s="28"/>
-      <c r="M412" s="28"/>
-      <c r="N412" s="28"/>
-      <c r="O412" s="28"/>
-      <c r="P412" s="28"/>
-      <c r="Q412" s="28"/>
-      <c r="R412" s="28"/>
-      <c r="S412" s="28"/>
-      <c r="T412" s="28"/>
-      <c r="U412" s="28"/>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="28"/>
-      <c r="B413" s="28"/>
-      <c r="C413" s="28"/>
-      <c r="D413" s="28"/>
-      <c r="E413" s="28"/>
-      <c r="F413" s="28"/>
-      <c r="G413" s="28"/>
-      <c r="H413" s="32"/>
-      <c r="I413" s="28"/>
-      <c r="J413" s="28"/>
-      <c r="K413" s="28"/>
-      <c r="L413" s="28"/>
-      <c r="M413" s="28"/>
-      <c r="N413" s="28"/>
-      <c r="O413" s="28"/>
-      <c r="P413" s="28"/>
-      <c r="Q413" s="28"/>
-      <c r="R413" s="28"/>
-      <c r="S413" s="28"/>
-      <c r="T413" s="28"/>
-      <c r="U413" s="28"/>
-    </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="28"/>
-      <c r="B414" s="28"/>
-      <c r="C414" s="28"/>
-      <c r="D414" s="28"/>
-      <c r="E414" s="28"/>
-      <c r="F414" s="28"/>
-      <c r="G414" s="28"/>
-      <c r="H414" s="32"/>
-      <c r="I414" s="28"/>
-      <c r="J414" s="28"/>
-      <c r="K414" s="28"/>
-      <c r="L414" s="28"/>
-      <c r="M414" s="28"/>
-      <c r="N414" s="28"/>
-      <c r="O414" s="28"/>
-      <c r="P414" s="28"/>
-      <c r="Q414" s="28"/>
-      <c r="R414" s="28"/>
-      <c r="S414" s="28"/>
-      <c r="T414" s="28"/>
-      <c r="U414" s="28"/>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="28"/>
-      <c r="B415" s="28"/>
-      <c r="C415" s="28"/>
-      <c r="D415" s="28"/>
-      <c r="E415" s="28"/>
-      <c r="F415" s="28"/>
-      <c r="G415" s="28"/>
-      <c r="H415" s="32"/>
-      <c r="I415" s="28"/>
-      <c r="J415" s="28"/>
-      <c r="K415" s="28"/>
-      <c r="L415" s="28"/>
-      <c r="M415" s="28"/>
-      <c r="N415" s="28"/>
-      <c r="O415" s="28"/>
-      <c r="P415" s="28"/>
-      <c r="Q415" s="28"/>
-      <c r="R415" s="28"/>
-      <c r="S415" s="28"/>
-      <c r="T415" s="28"/>
-      <c r="U415" s="28"/>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="28"/>
-      <c r="B416" s="28"/>
-      <c r="C416" s="28"/>
-      <c r="D416" s="28"/>
-      <c r="E416" s="28"/>
-      <c r="F416" s="28"/>
-      <c r="G416" s="28"/>
-      <c r="H416" s="32"/>
-      <c r="I416" s="28"/>
-      <c r="J416" s="28"/>
-      <c r="K416" s="28"/>
-      <c r="L416" s="28"/>
-      <c r="M416" s="28"/>
-      <c r="N416" s="28"/>
-      <c r="O416" s="28"/>
-      <c r="P416" s="28"/>
-      <c r="Q416" s="28"/>
-      <c r="R416" s="28"/>
-      <c r="S416" s="28"/>
-      <c r="T416" s="28"/>
-      <c r="U416" s="28"/>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="28"/>
-      <c r="B417" s="28"/>
-      <c r="C417" s="28"/>
-      <c r="D417" s="28"/>
-      <c r="E417" s="28"/>
-      <c r="F417" s="28"/>
-      <c r="G417" s="28"/>
-      <c r="H417" s="28"/>
-      <c r="I417" s="28"/>
-      <c r="J417" s="28"/>
-      <c r="K417" s="28"/>
-      <c r="L417" s="28"/>
-      <c r="M417" s="28"/>
-      <c r="N417" s="28"/>
-      <c r="O417" s="28"/>
-      <c r="P417" s="28"/>
-      <c r="Q417" s="28"/>
-      <c r="R417" s="28"/>
-      <c r="S417" s="28"/>
-      <c r="T417" s="28"/>
-      <c r="U417" s="28"/>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="28"/>
-      <c r="B418" s="28"/>
-      <c r="C418" s="28"/>
-      <c r="D418" s="28"/>
-      <c r="E418" s="28"/>
-      <c r="F418" s="28"/>
-      <c r="G418" s="28"/>
-      <c r="H418" s="28"/>
-      <c r="I418" s="28"/>
-      <c r="J418" s="28"/>
-      <c r="K418" s="28"/>
-      <c r="L418" s="28"/>
-      <c r="M418" s="28"/>
-      <c r="N418" s="28"/>
-      <c r="O418" s="28"/>
-      <c r="P418" s="28"/>
-      <c r="Q418" s="28"/>
-      <c r="R418" s="28"/>
-      <c r="S418" s="28"/>
-      <c r="T418" s="28"/>
-      <c r="U418" s="28"/>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="28"/>
-      <c r="B419" s="28"/>
-      <c r="C419" s="28"/>
-      <c r="D419" s="28"/>
-      <c r="E419" s="28"/>
-      <c r="F419" s="28"/>
-      <c r="G419" s="28"/>
-      <c r="H419" s="28"/>
-      <c r="I419" s="28"/>
-      <c r="J419" s="28"/>
-      <c r="K419" s="28"/>
-      <c r="L419" s="28"/>
-      <c r="M419" s="28"/>
-      <c r="N419" s="28"/>
-      <c r="O419" s="28"/>
-      <c r="P419" s="28"/>
-      <c r="Q419" s="28"/>
-      <c r="R419" s="28"/>
-      <c r="S419" s="28"/>
-      <c r="T419" s="28"/>
-      <c r="U419" s="28"/>
-    </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="28"/>
-      <c r="B420" s="28"/>
-      <c r="C420" s="28"/>
-      <c r="D420" s="28"/>
-      <c r="E420" s="28"/>
-      <c r="F420" s="28"/>
-      <c r="G420" s="28"/>
-      <c r="H420" s="28"/>
-      <c r="I420" s="28"/>
-      <c r="J420" s="28"/>
-      <c r="K420" s="28"/>
-      <c r="L420" s="28"/>
-      <c r="M420" s="28"/>
-      <c r="N420" s="28"/>
-      <c r="O420" s="28"/>
-      <c r="P420" s="28"/>
-      <c r="Q420" s="28"/>
-      <c r="R420" s="28"/>
-      <c r="S420" s="28"/>
-      <c r="T420" s="28"/>
-      <c r="U420" s="28"/>
-    </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="28"/>
-      <c r="B421" s="28"/>
-      <c r="C421" s="28"/>
-      <c r="D421" s="28"/>
-      <c r="E421" s="28"/>
-      <c r="F421" s="28"/>
-      <c r="G421" s="28"/>
-      <c r="H421" s="28"/>
-      <c r="I421" s="28"/>
-      <c r="J421" s="28"/>
-      <c r="K421" s="28"/>
-      <c r="L421" s="28"/>
-      <c r="M421" s="28"/>
-      <c r="N421" s="28"/>
-      <c r="O421" s="28"/>
-      <c r="P421" s="28"/>
-      <c r="Q421" s="28"/>
-      <c r="R421" s="28"/>
-      <c r="S421" s="28"/>
-      <c r="T421" s="28"/>
-      <c r="U421" s="28"/>
-    </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="28"/>
-      <c r="B422" s="28"/>
-      <c r="C422" s="28"/>
-      <c r="D422" s="28"/>
-      <c r="E422" s="28"/>
-      <c r="F422" s="28"/>
-      <c r="G422" s="28"/>
-      <c r="H422" s="28"/>
-      <c r="I422" s="28"/>
-      <c r="J422" s="28"/>
-      <c r="K422" s="28"/>
-      <c r="L422" s="28"/>
-      <c r="M422" s="28"/>
-      <c r="N422" s="28"/>
-      <c r="O422" s="28"/>
-      <c r="P422" s="28"/>
-      <c r="Q422" s="28"/>
-      <c r="R422" s="28"/>
-      <c r="S422" s="28"/>
-      <c r="T422" s="28"/>
-      <c r="U422" s="28"/>
-    </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="28"/>
-      <c r="B423" s="28"/>
-      <c r="C423" s="28"/>
-      <c r="D423" s="28"/>
-      <c r="E423" s="28"/>
-      <c r="F423" s="28"/>
-      <c r="G423" s="28"/>
-      <c r="H423" s="28"/>
-      <c r="I423" s="28"/>
-      <c r="J423" s="28"/>
-      <c r="K423" s="28"/>
-      <c r="L423" s="28"/>
-      <c r="M423" s="28"/>
-      <c r="N423" s="28"/>
-      <c r="O423" s="28"/>
-      <c r="P423" s="28"/>
-      <c r="Q423" s="28"/>
-      <c r="R423" s="28"/>
-      <c r="S423" s="28"/>
-      <c r="T423" s="28"/>
-      <c r="U423" s="28"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -390,8 +390,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C363" activeCellId="0" sqref="C363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P331" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z336" activeCellId="0" sqref="Z336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajit\PycharmProjects\sim_env_master\ethical_governor\blackboard\commonutils\cbr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajit\PycharmProjects\simulator_env\ethical_governor\blackboard\commonutils\cbr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FA17D-94AA-4175-8C54-0C57887C8ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDC037-61FA-4D76-8926-019DA563E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="44">
   <si>
     <t>case_id</t>
   </si>
@@ -300,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W355"/>
+  <dimension ref="A1:W384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N211" sqref="N211"/>
+    <sheetView tabSelected="1" topLeftCell="M357" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U386" sqref="U386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20268,6 +20268,1511 @@
         <v>13</v>
       </c>
     </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>21</v>
+      </c>
+      <c r="C356" t="b">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>41</v>
+      </c>
+      <c r="E356" t="s">
+        <v>23</v>
+      </c>
+      <c r="F356" t="b">
+        <v>0</v>
+      </c>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356" t="b">
+        <v>0</v>
+      </c>
+      <c r="K356"/>
+      <c r="L356"/>
+      <c r="M356" t="b">
+        <v>0</v>
+      </c>
+      <c r="N356"/>
+      <c r="O356"/>
+      <c r="P356">
+        <v>1</v>
+      </c>
+      <c r="Q356"/>
+      <c r="R356"/>
+      <c r="S356"/>
+      <c r="T356"/>
+      <c r="U356" t="s">
+        <v>24</v>
+      </c>
+      <c r="V356" s="1">
+        <v>1</v>
+      </c>
+      <c r="W356" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>21</v>
+      </c>
+      <c r="C357" t="b">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>41</v>
+      </c>
+      <c r="E357" t="s">
+        <v>23</v>
+      </c>
+      <c r="F357" t="b">
+        <v>0</v>
+      </c>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357" t="b">
+        <v>0</v>
+      </c>
+      <c r="K357"/>
+      <c r="L357"/>
+      <c r="M357" t="b">
+        <v>0</v>
+      </c>
+      <c r="N357"/>
+      <c r="O357"/>
+      <c r="P357">
+        <v>-0.7</v>
+      </c>
+      <c r="Q357"/>
+      <c r="R357"/>
+      <c r="S357"/>
+      <c r="T357"/>
+      <c r="U357" t="s">
+        <v>25</v>
+      </c>
+      <c r="V357" s="1">
+        <v>0</v>
+      </c>
+      <c r="W357" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>21</v>
+      </c>
+      <c r="C358" t="b">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>41</v>
+      </c>
+      <c r="E358"/>
+      <c r="F358" t="b">
+        <v>0</v>
+      </c>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358" t="b">
+        <v>0</v>
+      </c>
+      <c r="K358"/>
+      <c r="L358"/>
+      <c r="M358" t="b">
+        <v>0</v>
+      </c>
+      <c r="N358"/>
+      <c r="O358"/>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358"/>
+      <c r="R358"/>
+      <c r="S358"/>
+      <c r="T358"/>
+      <c r="U358" t="s">
+        <v>26</v>
+      </c>
+      <c r="V358" s="1">
+        <v>1</v>
+      </c>
+      <c r="W358" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>21</v>
+      </c>
+      <c r="C359" t="b">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>41</v>
+      </c>
+      <c r="E359"/>
+      <c r="F359" t="b">
+        <v>0</v>
+      </c>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359" t="b">
+        <v>0</v>
+      </c>
+      <c r="K359"/>
+      <c r="L359"/>
+      <c r="M359" t="b">
+        <v>0</v>
+      </c>
+      <c r="N359"/>
+      <c r="O359"/>
+      <c r="P359">
+        <v>-0.7</v>
+      </c>
+      <c r="Q359"/>
+      <c r="R359"/>
+      <c r="S359"/>
+      <c r="T359"/>
+      <c r="U359" t="s">
+        <v>25</v>
+      </c>
+      <c r="V359" s="1">
+        <v>0</v>
+      </c>
+      <c r="W359" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>21</v>
+      </c>
+      <c r="C360" t="b">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>41</v>
+      </c>
+      <c r="E360" t="s">
+        <v>27</v>
+      </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360" t="b">
+        <v>0</v>
+      </c>
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360" t="b">
+        <v>0</v>
+      </c>
+      <c r="N360"/>
+      <c r="O360"/>
+      <c r="P360">
+        <v>1</v>
+      </c>
+      <c r="Q360"/>
+      <c r="R360"/>
+      <c r="S360"/>
+      <c r="T360"/>
+      <c r="U360" t="s">
+        <v>28</v>
+      </c>
+      <c r="V360" s="1">
+        <v>1</v>
+      </c>
+      <c r="W360" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>21</v>
+      </c>
+      <c r="C361" t="b">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>41</v>
+      </c>
+      <c r="E361" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" t="b">
+        <v>0</v>
+      </c>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361" t="b">
+        <v>0</v>
+      </c>
+      <c r="K361"/>
+      <c r="L361"/>
+      <c r="M361" t="b">
+        <v>0</v>
+      </c>
+      <c r="N361"/>
+      <c r="O361"/>
+      <c r="P361">
+        <v>-0.7</v>
+      </c>
+      <c r="Q361"/>
+      <c r="R361"/>
+      <c r="S361"/>
+      <c r="T361"/>
+      <c r="U361" t="s">
+        <v>29</v>
+      </c>
+      <c r="V361" s="1">
+        <v>0</v>
+      </c>
+      <c r="W361" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>21</v>
+      </c>
+      <c r="C362" t="b">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>41</v>
+      </c>
+      <c r="E362"/>
+      <c r="F362" t="b">
+        <v>0</v>
+      </c>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362" t="b">
+        <v>0</v>
+      </c>
+      <c r="K362"/>
+      <c r="L362"/>
+      <c r="M362" t="b">
+        <v>0</v>
+      </c>
+      <c r="N362"/>
+      <c r="O362"/>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362"/>
+      <c r="R362"/>
+      <c r="S362"/>
+      <c r="T362"/>
+      <c r="U362" t="s">
+        <v>26</v>
+      </c>
+      <c r="V362" s="1">
+        <v>1</v>
+      </c>
+      <c r="W362" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>21</v>
+      </c>
+      <c r="C363" t="b">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>41</v>
+      </c>
+      <c r="E363"/>
+      <c r="F363" t="b">
+        <v>0</v>
+      </c>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363" t="b">
+        <v>0</v>
+      </c>
+      <c r="K363"/>
+      <c r="L363"/>
+      <c r="M363" t="b">
+        <v>0</v>
+      </c>
+      <c r="N363"/>
+      <c r="O363"/>
+      <c r="P363">
+        <v>-0.7</v>
+      </c>
+      <c r="Q363"/>
+      <c r="R363"/>
+      <c r="S363"/>
+      <c r="T363"/>
+      <c r="U363" t="s">
+        <v>25</v>
+      </c>
+      <c r="V363" s="1">
+        <v>0</v>
+      </c>
+      <c r="W363" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>21</v>
+      </c>
+      <c r="C364" t="b">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>41</v>
+      </c>
+      <c r="E364" t="s">
+        <v>27</v>
+      </c>
+      <c r="F364" t="b">
+        <v>0</v>
+      </c>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364" t="b">
+        <v>0</v>
+      </c>
+      <c r="K364"/>
+      <c r="L364"/>
+      <c r="M364" t="b">
+        <v>0</v>
+      </c>
+      <c r="N364"/>
+      <c r="O364"/>
+      <c r="P364">
+        <v>1</v>
+      </c>
+      <c r="Q364"/>
+      <c r="R364"/>
+      <c r="S364"/>
+      <c r="T364"/>
+      <c r="U364" t="s">
+        <v>28</v>
+      </c>
+      <c r="V364" s="1">
+        <v>1</v>
+      </c>
+      <c r="W364" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>21</v>
+      </c>
+      <c r="C365" t="b">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>41</v>
+      </c>
+      <c r="E365" t="s">
+        <v>27</v>
+      </c>
+      <c r="F365" t="b">
+        <v>0</v>
+      </c>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365" t="b">
+        <v>0</v>
+      </c>
+      <c r="K365"/>
+      <c r="L365"/>
+      <c r="M365" t="b">
+        <v>0</v>
+      </c>
+      <c r="N365"/>
+      <c r="O365"/>
+      <c r="P365">
+        <v>-0.7</v>
+      </c>
+      <c r="Q365"/>
+      <c r="R365"/>
+      <c r="S365"/>
+      <c r="T365"/>
+      <c r="U365" t="s">
+        <v>29</v>
+      </c>
+      <c r="V365" s="1">
+        <v>0</v>
+      </c>
+      <c r="W365" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>38</v>
+      </c>
+      <c r="C366" t="b">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>41</v>
+      </c>
+      <c r="E366"/>
+      <c r="F366" t="b">
+        <v>0</v>
+      </c>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366" t="b">
+        <v>0</v>
+      </c>
+      <c r="K366"/>
+      <c r="L366"/>
+      <c r="M366" t="b">
+        <v>0</v>
+      </c>
+      <c r="N366"/>
+      <c r="O366"/>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366"/>
+      <c r="R366"/>
+      <c r="S366"/>
+      <c r="T366"/>
+      <c r="U366" t="s">
+        <v>26</v>
+      </c>
+      <c r="V366" s="1">
+        <v>1</v>
+      </c>
+      <c r="W366" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367" t="b">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>41</v>
+      </c>
+      <c r="E367"/>
+      <c r="F367" t="b">
+        <v>0</v>
+      </c>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367" t="b">
+        <v>0</v>
+      </c>
+      <c r="K367"/>
+      <c r="L367"/>
+      <c r="M367" t="b">
+        <v>0</v>
+      </c>
+      <c r="N367"/>
+      <c r="O367"/>
+      <c r="P367">
+        <v>-0.7</v>
+      </c>
+      <c r="Q367"/>
+      <c r="R367"/>
+      <c r="S367"/>
+      <c r="T367"/>
+      <c r="U367" t="s">
+        <v>25</v>
+      </c>
+      <c r="V367" s="1">
+        <v>0</v>
+      </c>
+      <c r="W367" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>38</v>
+      </c>
+      <c r="C368" t="b">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>41</v>
+      </c>
+      <c r="E368" t="s">
+        <v>27</v>
+      </c>
+      <c r="F368" t="b">
+        <v>0</v>
+      </c>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368" t="b">
+        <v>0</v>
+      </c>
+      <c r="K368"/>
+      <c r="L368"/>
+      <c r="M368" t="b">
+        <v>0</v>
+      </c>
+      <c r="N368"/>
+      <c r="O368"/>
+      <c r="P368">
+        <v>1</v>
+      </c>
+      <c r="Q368"/>
+      <c r="R368"/>
+      <c r="S368"/>
+      <c r="T368"/>
+      <c r="U368" t="s">
+        <v>28</v>
+      </c>
+      <c r="V368" s="1">
+        <v>1</v>
+      </c>
+      <c r="W368" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>38</v>
+      </c>
+      <c r="C369" t="b">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>41</v>
+      </c>
+      <c r="E369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" t="b">
+        <v>0</v>
+      </c>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369"/>
+      <c r="J369" t="b">
+        <v>0</v>
+      </c>
+      <c r="K369"/>
+      <c r="L369"/>
+      <c r="M369" t="b">
+        <v>0</v>
+      </c>
+      <c r="N369"/>
+      <c r="O369"/>
+      <c r="P369">
+        <v>-0.7</v>
+      </c>
+      <c r="Q369"/>
+      <c r="R369"/>
+      <c r="S369"/>
+      <c r="T369"/>
+      <c r="U369" t="s">
+        <v>29</v>
+      </c>
+      <c r="V369" s="1">
+        <v>0</v>
+      </c>
+      <c r="W369" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>38</v>
+      </c>
+      <c r="C370" t="b">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>41</v>
+      </c>
+      <c r="E370"/>
+      <c r="F370" t="b">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>39</v>
+      </c>
+      <c r="H370" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" t="s">
+        <v>36</v>
+      </c>
+      <c r="J370" t="b">
+        <v>1</v>
+      </c>
+      <c r="K370" t="s">
+        <v>39</v>
+      </c>
+      <c r="L370" t="b">
+        <v>0</v>
+      </c>
+      <c r="M370" t="b">
+        <v>0</v>
+      </c>
+      <c r="N370"/>
+      <c r="O370"/>
+      <c r="P370">
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <v>1</v>
+      </c>
+      <c r="R370">
+        <v>-0.8</v>
+      </c>
+      <c r="S370">
+        <v>-0.2</v>
+      </c>
+      <c r="T370"/>
+      <c r="U370" t="s">
+        <v>26</v>
+      </c>
+      <c r="V370" s="1">
+        <v>0</v>
+      </c>
+      <c r="W370" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371" t="b">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>41</v>
+      </c>
+      <c r="E371"/>
+      <c r="F371" t="b">
+        <v>1</v>
+      </c>
+      <c r="G371" t="s">
+        <v>39</v>
+      </c>
+      <c r="H371" t="b">
+        <v>0</v>
+      </c>
+      <c r="I371" t="s">
+        <v>36</v>
+      </c>
+      <c r="J371" t="b">
+        <v>1</v>
+      </c>
+      <c r="K371" t="s">
+        <v>39</v>
+      </c>
+      <c r="L371" t="b">
+        <v>0</v>
+      </c>
+      <c r="M371" t="b">
+        <v>0</v>
+      </c>
+      <c r="N371"/>
+      <c r="O371"/>
+      <c r="P371">
+        <v>-0.7</v>
+      </c>
+      <c r="Q371">
+        <v>-1</v>
+      </c>
+      <c r="R371">
+        <v>0.8</v>
+      </c>
+      <c r="S371">
+        <v>0.2</v>
+      </c>
+      <c r="T371"/>
+      <c r="U371" t="s">
+        <v>25</v>
+      </c>
+      <c r="V371" s="1">
+        <v>1</v>
+      </c>
+      <c r="W371" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>38</v>
+      </c>
+      <c r="C372" t="b">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>41</v>
+      </c>
+      <c r="E372" t="s">
+        <v>27</v>
+      </c>
+      <c r="F372" t="b">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>39</v>
+      </c>
+      <c r="H372" t="b">
+        <v>0</v>
+      </c>
+      <c r="I372" t="s">
+        <v>36</v>
+      </c>
+      <c r="J372" t="b">
+        <v>1</v>
+      </c>
+      <c r="K372" t="s">
+        <v>39</v>
+      </c>
+      <c r="L372" t="b">
+        <v>0</v>
+      </c>
+      <c r="M372" t="b">
+        <v>0</v>
+      </c>
+      <c r="N372"/>
+      <c r="O372"/>
+      <c r="P372">
+        <v>1</v>
+      </c>
+      <c r="Q372">
+        <v>1</v>
+      </c>
+      <c r="R372">
+        <v>-0.8</v>
+      </c>
+      <c r="S372">
+        <v>-0.2</v>
+      </c>
+      <c r="T372"/>
+      <c r="U372" t="s">
+        <v>28</v>
+      </c>
+      <c r="V372" s="1">
+        <v>0</v>
+      </c>
+      <c r="W372" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>38</v>
+      </c>
+      <c r="C373" t="b">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>41</v>
+      </c>
+      <c r="E373" t="s">
+        <v>27</v>
+      </c>
+      <c r="F373" t="b">
+        <v>1</v>
+      </c>
+      <c r="G373" t="s">
+        <v>39</v>
+      </c>
+      <c r="H373" t="b">
+        <v>0</v>
+      </c>
+      <c r="I373" t="s">
+        <v>36</v>
+      </c>
+      <c r="J373" t="b">
+        <v>1</v>
+      </c>
+      <c r="K373" t="s">
+        <v>39</v>
+      </c>
+      <c r="L373" t="b">
+        <v>0</v>
+      </c>
+      <c r="M373" t="b">
+        <v>0</v>
+      </c>
+      <c r="N373"/>
+      <c r="O373"/>
+      <c r="P373">
+        <v>-0.7</v>
+      </c>
+      <c r="Q373">
+        <v>-1</v>
+      </c>
+      <c r="R373">
+        <v>0.8</v>
+      </c>
+      <c r="S373">
+        <v>0.2</v>
+      </c>
+      <c r="T373"/>
+      <c r="U373" t="s">
+        <v>29</v>
+      </c>
+      <c r="V373" s="1">
+        <v>1</v>
+      </c>
+      <c r="W373" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" t="b">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>41</v>
+      </c>
+      <c r="E374"/>
+      <c r="F374" t="b">
+        <v>1</v>
+      </c>
+      <c r="G374" t="s">
+        <v>39</v>
+      </c>
+      <c r="H374" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" t="s">
+        <v>36</v>
+      </c>
+      <c r="J374" t="b">
+        <v>1</v>
+      </c>
+      <c r="K374" t="s">
+        <v>39</v>
+      </c>
+      <c r="L374" t="b">
+        <v>0</v>
+      </c>
+      <c r="M374" t="b">
+        <v>0</v>
+      </c>
+      <c r="N374"/>
+      <c r="O374"/>
+      <c r="P374">
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <v>1</v>
+      </c>
+      <c r="R374">
+        <v>-0.8</v>
+      </c>
+      <c r="S374">
+        <v>-0.2</v>
+      </c>
+      <c r="T374"/>
+      <c r="U374" t="s">
+        <v>26</v>
+      </c>
+      <c r="V374" s="1">
+        <v>0</v>
+      </c>
+      <c r="W374" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>38</v>
+      </c>
+      <c r="C375" t="b">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>41</v>
+      </c>
+      <c r="E375"/>
+      <c r="F375" t="b">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>39</v>
+      </c>
+      <c r="H375" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" t="s">
+        <v>36</v>
+      </c>
+      <c r="J375" t="b">
+        <v>1</v>
+      </c>
+      <c r="K375" t="s">
+        <v>39</v>
+      </c>
+      <c r="L375" t="b">
+        <v>0</v>
+      </c>
+      <c r="M375" t="b">
+        <v>0</v>
+      </c>
+      <c r="N375"/>
+      <c r="O375"/>
+      <c r="P375">
+        <v>-0.7</v>
+      </c>
+      <c r="Q375">
+        <v>-1</v>
+      </c>
+      <c r="R375">
+        <v>0.8</v>
+      </c>
+      <c r="S375">
+        <v>0.2</v>
+      </c>
+      <c r="T375"/>
+      <c r="U375" t="s">
+        <v>25</v>
+      </c>
+      <c r="V375" s="1">
+        <v>1</v>
+      </c>
+      <c r="W375" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>38</v>
+      </c>
+      <c r="C376" t="b">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>41</v>
+      </c>
+      <c r="E376" t="s">
+        <v>30</v>
+      </c>
+      <c r="F376" t="b">
+        <v>1</v>
+      </c>
+      <c r="G376" t="s">
+        <v>39</v>
+      </c>
+      <c r="H376" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" t="s">
+        <v>36</v>
+      </c>
+      <c r="J376" t="b">
+        <v>1</v>
+      </c>
+      <c r="K376" t="s">
+        <v>39</v>
+      </c>
+      <c r="L376" t="b">
+        <v>0</v>
+      </c>
+      <c r="M376" t="b">
+        <v>0</v>
+      </c>
+      <c r="N376"/>
+      <c r="O376"/>
+      <c r="P376">
+        <v>1</v>
+      </c>
+      <c r="Q376">
+        <v>1</v>
+      </c>
+      <c r="R376">
+        <v>-0.8</v>
+      </c>
+      <c r="S376">
+        <v>-0.2</v>
+      </c>
+      <c r="T376"/>
+      <c r="U376" t="s">
+        <v>31</v>
+      </c>
+      <c r="V376" s="1">
+        <v>0</v>
+      </c>
+      <c r="W376" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>38</v>
+      </c>
+      <c r="C377" t="b">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>41</v>
+      </c>
+      <c r="E377" t="s">
+        <v>30</v>
+      </c>
+      <c r="F377" t="b">
+        <v>1</v>
+      </c>
+      <c r="G377" t="s">
+        <v>39</v>
+      </c>
+      <c r="H377" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" t="s">
+        <v>36</v>
+      </c>
+      <c r="J377" t="b">
+        <v>1</v>
+      </c>
+      <c r="K377" t="s">
+        <v>39</v>
+      </c>
+      <c r="L377" t="b">
+        <v>0</v>
+      </c>
+      <c r="M377" t="b">
+        <v>0</v>
+      </c>
+      <c r="N377"/>
+      <c r="O377"/>
+      <c r="P377">
+        <v>-0.7</v>
+      </c>
+      <c r="Q377">
+        <v>-1</v>
+      </c>
+      <c r="R377">
+        <v>0.8</v>
+      </c>
+      <c r="S377">
+        <v>0.2</v>
+      </c>
+      <c r="T377"/>
+      <c r="U377" t="s">
+        <v>29</v>
+      </c>
+      <c r="V377" s="1">
+        <v>1</v>
+      </c>
+      <c r="W377" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>38</v>
+      </c>
+      <c r="C378" t="b">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>41</v>
+      </c>
+      <c r="E378"/>
+      <c r="F378" t="b">
+        <v>1</v>
+      </c>
+      <c r="G378" t="s">
+        <v>39</v>
+      </c>
+      <c r="H378" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" t="s">
+        <v>36</v>
+      </c>
+      <c r="J378" t="b">
+        <v>1</v>
+      </c>
+      <c r="K378" t="s">
+        <v>39</v>
+      </c>
+      <c r="L378" t="b">
+        <v>0</v>
+      </c>
+      <c r="M378" t="b">
+        <v>0</v>
+      </c>
+      <c r="N378"/>
+      <c r="O378"/>
+      <c r="P378">
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
+      <c r="R378">
+        <v>-0.8</v>
+      </c>
+      <c r="S378">
+        <v>-0.2</v>
+      </c>
+      <c r="T378"/>
+      <c r="U378" t="s">
+        <v>26</v>
+      </c>
+      <c r="V378" s="1">
+        <v>0</v>
+      </c>
+      <c r="W378" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379" t="b">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>41</v>
+      </c>
+      <c r="E379"/>
+      <c r="F379" t="b">
+        <v>1</v>
+      </c>
+      <c r="G379" t="s">
+        <v>39</v>
+      </c>
+      <c r="H379" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" t="s">
+        <v>36</v>
+      </c>
+      <c r="J379" t="b">
+        <v>1</v>
+      </c>
+      <c r="K379" t="s">
+        <v>39</v>
+      </c>
+      <c r="L379" t="b">
+        <v>0</v>
+      </c>
+      <c r="M379" t="b">
+        <v>0</v>
+      </c>
+      <c r="N379"/>
+      <c r="O379"/>
+      <c r="P379">
+        <v>-0.7</v>
+      </c>
+      <c r="Q379">
+        <v>-1</v>
+      </c>
+      <c r="R379">
+        <v>0.8</v>
+      </c>
+      <c r="S379">
+        <v>0.2</v>
+      </c>
+      <c r="T379"/>
+      <c r="U379" t="s">
+        <v>25</v>
+      </c>
+      <c r="V379" s="1">
+        <v>1</v>
+      </c>
+      <c r="W379" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>38</v>
+      </c>
+      <c r="C380" t="b">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>41</v>
+      </c>
+      <c r="E380" t="s">
+        <v>30</v>
+      </c>
+      <c r="F380" t="b">
+        <v>1</v>
+      </c>
+      <c r="G380" t="s">
+        <v>39</v>
+      </c>
+      <c r="H380" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" t="s">
+        <v>36</v>
+      </c>
+      <c r="J380" t="b">
+        <v>1</v>
+      </c>
+      <c r="K380" t="s">
+        <v>39</v>
+      </c>
+      <c r="L380" t="b">
+        <v>0</v>
+      </c>
+      <c r="M380" t="b">
+        <v>0</v>
+      </c>
+      <c r="N380"/>
+      <c r="O380"/>
+      <c r="P380">
+        <v>1</v>
+      </c>
+      <c r="Q380">
+        <v>1</v>
+      </c>
+      <c r="R380">
+        <v>-0.8</v>
+      </c>
+      <c r="S380">
+        <v>-0.2</v>
+      </c>
+      <c r="T380"/>
+      <c r="U380" t="s">
+        <v>31</v>
+      </c>
+      <c r="V380" s="1">
+        <v>0</v>
+      </c>
+      <c r="W380" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>38</v>
+      </c>
+      <c r="C381" t="b">
+        <v>1</v>
+      </c>
+      <c r="D381" t="s">
+        <v>41</v>
+      </c>
+      <c r="E381" t="s">
+        <v>30</v>
+      </c>
+      <c r="F381" t="b">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>39</v>
+      </c>
+      <c r="H381" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" t="s">
+        <v>36</v>
+      </c>
+      <c r="J381" t="b">
+        <v>1</v>
+      </c>
+      <c r="K381" t="s">
+        <v>39</v>
+      </c>
+      <c r="L381" t="b">
+        <v>0</v>
+      </c>
+      <c r="M381" t="b">
+        <v>0</v>
+      </c>
+      <c r="N381"/>
+      <c r="O381"/>
+      <c r="P381">
+        <v>-0.7</v>
+      </c>
+      <c r="Q381">
+        <v>-1</v>
+      </c>
+      <c r="R381">
+        <v>0.8</v>
+      </c>
+      <c r="S381">
+        <v>0.2</v>
+      </c>
+      <c r="T381"/>
+      <c r="U381" t="s">
+        <v>29</v>
+      </c>
+      <c r="V381" s="1">
+        <v>1</v>
+      </c>
+      <c r="W381" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>38</v>
+      </c>
+      <c r="C382" t="b">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>41</v>
+      </c>
+      <c r="E382"/>
+      <c r="F382" t="b">
+        <v>1</v>
+      </c>
+      <c r="G382" t="s">
+        <v>39</v>
+      </c>
+      <c r="H382" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" t="s">
+        <v>36</v>
+      </c>
+      <c r="J382" t="b">
+        <v>1</v>
+      </c>
+      <c r="K382" t="s">
+        <v>39</v>
+      </c>
+      <c r="L382" t="b">
+        <v>0</v>
+      </c>
+      <c r="M382" t="b">
+        <v>0</v>
+      </c>
+      <c r="N382"/>
+      <c r="O382"/>
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
+      <c r="R382">
+        <v>-0.8</v>
+      </c>
+      <c r="S382">
+        <v>-0.2</v>
+      </c>
+      <c r="T382"/>
+      <c r="U382" t="s">
+        <v>26</v>
+      </c>
+      <c r="V382" s="1">
+        <v>0</v>
+      </c>
+      <c r="W382" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>38</v>
+      </c>
+      <c r="C383" t="b">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>41</v>
+      </c>
+      <c r="E383"/>
+      <c r="F383" t="b">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>39</v>
+      </c>
+      <c r="H383" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" t="s">
+        <v>36</v>
+      </c>
+      <c r="J383" t="b">
+        <v>1</v>
+      </c>
+      <c r="K383" t="s">
+        <v>39</v>
+      </c>
+      <c r="L383" t="b">
+        <v>0</v>
+      </c>
+      <c r="M383" t="b">
+        <v>0</v>
+      </c>
+      <c r="N383"/>
+      <c r="O383"/>
+      <c r="P383">
+        <v>-0.7</v>
+      </c>
+      <c r="Q383">
+        <v>-1</v>
+      </c>
+      <c r="R383">
+        <v>0.8</v>
+      </c>
+      <c r="S383">
+        <v>0.2</v>
+      </c>
+      <c r="T383"/>
+      <c r="U383" t="s">
+        <v>25</v>
+      </c>
+      <c r="V383" s="1">
+        <v>1</v>
+      </c>
+      <c r="W383" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B384"/>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384"/>
+      <c r="J384"/>
+      <c r="K384"/>
+      <c r="L384"/>
+      <c r="M384"/>
+      <c r="N384"/>
+      <c r="O384"/>
+      <c r="P384"/>
+      <c r="Q384"/>
+      <c r="R384"/>
+      <c r="S384"/>
+      <c r="T384"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
+++ b/ethical_governor/blackboard/commonutils/cbr/data_telepresence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajit\PycharmProjects\simulator_env\ethical_governor\blackboard\commonutils\cbr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDC037-61FA-4D76-8926-019DA563E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791171A8-9F63-4037-8A4F-1DD419FFFA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M357" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U386" sqref="U386"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F386" sqref="F386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20269,6 +20269,9 @@
       </c>
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A356" s="17">
+        <v>355</v>
+      </c>
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -20315,6 +20318,9 @@
       </c>
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A357" s="17">
+        <v>356</v>
+      </c>
       <c r="B357" t="s">
         <v>21</v>
       </c>
@@ -20361,6 +20367,9 @@
       </c>
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A358" s="17">
+        <v>357</v>
+      </c>
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -20405,6 +20414,9 @@
       </c>
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A359" s="17">
+        <v>358</v>
+      </c>
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -20449,6 +20461,9 @@
       </c>
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A360" s="17">
+        <v>359</v>
+      </c>
       <c r="B360" t="s">
         <v>21</v>
       </c>
@@ -20495,6 +20510,9 @@
       </c>
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A361" s="17">
+        <v>360</v>
+      </c>
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -20541,6 +20559,9 @@
       </c>
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A362" s="17">
+        <v>361</v>
+      </c>
       <c r="B362" t="s">
         <v>21</v>
       </c>
@@ -20585,6 +20606,9 @@
       </c>
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A363" s="17">
+        <v>362</v>
+      </c>
       <c r="B363" t="s">
         <v>21</v>
       </c>
@@ -20629,6 +20653,9 @@
       </c>
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A364" s="17">
+        <v>363</v>
+      </c>
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -20675,6 +20702,9 @@
       </c>
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A365" s="17">
+        <v>364</v>
+      </c>
       <c r="B365" t="s">
         <v>21</v>
       </c>
@@ -20721,6 +20751,9 @@
       </c>
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A366" s="17">
+        <v>365</v>
+      </c>
       <c r="B366" t="s">
         <v>38</v>
       </c>
@@ -20765,6 +20798,9 @@
       </c>
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A367" s="17">
+        <v>366</v>
+      </c>
       <c r="B367" t="s">
         <v>38</v>
       </c>
@@ -20809,6 +20845,9 @@
       </c>
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A368" s="17">
+        <v>367</v>
+      </c>
       <c r="B368" t="s">
         <v>38</v>
       </c>
@@ -20854,7 +20893,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" s="17">
+        <v>368</v>
+      </c>
       <c r="B369" t="s">
         <v>38</v>
       </c>
@@ -20900,7 +20942,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" s="17">
+        <v>369</v>
+      </c>
       <c r="B370" t="s">
         <v>38</v>
       </c>
@@ -20960,7 +21005,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A371" s="17">
+        <v>370</v>
+      </c>
       <c r="B371" t="s">
         <v>38</v>
       </c>
@@ -21020,7 +21068,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" s="17">
+        <v>371</v>
+      </c>
       <c r="B372" t="s">
         <v>38</v>
       </c>
@@ -21082,7 +21133,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" s="17">
+        <v>372</v>
+      </c>
       <c r="B373" t="s">
         <v>38</v>
       </c>
@@ -21144,7 +21198,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A374" s="17">
+        <v>373</v>
+      </c>
       <c r="B374" t="s">
         <v>38</v>
       </c>
@@ -21204,7 +21261,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A375" s="17">
+        <v>374</v>
+      </c>
       <c r="B375" t="s">
         <v>38</v>
       </c>
@@ -21264,7 +21324,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A376" s="17">
+        <v>375</v>
+      </c>
       <c r="B376" t="s">
         <v>38</v>
       </c>
@@ -21326,7 +21389,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A377" s="17">
+        <v>376</v>
+      </c>
       <c r="B377" t="s">
         <v>38</v>
       </c>
@@ -21388,7 +21454,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A378" s="17">
+        <v>377</v>
+      </c>
       <c r="B378" t="s">
         <v>38</v>
       </c>
@@ -21448,7 +21517,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A379" s="17">
+        <v>378</v>
+      </c>
       <c r="B379" t="s">
         <v>38</v>
       </c>
@@ -21508,7 +21580,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A380" s="17">
+        <v>379</v>
+      </c>
       <c r="B380" t="s">
         <v>38</v>
       </c>
@@ -21570,7 +21645,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A381" s="17">
+        <v>380</v>
+      </c>
       <c r="B381" t="s">
         <v>38</v>
       </c>
@@ -21632,7 +21710,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A382" s="17">
+        <v>381</v>
+      </c>
       <c r="B382" t="s">
         <v>38</v>
       </c>
@@ -21692,7 +21773,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A383" s="17">
+        <v>382</v>
+      </c>
       <c r="B383" t="s">
         <v>38</v>
       </c>
@@ -21752,7 +21836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
